--- a/2561/MY WORK/ยอดแบบ ภพ.30.xlsx
+++ b/2561/MY WORK/ยอดแบบ ภพ.30.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DDF091-B609-4F0D-8093-4100B10DFCDA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07345EDC-709E-4260-B596-D469C40594E1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="887" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,7 +967,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -979,32 +994,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="187" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1012,7 +1003,13 @@
     <xf numFmtId="187" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="187" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1024,10 +1021,43 @@
     <xf numFmtId="187" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="187" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1043,36 +1073,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="189" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="187" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1441,32 +1441,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
     </row>
     <row r="2" spans="1:14" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
     </row>
     <row r="3" spans="1:14" ht="31.5" x14ac:dyDescent="0.65">
       <c r="A3" s="10"/>
@@ -1482,36 +1482,36 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139" t="s">
+      <c r="C4" s="144"/>
+      <c r="D4" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139" t="s">
+      <c r="E4" s="144"/>
+      <c r="F4" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="139"/>
+      <c r="G4" s="144"/>
       <c r="H4" s="1"/>
       <c r="J4" s="21"/>
       <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:14" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A5" s="9"/>
-      <c r="B5" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="138">
+      <c r="B5" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="137"/>
+      <c r="D5" s="143">
         <v>680635.51</v>
       </c>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138">
+      <c r="E5" s="143"/>
+      <c r="F5" s="143">
         <v>47644.49</v>
       </c>
-      <c r="G5" s="138"/>
+      <c r="G5" s="143"/>
       <c r="H5" s="2"/>
       <c r="I5" s="3">
         <f>D5+F5</f>
@@ -1525,10 +1525,10 @@
     </row>
     <row r="6" spans="1:14" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8"/>
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="142" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="143"/>
+      <c r="C6" s="142"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -1539,18 +1539,18 @@
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:14" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="137" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="137">
+      <c r="C7" s="137"/>
+      <c r="D7" s="139">
         <v>237724.02</v>
       </c>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137">
+      <c r="E7" s="139"/>
+      <c r="F7" s="139">
         <v>16640.68</v>
       </c>
-      <c r="G7" s="137"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3">
         <f t="shared" ref="I7:I14" si="0">D7+F7</f>
@@ -1564,18 +1564,18 @@
     </row>
     <row r="8" spans="1:14" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9"/>
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="137">
+      <c r="C8" s="137"/>
+      <c r="D8" s="139">
         <v>172290.56</v>
       </c>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137">
+      <c r="E8" s="139"/>
+      <c r="F8" s="139">
         <v>12060.34</v>
       </c>
-      <c r="G8" s="137"/>
+      <c r="G8" s="139"/>
       <c r="H8" s="2"/>
       <c r="I8" s="3">
         <f t="shared" si="0"/>
@@ -1589,14 +1589,14 @@
     </row>
     <row r="9" spans="1:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9"/>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
       <c r="H9" s="2"/>
       <c r="I9" s="3">
         <f t="shared" si="0"/>
@@ -1610,18 +1610,18 @@
     </row>
     <row r="10" spans="1:14" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="9"/>
-      <c r="B10" s="141" t="s">
+      <c r="B10" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="141"/>
-      <c r="D10" s="137">
-        <v>0</v>
-      </c>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137">
-        <v>0</v>
-      </c>
-      <c r="G10" s="137"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="139">
+        <v>0</v>
+      </c>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139">
+        <v>0</v>
+      </c>
+      <c r="G10" s="139"/>
       <c r="H10" s="2"/>
       <c r="I10" s="3">
         <f>D10+F10</f>
@@ -1635,18 +1635,18 @@
     </row>
     <row r="11" spans="1:14" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9"/>
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="141"/>
-      <c r="D11" s="137">
-        <v>0</v>
-      </c>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137">
-        <v>0</v>
-      </c>
-      <c r="G11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="139">
+        <v>0</v>
+      </c>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139">
+        <v>0</v>
+      </c>
+      <c r="G11" s="139"/>
       <c r="H11" s="2"/>
       <c r="I11" s="3">
         <f t="shared" si="0"/>
@@ -1660,19 +1660,19 @@
     </row>
     <row r="12" spans="1:14" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9"/>
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="141"/>
-      <c r="D12" s="137">
+      <c r="C12" s="137"/>
+      <c r="D12" s="139">
         <f>5981.31+3364.49+10560.75</f>
         <v>19906.55</v>
       </c>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137">
+      <c r="E12" s="139"/>
+      <c r="F12" s="139">
         <v>1393.46</v>
       </c>
-      <c r="G12" s="137"/>
+      <c r="G12" s="139"/>
       <c r="H12" s="4"/>
       <c r="I12" s="3">
         <f>D12+F12</f>
@@ -1686,18 +1686,18 @@
     </row>
     <row r="13" spans="1:14" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A13" s="9"/>
-      <c r="B13" s="141" t="s">
+      <c r="B13" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="141"/>
-      <c r="D13" s="146">
+      <c r="C13" s="137"/>
+      <c r="D13" s="138">
         <v>3500</v>
       </c>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146">
+      <c r="E13" s="138"/>
+      <c r="F13" s="138">
         <v>245</v>
       </c>
-      <c r="G13" s="146"/>
+      <c r="G13" s="138"/>
       <c r="H13" s="4"/>
       <c r="I13" s="3">
         <f t="shared" si="0"/>
@@ -1711,20 +1711,20 @@
     </row>
     <row r="14" spans="1:14" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A14" s="9"/>
-      <c r="B14" s="141" t="s">
+      <c r="B14" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="141"/>
-      <c r="D14" s="144">
+      <c r="C14" s="137"/>
+      <c r="D14" s="140">
         <f>SUM(D7:E13)</f>
         <v>433421.12999999995</v>
       </c>
-      <c r="E14" s="145"/>
-      <c r="F14" s="144">
+      <c r="E14" s="141"/>
+      <c r="F14" s="140">
         <f>SUM(F7:G13)</f>
         <v>30339.48</v>
       </c>
-      <c r="G14" s="145"/>
+      <c r="G14" s="141"/>
       <c r="H14" s="1"/>
       <c r="I14" s="3">
         <f t="shared" si="0"/>
@@ -1749,18 +1749,18 @@
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:14" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A16" s="143" t="s">
+      <c r="A16" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="143"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="144">
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="140">
         <f>F5-F14</f>
         <v>17305.009999999998</v>
       </c>
-      <c r="G16" s="145"/>
+      <c r="G16" s="141"/>
       <c r="H16" s="1"/>
       <c r="L16" s="14"/>
     </row>
@@ -2174,27 +2174,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F10:G10"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="F11:G11"/>
@@ -2211,6 +2190,27 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2221,8 +2221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2244,19 +2244,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
       <c r="M1" s="3">
         <f>ROUND(C$19,2)</f>
-        <v>114441</v>
+        <v>76886</v>
       </c>
       <c r="N1" s="52">
         <f>C24</f>
@@ -2264,20 +2264,20 @@
       </c>
       <c r="O1" s="34">
         <f>ROUND(N1*M1,2)</f>
-        <v>1696015.62</v>
+        <v>1139450.52</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
       <c r="M2" s="3">
         <f>ROUND(D$19,2)</f>
         <v>0</v>
@@ -2303,7 +2303,7 @@
         <v>20</v>
       </c>
       <c r="K3" s="15">
-        <v>8650</v>
+        <v>8100</v>
       </c>
       <c r="M3" s="3">
         <f>ROUND(E$19,2)</f>
@@ -2319,25 +2319,25 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139" t="s">
+      <c r="C4" s="144"/>
+      <c r="D4" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139" t="s">
+      <c r="E4" s="144"/>
+      <c r="F4" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="139"/>
+      <c r="G4" s="144"/>
       <c r="H4" s="1"/>
       <c r="J4" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="15">
-        <f>15280+15200+15270+15560</f>
-        <v>61310</v>
+        <f>15400+7740+10550+7420</f>
+        <v>41110</v>
       </c>
       <c r="M4" s="3">
         <f>ROUND(F$19,2)</f>
@@ -2354,24 +2354,28 @@
     </row>
     <row r="5" spans="1:16" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A5" s="9"/>
-      <c r="B5" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
+      <c r="B5" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="137"/>
+      <c r="D5" s="143">
+        <v>1064907.03</v>
+      </c>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143">
+        <v>74543.490000000005</v>
+      </c>
+      <c r="G5" s="143"/>
       <c r="H5" s="2"/>
       <c r="I5" s="3">
         <f>D5*0.07</f>
-        <v>0</v>
+        <v>74543.492100000003</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="15">
-        <v>8100</v>
+        <v>7650</v>
       </c>
       <c r="M5" s="3">
         <f>ROUND(G$19,2)</f>
@@ -2401,11 +2405,11 @@
       </c>
       <c r="K6" s="15">
         <f>K3+K4-K5</f>
-        <v>61860</v>
+        <v>41560</v>
       </c>
       <c r="L6" s="15">
         <f>K6*1.85</f>
-        <v>114441</v>
+        <v>76886</v>
       </c>
       <c r="M6" s="3">
         <f>ROUND(H$19,2)</f>
@@ -2418,48 +2422,56 @@
       </c>
       <c r="P6" s="34">
         <f>SUM(O1:O6)</f>
-        <v>1696015.62</v>
+        <v>1139450.52</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="139">
+        <v>750372.61</v>
+      </c>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139">
+        <v>52526.080000000002</v>
+      </c>
+      <c r="G7" s="139"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52526.082700000006</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="42">
         <f>SUM(M1:M6)</f>
-        <v>114441</v>
+        <v>76886</v>
       </c>
       <c r="N7" s="15"/>
       <c r="P7" s="34">
         <f>ROUND(P6*7/107,2)</f>
-        <v>110954.29</v>
+        <v>74543.490000000005</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9"/>
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="139">
+        <v>7691.45</v>
+      </c>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139">
+        <v>538.4</v>
+      </c>
+      <c r="G8" s="139"/>
       <c r="H8" s="2"/>
       <c r="I8" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>538.40150000000006</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="34"/>
@@ -2467,19 +2479,19 @@
       <c r="N8" s="15"/>
       <c r="P8" s="35">
         <f>P6-P7</f>
-        <v>1585061.33</v>
+        <v>1064907.03</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9"/>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
       <c r="H9" s="2"/>
       <c r="I9" s="3">
         <f t="shared" si="1"/>
@@ -2489,14 +2501,14 @@
     </row>
     <row r="10" spans="1:16" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="9"/>
-      <c r="B10" s="141" t="s">
+      <c r="B10" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="141"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
       <c r="H10" s="2"/>
       <c r="I10" s="3">
         <f t="shared" si="1"/>
@@ -2506,18 +2518,18 @@
     </row>
     <row r="11" spans="1:16" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A11" s="9"/>
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="141"/>
-      <c r="D11" s="146">
+      <c r="C11" s="137"/>
+      <c r="D11" s="138">
         <v>6000</v>
       </c>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146">
+      <c r="E11" s="138"/>
+      <c r="F11" s="138">
         <v>420</v>
       </c>
-      <c r="G11" s="146"/>
+      <c r="G11" s="138"/>
       <c r="H11" s="4"/>
       <c r="I11" s="3">
         <f t="shared" si="1"/>
@@ -2527,24 +2539,24 @@
     </row>
     <row r="12" spans="1:16" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A12" s="9"/>
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="141"/>
-      <c r="D12" s="144">
+      <c r="C12" s="137"/>
+      <c r="D12" s="140">
         <f>SUM(D7:E11)</f>
-        <v>6000</v>
-      </c>
-      <c r="E12" s="145"/>
-      <c r="F12" s="144">
+        <v>764064.05999999994</v>
+      </c>
+      <c r="E12" s="141"/>
+      <c r="F12" s="140">
         <f>SUM(F7:G11)</f>
-        <v>420</v>
-      </c>
-      <c r="G12" s="144"/>
+        <v>53484.480000000003</v>
+      </c>
+      <c r="G12" s="140"/>
       <c r="H12" s="1"/>
       <c r="I12" s="3">
         <f t="shared" si="1"/>
-        <v>420.00000000000006</v>
+        <v>53484.484199999999</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="26.25" x14ac:dyDescent="0.55000000000000004">
@@ -2558,18 +2570,18 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:16" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A14" s="143" t="s">
+      <c r="A14" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="143"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="144">
+      <c r="B14" s="142"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="140">
         <f>F5-F12</f>
-        <v>-420</v>
-      </c>
-      <c r="G14" s="145"/>
+        <v>21059.010000000002</v>
+      </c>
+      <c r="G14" s="141"/>
       <c r="H14" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -2581,7 +2593,7 @@
       </c>
       <c r="C17" s="15">
         <f>L6</f>
-        <v>114441</v>
+        <v>76886</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
@@ -2595,7 +2607,7 @@
       </c>
       <c r="C19" s="42">
         <f>30/30*C17</f>
-        <v>114441</v>
+        <v>76886</v>
       </c>
       <c r="D19" s="42">
         <f>0/31*C17</f>
@@ -2619,42 +2631,42 @@
       </c>
       <c r="I19" s="23">
         <f>SUM(C19:H19)</f>
-        <v>114441</v>
+        <v>76886</v>
       </c>
       <c r="L19" s="23">
         <f>SUM(L20:L29)</f>
-        <v>1119071.96</v>
+        <v>750372.6100000001</v>
       </c>
       <c r="M19" s="23">
         <f>SUM(M20:M29)</f>
-        <v>78335.039999999994</v>
+        <v>52526.080000000002</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="L20" s="15">
-        <v>278902.78000000003</v>
+        <v>281093.12</v>
       </c>
       <c r="M20" s="15">
         <f>ROUND(L20*0.07,2)</f>
-        <v>19523.189999999999</v>
+        <v>19676.52</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="L21" s="15">
-        <v>277442.56</v>
+        <v>141276.67000000001</v>
       </c>
       <c r="M21" s="15">
         <f t="shared" ref="M21:M29" si="2">ROUND(L21*0.07,2)</f>
-        <v>19420.98</v>
+        <v>9889.3700000000008</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="L22" s="15">
-        <v>278720.26</v>
+        <v>192567.04000000001</v>
       </c>
       <c r="M22" s="15">
         <f t="shared" si="2"/>
-        <v>19510.419999999998</v>
+        <v>13479.69</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
@@ -2668,11 +2680,11 @@
       <c r="H23" s="124"/>
       <c r="I23" s="60"/>
       <c r="L23" s="15">
-        <v>284006.36</v>
+        <v>135435.78</v>
       </c>
       <c r="M23" s="15">
         <f t="shared" si="2"/>
-        <v>19880.45</v>
+        <v>9480.5</v>
       </c>
     </row>
     <row r="24" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -2772,11 +2784,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
@@ -2786,20 +2807,11 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:G14"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2830,28 +2842,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
     </row>
     <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
     </row>
     <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
       <c r="A3" s="10"/>
@@ -2875,18 +2887,18 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139" t="s">
+      <c r="C4" s="144"/>
+      <c r="D4" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139" t="s">
+      <c r="E4" s="144"/>
+      <c r="F4" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="139"/>
+      <c r="G4" s="144"/>
       <c r="H4" s="1"/>
       <c r="M4" s="15">
         <f>D16*388</f>
@@ -2903,18 +2915,18 @@
     </row>
     <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9"/>
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="137">
+      <c r="C5" s="137"/>
+      <c r="D5" s="139">
         <v>141057.94</v>
       </c>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137">
+      <c r="E5" s="139"/>
+      <c r="F5" s="139">
         <v>9874.06</v>
       </c>
-      <c r="G5" s="137"/>
+      <c r="G5" s="139"/>
       <c r="H5" s="2"/>
       <c r="J5" s="21">
         <f>D5*0.07</f>
@@ -2933,18 +2945,18 @@
     </row>
     <row r="6" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A6" s="9"/>
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="137" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="141"/>
-      <c r="D6" s="138">
+      <c r="C6" s="137"/>
+      <c r="D6" s="143">
         <v>8224.2999999999993</v>
       </c>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138">
+      <c r="E6" s="143"/>
+      <c r="F6" s="143">
         <v>575.70000000000005</v>
       </c>
-      <c r="G6" s="138"/>
+      <c r="G6" s="143"/>
       <c r="H6" s="2"/>
       <c r="J6" s="21">
         <f>D6*0.07</f>
@@ -2960,20 +2972,20 @@
     </row>
     <row r="7" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A7" s="8"/>
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="143"/>
-      <c r="D7" s="138">
+      <c r="C7" s="142"/>
+      <c r="D7" s="143">
         <f>SUM(D5:E6)</f>
         <v>149282.23999999999</v>
       </c>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138">
+      <c r="E7" s="143"/>
+      <c r="F7" s="143">
         <f>SUM(F5:G6)</f>
         <v>10449.76</v>
       </c>
-      <c r="G7" s="138"/>
+      <c r="G7" s="143"/>
       <c r="H7" s="2"/>
       <c r="J7" s="3">
         <f t="shared" ref="J7:J12" si="0">D7*0.07</f>
@@ -2981,18 +2993,18 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="137">
+      <c r="C8" s="137"/>
+      <c r="D8" s="139">
         <v>119244.86</v>
       </c>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137">
+      <c r="E8" s="139"/>
+      <c r="F8" s="139">
         <v>8347.14</v>
       </c>
-      <c r="G8" s="137"/>
+      <c r="G8" s="139"/>
       <c r="H8" s="2"/>
       <c r="J8" s="3">
         <f t="shared" si="0"/>
@@ -3005,12 +3017,12 @@
     </row>
     <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
       <c r="H9" s="2"/>
       <c r="J9" s="3">
         <f t="shared" si="0"/>
@@ -3019,12 +3031,12 @@
     </row>
     <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="9"/>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
       <c r="H10" s="2"/>
       <c r="J10" s="3">
         <f t="shared" si="0"/>
@@ -3033,12 +3045,12 @@
     </row>
     <row r="11" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A11" s="9"/>
-      <c r="B11" s="141"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
       <c r="H11" s="4"/>
       <c r="J11" s="3">
         <f t="shared" si="0"/>
@@ -3047,20 +3059,20 @@
     </row>
     <row r="12" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A12" s="9"/>
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="143"/>
-      <c r="D12" s="144">
+      <c r="C12" s="142"/>
+      <c r="D12" s="140">
         <f>SUM(D8:E11)</f>
         <v>119244.86</v>
       </c>
-      <c r="E12" s="145"/>
-      <c r="F12" s="144">
+      <c r="E12" s="141"/>
+      <c r="F12" s="140">
         <f>SUM(F8:G11)</f>
         <v>8347.14</v>
       </c>
-      <c r="G12" s="145"/>
+      <c r="G12" s="141"/>
       <c r="H12" s="1"/>
       <c r="J12" s="3">
         <f t="shared" si="0"/>
@@ -3078,18 +3090,18 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A14" s="143" t="s">
+      <c r="A14" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="143"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="144">
+      <c r="B14" s="142"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="140">
         <f>F7-F12</f>
         <v>2102.6200000000008</v>
       </c>
-      <c r="G14" s="145"/>
+      <c r="G14" s="141"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -3394,23 +3406,12 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
@@ -3419,12 +3420,23 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3457,16 +3469,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
       <c r="M1" s="3">
         <f>ROUND(C$18,2)</f>
         <v>114977.5</v>
@@ -3481,16 +3493,16 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
       <c r="M2" s="3">
         <f>ROUND(D$18,2)</f>
         <v>0</v>
@@ -3532,18 +3544,18 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139" t="s">
+      <c r="C4" s="144"/>
+      <c r="D4" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139" t="s">
+      <c r="E4" s="144"/>
+      <c r="F4" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="139"/>
+      <c r="G4" s="144"/>
       <c r="H4" s="60"/>
       <c r="J4" t="s">
         <v>8</v>
@@ -3566,18 +3578,18 @@
     </row>
     <row r="5" spans="1:16" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A5" s="9"/>
-      <c r="B5" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="138">
+      <c r="B5" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="137"/>
+      <c r="D5" s="143">
         <v>1592492.1</v>
       </c>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138">
+      <c r="E5" s="143"/>
+      <c r="F5" s="143">
         <v>111474.45</v>
       </c>
-      <c r="G5" s="138"/>
+      <c r="G5" s="143"/>
       <c r="H5" s="2"/>
       <c r="I5" s="3">
         <f>D5*0.07</f>
@@ -3638,18 +3650,18 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="137">
+      <c r="C7" s="137"/>
+      <c r="D7" s="139">
         <v>1122532.97</v>
       </c>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137">
+      <c r="E7" s="139"/>
+      <c r="F7" s="139">
         <v>78577.31</v>
       </c>
-      <c r="G7" s="137"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3">
         <f t="shared" si="1"/>
@@ -3668,18 +3680,18 @@
     </row>
     <row r="8" spans="1:16" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9"/>
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="137">
+      <c r="C8" s="137"/>
+      <c r="D8" s="139">
         <v>5488.19</v>
       </c>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137">
+      <c r="E8" s="139"/>
+      <c r="F8" s="139">
         <v>384.17</v>
       </c>
-      <c r="G8" s="137"/>
+      <c r="G8" s="139"/>
       <c r="H8" s="2"/>
       <c r="I8" s="3">
         <f t="shared" si="1"/>
@@ -3696,14 +3708,14 @@
     </row>
     <row r="9" spans="1:16" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9"/>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
       <c r="H9" s="2"/>
       <c r="I9" s="3">
         <f t="shared" si="1"/>
@@ -3713,12 +3725,12 @@
     </row>
     <row r="10" spans="1:16" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A10" s="9"/>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
       <c r="H10" s="4"/>
       <c r="I10" s="3">
         <f t="shared" si="1"/>
@@ -3728,20 +3740,20 @@
     </row>
     <row r="11" spans="1:16" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A11" s="9"/>
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="141"/>
-      <c r="D11" s="144">
+      <c r="C11" s="137"/>
+      <c r="D11" s="140">
         <f>SUM(D7:E10)</f>
         <v>1128021.1599999999</v>
       </c>
-      <c r="E11" s="145"/>
-      <c r="F11" s="144">
+      <c r="E11" s="141"/>
+      <c r="F11" s="140">
         <f>SUM(F7:G10)</f>
         <v>78961.48</v>
       </c>
-      <c r="G11" s="144"/>
+      <c r="G11" s="140"/>
       <c r="H11" s="60"/>
       <c r="I11" s="3">
         <f t="shared" si="1"/>
@@ -3759,18 +3771,18 @@
       <c r="H12" s="60"/>
     </row>
     <row r="13" spans="1:16" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="143"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="144">
+      <c r="B13" s="142"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="140">
         <f>F5-F11</f>
         <v>32512.97</v>
       </c>
-      <c r="G13" s="145"/>
+      <c r="G13" s="141"/>
       <c r="H13" s="60"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -3992,16 +4004,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
@@ -4017,6 +4019,16 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4076,14 +4088,14 @@
       <c r="N1" s="90"/>
       <c r="O1" s="90"/>
       <c r="P1" s="88"/>
-      <c r="S1" s="159" t="s">
+      <c r="S1" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="159"/>
-      <c r="W1" s="159"/>
-      <c r="X1" s="159"/>
+      <c r="T1" s="169"/>
+      <c r="U1" s="169"/>
+      <c r="V1" s="169"/>
+      <c r="W1" s="169"/>
+      <c r="X1" s="169"/>
     </row>
     <row r="2" spans="1:24" ht="31.5" x14ac:dyDescent="0.65">
       <c r="A2" s="166" t="s">
@@ -4114,10 +4126,10 @@
       <c r="V2" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="W2" s="160" t="s">
+      <c r="W2" s="170" t="s">
         <v>63</v>
       </c>
-      <c r="X2" s="160"/>
+      <c r="X2" s="170"/>
     </row>
     <row r="3" spans="1:24" ht="31.5" x14ac:dyDescent="0.65">
       <c r="A3" s="76"/>
@@ -4149,11 +4161,11 @@
       <c r="V3" s="107">
         <v>0</v>
       </c>
-      <c r="W3" s="161">
+      <c r="W3" s="171">
         <f>T3+V3</f>
         <v>5</v>
       </c>
-      <c r="X3" s="161"/>
+      <c r="X3" s="171"/>
     </row>
     <row r="4" spans="1:24" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="167" t="s">
@@ -4189,18 +4201,18 @@
         <f>H55</f>
         <v>14738</v>
       </c>
-      <c r="W4" s="161">
+      <c r="W4" s="171">
         <f>SUM(T4:V4)</f>
         <v>14758</v>
       </c>
-      <c r="X4" s="161"/>
+      <c r="X4" s="171"/>
     </row>
     <row r="5" spans="1:24" ht="30" x14ac:dyDescent="0.8">
       <c r="A5" s="79"/>
-      <c r="B5" s="163" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="163"/>
+      <c r="B5" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="158"/>
       <c r="D5" s="164">
         <v>4553673.83</v>
       </c>
@@ -4233,11 +4245,11 @@
         <f>-N21</f>
         <v>-389</v>
       </c>
-      <c r="W5" s="161">
+      <c r="W5" s="171">
         <f>SUM(T5:V5)</f>
         <v>-399</v>
       </c>
-      <c r="X5" s="161"/>
+      <c r="X5" s="171"/>
     </row>
     <row r="6" spans="1:24" ht="27.75" x14ac:dyDescent="0.65">
       <c r="A6" s="81"/>
@@ -4272,25 +4284,25 @@
         <f>-O21</f>
         <v>-14349</v>
       </c>
-      <c r="W6" s="161">
+      <c r="W6" s="171">
         <f t="shared" ref="W6" si="1">T6+V6</f>
         <v>-14364</v>
       </c>
-      <c r="X6" s="161"/>
+      <c r="X6" s="171"/>
     </row>
     <row r="7" spans="1:24" ht="27.75" x14ac:dyDescent="0.65">
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="163"/>
-      <c r="D7" s="168">
+      <c r="C7" s="158"/>
+      <c r="D7" s="162">
         <v>4419496.21</v>
       </c>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168">
+      <c r="E7" s="162"/>
+      <c r="F7" s="162">
         <v>309364.73</v>
       </c>
-      <c r="G7" s="168"/>
+      <c r="G7" s="162"/>
       <c r="H7" s="80"/>
       <c r="J7" s="74">
         <f t="shared" si="0"/>
@@ -4319,27 +4331,27 @@
         <f t="shared" ref="V7" si="2">SUM(V3:V6)</f>
         <v>0</v>
       </c>
-      <c r="W7" s="162">
+      <c r="W7" s="172">
         <f>SUM(W3:W6)</f>
         <v>0</v>
       </c>
-      <c r="X7" s="162"/>
+      <c r="X7" s="172"/>
     </row>
     <row r="8" spans="1:24" ht="27.75" x14ac:dyDescent="0.65">
       <c r="A8" s="79"/>
-      <c r="B8" s="163" t="s">
+      <c r="B8" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="163"/>
-      <c r="D8" s="168">
+      <c r="C8" s="158"/>
+      <c r="D8" s="162">
         <f>25467.29+25233.65</f>
         <v>50700.94</v>
       </c>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168">
+      <c r="E8" s="162"/>
+      <c r="F8" s="162">
         <v>3549.07</v>
       </c>
-      <c r="G8" s="168"/>
+      <c r="G8" s="162"/>
       <c r="H8" s="80"/>
       <c r="J8" s="74">
         <f t="shared" si="0"/>
@@ -4360,18 +4372,18 @@
     </row>
     <row r="9" spans="1:24" ht="27.75" x14ac:dyDescent="0.65">
       <c r="A9" s="79"/>
-      <c r="B9" s="163" t="s">
+      <c r="B9" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="163"/>
-      <c r="D9" s="168">
+      <c r="C9" s="158"/>
+      <c r="D9" s="162">
         <v>9262.5499999999993</v>
       </c>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168">
+      <c r="E9" s="162"/>
+      <c r="F9" s="162">
         <v>648.38</v>
       </c>
-      <c r="G9" s="168"/>
+      <c r="G9" s="162"/>
       <c r="H9" s="80"/>
       <c r="J9" s="74">
         <f t="shared" si="0"/>
@@ -4398,18 +4410,18 @@
     </row>
     <row r="10" spans="1:24" ht="30" x14ac:dyDescent="0.8">
       <c r="A10" s="79"/>
-      <c r="B10" s="163" t="s">
+      <c r="B10" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="163"/>
-      <c r="D10" s="169">
+      <c r="C10" s="158"/>
+      <c r="D10" s="163">
         <v>4000</v>
       </c>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169">
+      <c r="E10" s="163"/>
+      <c r="F10" s="163">
         <v>280</v>
       </c>
-      <c r="G10" s="169"/>
+      <c r="G10" s="163"/>
       <c r="H10" s="84"/>
       <c r="J10" s="74">
         <f t="shared" si="0"/>
@@ -4441,20 +4453,20 @@
     </row>
     <row r="11" spans="1:24" ht="30" x14ac:dyDescent="0.8">
       <c r="A11" s="79"/>
-      <c r="B11" s="163" t="s">
+      <c r="B11" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="163"/>
-      <c r="D11" s="170">
+      <c r="C11" s="158"/>
+      <c r="D11" s="159">
         <f>SUM(D7:E10)</f>
         <v>4483459.7</v>
       </c>
-      <c r="E11" s="171"/>
-      <c r="F11" s="170">
+      <c r="E11" s="160"/>
+      <c r="F11" s="159">
         <f>SUM(F7:G10)</f>
         <v>313842.18</v>
       </c>
-      <c r="G11" s="170"/>
+      <c r="G11" s="159"/>
       <c r="H11" s="77"/>
       <c r="J11" s="74">
         <f t="shared" si="0"/>
@@ -4507,18 +4519,18 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="30" x14ac:dyDescent="0.8">
-      <c r="A13" s="172" t="s">
+      <c r="A13" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="172"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="170">
+      <c r="B13" s="161"/>
+      <c r="C13" s="161"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="159">
         <f>F5-F11</f>
         <v>4914.9899999999907</v>
       </c>
-      <c r="G13" s="171"/>
+      <c r="G13" s="160"/>
       <c r="H13" s="77"/>
       <c r="T13" s="100" t="s">
         <v>72</v>
@@ -4585,13 +4597,13 @@
     <row r="19" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="73"/>
       <c r="E19" s="74"/>
-      <c r="S19" s="158" t="s">
+      <c r="S19" s="168" t="s">
         <v>63</v>
       </c>
-      <c r="T19" s="158"/>
-      <c r="U19" s="158"/>
-      <c r="V19" s="158"/>
-      <c r="W19" s="158"/>
+      <c r="T19" s="168"/>
+      <c r="U19" s="168"/>
+      <c r="V19" s="168"/>
+      <c r="W19" s="168"/>
       <c r="X19" s="113">
         <f>SUM(X10:X18)</f>
         <v>4848064</v>
@@ -4781,13 +4793,13 @@
         <f>O23*P23</f>
         <v>0</v>
       </c>
-      <c r="S23" s="158" t="s">
+      <c r="S23" s="168" t="s">
         <v>63</v>
       </c>
-      <c r="T23" s="158"/>
-      <c r="U23" s="158"/>
-      <c r="V23" s="158"/>
-      <c r="W23" s="158"/>
+      <c r="T23" s="168"/>
+      <c r="U23" s="168"/>
+      <c r="V23" s="168"/>
+      <c r="W23" s="168"/>
       <c r="X23" s="117">
         <f>SUM(X21:X22)</f>
         <v>24367</v>
@@ -6667,31 +6679,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="S19:W19"/>
     <mergeCell ref="S23:W23"/>
     <mergeCell ref="S1:X1"/>
@@ -6701,6 +6688,31 @@
     <mergeCell ref="W5:X5"/>
     <mergeCell ref="W6:X6"/>
     <mergeCell ref="W7:X7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6732,28 +6744,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
     </row>
     <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
     </row>
     <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
       <c r="A3" s="55"/>
@@ -6779,37 +6791,37 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139" t="s">
+      <c r="C4" s="144"/>
+      <c r="D4" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139" t="s">
+      <c r="E4" s="144"/>
+      <c r="F4" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="139"/>
+      <c r="G4" s="144"/>
       <c r="H4" s="56"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A5" s="9"/>
-      <c r="B5" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="138">
+      <c r="B5" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="137"/>
+      <c r="D5" s="143">
         <f>C20</f>
         <v>1178373</v>
       </c>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138">
+      <c r="E5" s="143"/>
+      <c r="F5" s="143">
         <v>82486.11</v>
       </c>
-      <c r="G5" s="138"/>
+      <c r="G5" s="143"/>
       <c r="H5" s="2"/>
       <c r="I5" s="15">
         <f>D5*0.07</f>
@@ -6834,19 +6846,19 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="137">
+      <c r="C7" s="137"/>
+      <c r="D7" s="139">
         <f>I18</f>
         <v>892000</v>
       </c>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137">
+      <c r="E7" s="139"/>
+      <c r="F7" s="139">
         <v>62440</v>
       </c>
-      <c r="G7" s="137"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="2"/>
       <c r="I7" s="15">
         <f>D7*0.07</f>
@@ -6859,19 +6871,19 @@
     </row>
     <row r="8" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9"/>
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="137">
+      <c r="C8" s="137"/>
+      <c r="D8" s="139">
         <f>J18</f>
         <v>24300</v>
       </c>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137">
+      <c r="E8" s="139"/>
+      <c r="F8" s="139">
         <v>1701</v>
       </c>
-      <c r="G8" s="137"/>
+      <c r="G8" s="139"/>
       <c r="H8" s="2"/>
       <c r="I8" s="15">
         <f t="shared" ref="I8:I12" si="1">D8*0.07</f>
@@ -6885,18 +6897,18 @@
     </row>
     <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9"/>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="137">
-        <v>0</v>
-      </c>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137">
-        <v>0</v>
-      </c>
-      <c r="G9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="139">
+        <v>0</v>
+      </c>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139">
+        <v>0</v>
+      </c>
+      <c r="G9" s="139"/>
       <c r="H9" s="4"/>
       <c r="I9" s="15">
         <f t="shared" si="1"/>
@@ -6909,18 +6921,18 @@
     </row>
     <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="9"/>
-      <c r="B10" s="141" t="s">
+      <c r="B10" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="141"/>
-      <c r="D10" s="137">
+      <c r="C10" s="137"/>
+      <c r="D10" s="139">
         <v>4000</v>
       </c>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137">
+      <c r="E10" s="139"/>
+      <c r="F10" s="139">
         <v>280</v>
       </c>
-      <c r="G10" s="137"/>
+      <c r="G10" s="139"/>
       <c r="H10" s="4"/>
       <c r="I10" s="15">
         <f t="shared" si="1"/>
@@ -6933,18 +6945,18 @@
     </row>
     <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9"/>
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="141"/>
-      <c r="D11" s="137">
-        <v>0</v>
-      </c>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137">
-        <v>0</v>
-      </c>
-      <c r="G11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="139">
+        <v>0</v>
+      </c>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139">
+        <v>0</v>
+      </c>
+      <c r="G11" s="139"/>
       <c r="H11" s="4"/>
       <c r="I11" s="15">
         <f t="shared" si="1"/>
@@ -6957,18 +6969,18 @@
     </row>
     <row r="12" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9"/>
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="141"/>
-      <c r="D12" s="137">
-        <v>0</v>
-      </c>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137">
-        <v>0</v>
-      </c>
-      <c r="G12" s="137"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="139">
+        <v>0</v>
+      </c>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139">
+        <v>0</v>
+      </c>
+      <c r="G12" s="139"/>
       <c r="H12" s="4"/>
       <c r="I12" s="15">
         <f t="shared" si="1"/>
@@ -6981,20 +6993,20 @@
     </row>
     <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A13" s="9"/>
-      <c r="B13" s="141" t="s">
+      <c r="B13" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="141"/>
-      <c r="D13" s="144">
+      <c r="C13" s="137"/>
+      <c r="D13" s="140">
         <f>SUM(D7:E12)</f>
         <v>920300</v>
       </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="144">
+      <c r="E13" s="141"/>
+      <c r="F13" s="140">
         <f>SUM(F7:G12)</f>
         <v>64421</v>
       </c>
-      <c r="G13" s="144"/>
+      <c r="G13" s="140"/>
       <c r="H13" s="56"/>
       <c r="I13" s="15">
         <f t="shared" ref="I13" si="3">D13*0.07</f>
@@ -7014,28 +7026,28 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A15" s="143" t="s">
+      <c r="A15" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="144">
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="140">
         <f>F5-F13</f>
         <v>18065.11</v>
       </c>
-      <c r="G15" s="145"/>
+      <c r="G15" s="141"/>
       <c r="H15" s="56"/>
     </row>
     <row r="17" spans="1:14" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A17" s="9"/>
-      <c r="B17" s="141"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="145"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="141"/>
       <c r="H17" s="56"/>
       <c r="I17" s="15" t="s">
         <v>8</v>
@@ -7054,13 +7066,13 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A18" s="143"/>
-      <c r="B18" s="143"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="145"/>
+      <c r="A18" s="142"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="141"/>
       <c r="H18" s="56"/>
       <c r="I18" s="15">
         <f>SUM(I19:I38)</f>
@@ -7796,6 +7808,27 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
@@ -7811,27 +7844,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7865,32 +7877,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
       <c r="L1" s="149"/>
       <c r="M1" s="149"/>
       <c r="N1" s="149"/>
       <c r="O1" s="149"/>
     </row>
     <row r="2" spans="1:21" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
       <c r="L2" s="25"/>
       <c r="M2" s="26"/>
       <c r="N2" s="25"/>
@@ -7948,18 +7960,18 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139" t="s">
+      <c r="C4" s="144"/>
+      <c r="D4" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139" t="s">
+      <c r="E4" s="144"/>
+      <c r="F4" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="139"/>
+      <c r="G4" s="144"/>
       <c r="H4" s="1"/>
       <c r="L4" s="28"/>
       <c r="M4" s="29"/>
@@ -7988,18 +8000,18 @@
     </row>
     <row r="5" spans="1:21" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A5" s="9"/>
-      <c r="B5" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="138">
+      <c r="B5" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="137"/>
+      <c r="D5" s="143">
         <v>1522624.38</v>
       </c>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138">
+      <c r="E5" s="143"/>
+      <c r="F5" s="143">
         <v>106583.71</v>
       </c>
-      <c r="G5" s="138"/>
+      <c r="G5" s="143"/>
       <c r="H5" s="2"/>
       <c r="I5" s="3">
         <f>D5+F5</f>
@@ -8046,19 +8058,19 @@
       <c r="S6" s="15"/>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="137">
+      <c r="C7" s="137"/>
+      <c r="D7" s="139">
         <f>M49</f>
         <v>1284529.3400000001</v>
       </c>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137">
+      <c r="E7" s="139"/>
+      <c r="F7" s="139">
         <v>89917.05</v>
       </c>
-      <c r="G7" s="137"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3">
         <f t="shared" ref="I7:I14" si="0">D7+F7</f>
@@ -8085,18 +8097,18 @@
     </row>
     <row r="8" spans="1:21" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9"/>
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="137">
+      <c r="C8" s="137"/>
+      <c r="D8" s="139">
         <v>17832.150000000001</v>
       </c>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137">
+      <c r="E8" s="139"/>
+      <c r="F8" s="139">
         <v>1248.25</v>
       </c>
-      <c r="G8" s="137"/>
+      <c r="G8" s="139"/>
       <c r="H8" s="2"/>
       <c r="I8" s="3">
         <f t="shared" si="0"/>
@@ -8141,18 +8153,18 @@
     </row>
     <row r="9" spans="1:21" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9"/>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="137">
+      <c r="C9" s="137"/>
+      <c r="D9" s="139">
         <v>440</v>
       </c>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137">
+      <c r="E9" s="139"/>
+      <c r="F9" s="139">
         <v>30.8</v>
       </c>
-      <c r="G9" s="137"/>
+      <c r="G9" s="139"/>
       <c r="H9" s="2"/>
       <c r="I9" s="3">
         <f t="shared" si="0"/>
@@ -8173,18 +8185,18 @@
     </row>
     <row r="10" spans="1:21" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="9"/>
-      <c r="B10" s="141" t="s">
+      <c r="B10" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="141"/>
-      <c r="D10" s="137">
+      <c r="C10" s="137"/>
+      <c r="D10" s="139">
         <v>3396</v>
       </c>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137">
+      <c r="E10" s="139"/>
+      <c r="F10" s="139">
         <v>237.72</v>
       </c>
-      <c r="G10" s="137"/>
+      <c r="G10" s="139"/>
       <c r="H10" s="2"/>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
@@ -8207,18 +8219,18 @@
     </row>
     <row r="11" spans="1:21" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9"/>
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="141"/>
-      <c r="D11" s="137">
+      <c r="C11" s="137"/>
+      <c r="D11" s="139">
         <v>9273.83</v>
       </c>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137">
+      <c r="E11" s="139"/>
+      <c r="F11" s="139">
         <v>649.16999999999996</v>
       </c>
-      <c r="G11" s="137"/>
+      <c r="G11" s="139"/>
       <c r="H11" s="2"/>
       <c r="I11" s="3">
         <f t="shared" si="0"/>
@@ -8242,18 +8254,18 @@
     </row>
     <row r="12" spans="1:21" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9"/>
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="141"/>
-      <c r="D12" s="137">
+      <c r="C12" s="137"/>
+      <c r="D12" s="139">
         <v>28869.19</v>
       </c>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137">
+      <c r="E12" s="139"/>
+      <c r="F12" s="139">
         <v>2020.84</v>
       </c>
-      <c r="G12" s="137"/>
+      <c r="G12" s="139"/>
       <c r="H12" s="2"/>
       <c r="I12" s="3">
         <f t="shared" si="0"/>
@@ -8277,19 +8289,19 @@
     </row>
     <row r="13" spans="1:21" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="9"/>
-      <c r="B13" s="141" t="s">
+      <c r="B13" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="141"/>
-      <c r="D13" s="137">
+      <c r="C13" s="137"/>
+      <c r="D13" s="139">
         <f>27943.93+28953.27</f>
         <v>56897.2</v>
       </c>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137">
+      <c r="E13" s="139"/>
+      <c r="F13" s="139">
         <v>3982.8</v>
       </c>
-      <c r="G13" s="137"/>
+      <c r="G13" s="139"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3">
         <f t="shared" ref="I13" si="3">D13+F13</f>
@@ -8310,14 +8322,14 @@
     </row>
     <row r="14" spans="1:21" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="9"/>
-      <c r="B14" s="141" t="s">
+      <c r="B14" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="141"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="137"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3">
         <f t="shared" si="0"/>
@@ -8338,18 +8350,18 @@
     </row>
     <row r="15" spans="1:21" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="9"/>
-      <c r="B15" s="141" t="s">
+      <c r="B15" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="141"/>
-      <c r="D15" s="137">
-        <v>0</v>
-      </c>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137">
-        <v>0</v>
-      </c>
-      <c r="G15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="139">
+        <v>0</v>
+      </c>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139">
+        <v>0</v>
+      </c>
+      <c r="G15" s="139"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3">
         <f t="shared" ref="I15" si="5">D15+F15</f>
@@ -8370,18 +8382,18 @@
     </row>
     <row r="16" spans="1:21" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="9"/>
-      <c r="B16" s="141" t="s">
+      <c r="B16" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="141"/>
-      <c r="D16" s="137">
+      <c r="C16" s="137"/>
+      <c r="D16" s="139">
         <v>4000</v>
       </c>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137">
+      <c r="E16" s="139"/>
+      <c r="F16" s="139">
         <v>280</v>
       </c>
-      <c r="G16" s="137"/>
+      <c r="G16" s="139"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3">
         <f t="shared" ref="I16:I18" si="7">D16+F16</f>
@@ -8402,14 +8414,14 @@
     </row>
     <row r="17" spans="1:19" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="9"/>
-      <c r="B17" s="141" t="s">
+      <c r="B17" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="141"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
       <c r="H17" s="2"/>
       <c r="I17" s="3">
         <f t="shared" si="7"/>
@@ -8430,18 +8442,18 @@
     </row>
     <row r="18" spans="1:19" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="9"/>
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="141"/>
-      <c r="D18" s="137">
-        <v>0</v>
-      </c>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137">
-        <v>0</v>
-      </c>
-      <c r="G18" s="137"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="139">
+        <v>0</v>
+      </c>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139">
+        <v>0</v>
+      </c>
+      <c r="G18" s="139"/>
       <c r="H18" s="2"/>
       <c r="I18" s="3">
         <f t="shared" si="7"/>
@@ -8462,18 +8474,18 @@
     </row>
     <row r="19" spans="1:19" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="9"/>
-      <c r="B19" s="141" t="s">
+      <c r="B19" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="141"/>
-      <c r="D19" s="137">
-        <v>0</v>
-      </c>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137">
-        <v>0</v>
-      </c>
-      <c r="G19" s="137"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="139">
+        <v>0</v>
+      </c>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139">
+        <v>0</v>
+      </c>
+      <c r="G19" s="139"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3">
         <f t="shared" ref="I19" si="9">D19+F19</f>
@@ -8494,20 +8506,20 @@
     </row>
     <row r="20" spans="1:19" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A20" s="9"/>
-      <c r="B20" s="141" t="s">
+      <c r="B20" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="141"/>
-      <c r="D20" s="144">
+      <c r="C20" s="137"/>
+      <c r="D20" s="140">
         <f>SUM(D7:E19)</f>
         <v>1405237.71</v>
       </c>
-      <c r="E20" s="145"/>
-      <c r="F20" s="144">
+      <c r="E20" s="141"/>
+      <c r="F20" s="140">
         <f>SUM(F7:G19)</f>
         <v>98366.63</v>
       </c>
-      <c r="G20" s="145"/>
+      <c r="G20" s="141"/>
       <c r="H20" s="1"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3">
@@ -8527,18 +8539,18 @@
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:19" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A22" s="143" t="s">
+      <c r="A22" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="143"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="144">
+      <c r="B22" s="142"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="140">
         <f>F5-F20</f>
         <v>8217.0800000000017</v>
       </c>
-      <c r="G22" s="145"/>
+      <c r="G22" s="141"/>
       <c r="H22" s="1"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.5">
@@ -8552,33 +8564,33 @@
       <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:19" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A25" s="140" t="s">
+      <c r="A25" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="140"/>
-      <c r="C25" s="140"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="140"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
       <c r="L25" s="33"/>
       <c r="M25" s="33"/>
       <c r="N25" s="33"/>
       <c r="O25" s="33"/>
     </row>
     <row r="26" spans="1:19" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A26" s="142" t="str">
+      <c r="A26" s="146" t="str">
         <f>A2</f>
         <v>ประจำงวด 09/2561</v>
       </c>
-      <c r="B26" s="142"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
     </row>
     <row r="27" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A27" s="17"/>
@@ -8590,18 +8602,18 @@
       <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:19" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="139" t="s">
+      <c r="B28" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139" t="s">
+      <c r="C28" s="144"/>
+      <c r="D28" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139" t="s">
+      <c r="E28" s="144"/>
+      <c r="F28" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="139"/>
+      <c r="G28" s="144"/>
       <c r="H28" s="1"/>
       <c r="L28" s="149"/>
       <c r="M28" s="149"/>
@@ -8610,20 +8622,20 @@
     </row>
     <row r="29" spans="1:19" ht="33.75" x14ac:dyDescent="0.8">
       <c r="A29" s="9"/>
-      <c r="B29" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="147"/>
-      <c r="D29" s="148">
+      <c r="B29" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="150"/>
+      <c r="D29" s="151">
         <f>D5</f>
         <v>1522624.38</v>
       </c>
-      <c r="E29" s="148"/>
-      <c r="F29" s="148">
+      <c r="E29" s="151"/>
+      <c r="F29" s="151">
         <f>F5</f>
         <v>106583.71</v>
       </c>
-      <c r="G29" s="148"/>
+      <c r="G29" s="151"/>
       <c r="H29" s="2"/>
       <c r="L29" s="25"/>
       <c r="M29" s="26"/>
@@ -8645,33 +8657,33 @@
       <c r="O30" s="25"/>
     </row>
     <row r="31" spans="1:19" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A31" s="140" t="s">
+      <c r="A31" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="140"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="140"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
       <c r="L31" s="28"/>
       <c r="M31" s="29"/>
       <c r="N31" s="29"/>
       <c r="O31" s="29"/>
     </row>
     <row r="32" spans="1:19" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A32" s="142" t="str">
+      <c r="A32" s="146" t="str">
         <f>A26</f>
         <v>ประจำงวด 09/2561</v>
       </c>
-      <c r="B32" s="142"/>
-      <c r="C32" s="142"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="142"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
       <c r="L32" s="28"/>
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
@@ -8691,18 +8703,18 @@
       <c r="O33" s="29"/>
     </row>
     <row r="34" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="139" t="s">
+      <c r="B34" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="139"/>
-      <c r="D34" s="139" t="s">
+      <c r="C34" s="144"/>
+      <c r="D34" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="139"/>
-      <c r="F34" s="139" t="s">
+      <c r="E34" s="144"/>
+      <c r="F34" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="139"/>
+      <c r="G34" s="144"/>
       <c r="H34" s="1"/>
       <c r="L34" s="28"/>
       <c r="M34" s="29"/>
@@ -8711,21 +8723,21 @@
     </row>
     <row r="35" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="9"/>
-      <c r="B35" s="141" t="str">
+      <c r="B35" s="137" t="str">
         <f>B7</f>
         <v>ซื้อ</v>
       </c>
-      <c r="C35" s="141"/>
-      <c r="D35" s="137">
+      <c r="C35" s="137"/>
+      <c r="D35" s="139">
         <f>D7</f>
         <v>1284529.3400000001</v>
       </c>
-      <c r="E35" s="137"/>
-      <c r="F35" s="137">
+      <c r="E35" s="139"/>
+      <c r="F35" s="139">
         <f>F7</f>
         <v>89917.05</v>
       </c>
-      <c r="G35" s="137"/>
+      <c r="G35" s="139"/>
       <c r="H35" s="2"/>
       <c r="L35" s="28"/>
       <c r="M35" s="29"/>
@@ -8734,21 +8746,21 @@
     </row>
     <row r="36" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="9"/>
-      <c r="B36" s="141" t="str">
+      <c r="B36" s="137" t="str">
         <f t="shared" ref="B36:B47" si="11">B8</f>
         <v>ค่าไฟฟ้า</v>
       </c>
-      <c r="C36" s="141"/>
-      <c r="D36" s="137">
+      <c r="C36" s="137"/>
+      <c r="D36" s="139">
         <f t="shared" ref="D36:D47" si="12">D8</f>
         <v>17832.150000000001</v>
       </c>
-      <c r="E36" s="137"/>
-      <c r="F36" s="137">
+      <c r="E36" s="139"/>
+      <c r="F36" s="139">
         <f t="shared" ref="F36:F47" si="13">F8</f>
         <v>1248.25</v>
       </c>
-      <c r="G36" s="137"/>
+      <c r="G36" s="139"/>
       <c r="H36" s="2"/>
       <c r="L36" s="28"/>
       <c r="M36" s="29"/>
@@ -8757,21 +8769,21 @@
     </row>
     <row r="37" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="9"/>
-      <c r="B37" s="141" t="str">
+      <c r="B37" s="137" t="str">
         <f t="shared" si="11"/>
         <v>ค่าน้ำประปา</v>
       </c>
-      <c r="C37" s="141"/>
-      <c r="D37" s="137">
+      <c r="C37" s="137"/>
+      <c r="D37" s="139">
         <f t="shared" si="12"/>
         <v>440</v>
       </c>
-      <c r="E37" s="137"/>
-      <c r="F37" s="137">
+      <c r="E37" s="139"/>
+      <c r="F37" s="139">
         <f t="shared" si="13"/>
         <v>30.8</v>
       </c>
-      <c r="G37" s="137"/>
+      <c r="G37" s="139"/>
       <c r="H37" s="2"/>
       <c r="L37" s="28"/>
       <c r="M37" s="29"/>
@@ -8780,21 +8792,21 @@
     </row>
     <row r="38" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="9"/>
-      <c r="B38" s="141" t="str">
+      <c r="B38" s="137" t="str">
         <f t="shared" si="11"/>
         <v>ค่าโทรศัพท์</v>
       </c>
-      <c r="C38" s="141"/>
-      <c r="D38" s="137">
+      <c r="C38" s="137"/>
+      <c r="D38" s="139">
         <f t="shared" si="12"/>
         <v>3396</v>
       </c>
-      <c r="E38" s="137"/>
-      <c r="F38" s="137">
+      <c r="E38" s="139"/>
+      <c r="F38" s="139">
         <f t="shared" si="13"/>
         <v>237.72</v>
       </c>
-      <c r="G38" s="137"/>
+      <c r="G38" s="139"/>
       <c r="H38" s="2"/>
       <c r="L38" s="28"/>
       <c r="M38" s="29"/>
@@ -8803,21 +8815,21 @@
     </row>
     <row r="39" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="9"/>
-      <c r="B39" s="141" t="str">
+      <c r="B39" s="137" t="str">
         <f t="shared" si="11"/>
         <v>ค่าผ่อนรถยนต์</v>
       </c>
-      <c r="C39" s="141"/>
-      <c r="D39" s="137">
+      <c r="C39" s="137"/>
+      <c r="D39" s="139">
         <f t="shared" si="12"/>
         <v>9273.83</v>
       </c>
-      <c r="E39" s="137"/>
-      <c r="F39" s="137">
+      <c r="E39" s="139"/>
+      <c r="F39" s="139">
         <f t="shared" si="13"/>
         <v>649.16999999999996</v>
       </c>
-      <c r="G39" s="137"/>
+      <c r="G39" s="139"/>
       <c r="H39" s="2"/>
       <c r="L39" s="28"/>
       <c r="M39" s="29"/>
@@ -8826,21 +8838,21 @@
     </row>
     <row r="40" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="9"/>
-      <c r="B40" s="141" t="str">
+      <c r="B40" s="137" t="str">
         <f t="shared" si="11"/>
         <v>ค่าน้ำมัน</v>
       </c>
-      <c r="C40" s="141"/>
-      <c r="D40" s="137">
+      <c r="C40" s="137"/>
+      <c r="D40" s="139">
         <f t="shared" si="12"/>
         <v>28869.19</v>
       </c>
-      <c r="E40" s="137"/>
-      <c r="F40" s="137">
+      <c r="E40" s="139"/>
+      <c r="F40" s="139">
         <f t="shared" si="13"/>
         <v>2020.84</v>
       </c>
-      <c r="G40" s="137"/>
+      <c r="G40" s="139"/>
       <c r="H40" s="2"/>
       <c r="L40" s="28"/>
       <c r="M40" s="29"/>
@@ -8849,21 +8861,21 @@
     </row>
     <row r="41" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="9"/>
-      <c r="B41" s="141" t="str">
+      <c r="B41" s="137" t="str">
         <f t="shared" si="11"/>
         <v>ซื้อทรัพย์สิน</v>
       </c>
-      <c r="C41" s="141"/>
-      <c r="D41" s="137">
+      <c r="C41" s="137"/>
+      <c r="D41" s="139">
         <f t="shared" si="12"/>
         <v>56897.2</v>
       </c>
-      <c r="E41" s="137"/>
-      <c r="F41" s="137">
+      <c r="E41" s="139"/>
+      <c r="F41" s="139">
         <f t="shared" si="13"/>
         <v>3982.8</v>
       </c>
-      <c r="G41" s="137"/>
+      <c r="G41" s="139"/>
       <c r="H41" s="2"/>
       <c r="L41" s="28"/>
       <c r="M41" s="29"/>
@@ -8872,21 +8884,21 @@
     </row>
     <row r="42" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="9"/>
-      <c r="B42" s="141" t="str">
+      <c r="B42" s="137" t="str">
         <f t="shared" si="11"/>
         <v>วัสดุสิ้นเปลืองสำนักงาน</v>
       </c>
-      <c r="C42" s="141"/>
-      <c r="D42" s="137">
+      <c r="C42" s="137"/>
+      <c r="D42" s="139">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E42" s="137"/>
-      <c r="F42" s="137">
+      <c r="E42" s="139"/>
+      <c r="F42" s="139">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G42" s="137"/>
+      <c r="G42" s="139"/>
       <c r="H42" s="2"/>
       <c r="L42" s="28"/>
       <c r="M42" s="29"/>
@@ -8895,21 +8907,21 @@
     </row>
     <row r="43" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="9"/>
-      <c r="B43" s="141" t="str">
+      <c r="B43" s="137" t="str">
         <f t="shared" si="11"/>
         <v>ค่าอินเตอร์เน็ต</v>
       </c>
-      <c r="C43" s="141"/>
-      <c r="D43" s="137">
+      <c r="C43" s="137"/>
+      <c r="D43" s="139">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E43" s="137"/>
-      <c r="F43" s="137">
+      <c r="E43" s="139"/>
+      <c r="F43" s="139">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G43" s="137"/>
+      <c r="G43" s="139"/>
       <c r="H43" s="2"/>
       <c r="L43" s="28"/>
       <c r="M43" s="29"/>
@@ -8918,21 +8930,21 @@
     </row>
     <row r="44" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="9"/>
-      <c r="B44" s="141" t="str">
+      <c r="B44" s="137" t="str">
         <f t="shared" si="11"/>
         <v>ค่าทำบัญชี</v>
       </c>
-      <c r="C44" s="141"/>
-      <c r="D44" s="137">
+      <c r="C44" s="137"/>
+      <c r="D44" s="139">
         <f t="shared" si="12"/>
         <v>4000</v>
       </c>
-      <c r="E44" s="137"/>
-      <c r="F44" s="137">
+      <c r="E44" s="139"/>
+      <c r="F44" s="139">
         <f t="shared" si="13"/>
         <v>280</v>
       </c>
-      <c r="G44" s="137"/>
+      <c r="G44" s="139"/>
       <c r="H44" s="2"/>
       <c r="L44" s="28"/>
       <c r="M44" s="29"/>
@@ -8941,21 +8953,21 @@
     </row>
     <row r="45" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="9"/>
-      <c r="B45" s="141" t="str">
+      <c r="B45" s="137" t="str">
         <f t="shared" si="11"/>
         <v>ค่าซ่อมบำรุงยานพาหนะ</v>
       </c>
-      <c r="C45" s="141"/>
-      <c r="D45" s="137">
+      <c r="C45" s="137"/>
+      <c r="D45" s="139">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E45" s="137"/>
-      <c r="F45" s="137">
+      <c r="E45" s="139"/>
+      <c r="F45" s="139">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G45" s="137"/>
+      <c r="G45" s="139"/>
       <c r="H45" s="2"/>
       <c r="L45" s="28"/>
       <c r="M45" s="29"/>
@@ -8964,21 +8976,21 @@
     </row>
     <row r="46" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="9"/>
-      <c r="B46" s="141" t="str">
+      <c r="B46" s="137" t="str">
         <f t="shared" si="11"/>
         <v>ค่าซ่อมบำรุงอุปกรณ์สำนักงาน</v>
       </c>
-      <c r="C46" s="141"/>
-      <c r="D46" s="137">
+      <c r="C46" s="137"/>
+      <c r="D46" s="139">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E46" s="137"/>
-      <c r="F46" s="137">
+      <c r="E46" s="139"/>
+      <c r="F46" s="139">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G46" s="137"/>
+      <c r="G46" s="139"/>
       <c r="H46" s="2"/>
       <c r="L46" s="28"/>
       <c r="M46" s="29"/>
@@ -8987,21 +8999,21 @@
     </row>
     <row r="47" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="9"/>
-      <c r="B47" s="141" t="str">
+      <c r="B47" s="137" t="str">
         <f t="shared" si="11"/>
         <v>ค่าใช้จ่ายเบ็ดเตล็ด</v>
       </c>
-      <c r="C47" s="141"/>
-      <c r="D47" s="137">
+      <c r="C47" s="137"/>
+      <c r="D47" s="139">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137">
+      <c r="E47" s="139"/>
+      <c r="F47" s="139">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G47" s="137"/>
+      <c r="G47" s="139"/>
       <c r="H47" s="2"/>
       <c r="L47" s="28"/>
       <c r="M47" s="29"/>
@@ -9010,20 +9022,20 @@
     </row>
     <row r="48" spans="1:15" ht="31.5" x14ac:dyDescent="0.75">
       <c r="A48" s="9"/>
-      <c r="B48" s="150" t="s">
+      <c r="B48" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="150"/>
-      <c r="D48" s="151">
+      <c r="C48" s="147"/>
+      <c r="D48" s="148">
         <f>D20</f>
         <v>1405237.71</v>
       </c>
-      <c r="E48" s="151"/>
-      <c r="F48" s="151">
+      <c r="E48" s="148"/>
+      <c r="F48" s="148">
         <f>F20</f>
         <v>98366.63</v>
       </c>
-      <c r="G48" s="151"/>
+      <c r="G48" s="148"/>
       <c r="H48" s="2"/>
       <c r="L48" s="28"/>
       <c r="M48" s="29"/>
@@ -9054,13 +9066,13 @@
       </c>
     </row>
     <row r="50" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.7">
-      <c r="A50" s="143"/>
-      <c r="B50" s="143"/>
-      <c r="C50" s="143"/>
-      <c r="D50" s="143"/>
-      <c r="E50" s="143"/>
-      <c r="F50" s="144"/>
-      <c r="G50" s="145"/>
+      <c r="A50" s="142"/>
+      <c r="B50" s="142"/>
+      <c r="C50" s="142"/>
+      <c r="D50" s="142"/>
+      <c r="E50" s="142"/>
+      <c r="F50" s="140"/>
+      <c r="G50" s="141"/>
       <c r="H50" s="1"/>
       <c r="L50" s="30"/>
       <c r="M50" s="31"/>
@@ -10016,6 +10028,93 @@
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="F45:G45"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
@@ -10040,93 +10139,6 @@
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10156,16 +10168,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
       <c r="I1" s="15">
         <f>157143.53*3</f>
         <v>471430.58999999997</v>
@@ -10183,16 +10195,16 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
     </row>
     <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
       <c r="A3" s="39"/>
@@ -10218,36 +10230,36 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139" t="s">
+      <c r="C4" s="144"/>
+      <c r="D4" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139" t="s">
+      <c r="E4" s="144"/>
+      <c r="F4" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="139"/>
+      <c r="G4" s="144"/>
       <c r="H4" s="41"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A5" s="9"/>
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="137" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="138">
+      <c r="C5" s="137"/>
+      <c r="D5" s="143">
         <v>440560.75</v>
       </c>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138">
+      <c r="E5" s="143"/>
+      <c r="F5" s="143">
         <v>30839.25</v>
       </c>
-      <c r="G5" s="138"/>
+      <c r="G5" s="143"/>
       <c r="H5" s="2"/>
       <c r="I5" s="15">
         <f>D5*0.07</f>
@@ -10272,18 +10284,18 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="137">
+      <c r="C7" s="137"/>
+      <c r="D7" s="139">
         <v>157143.53</v>
       </c>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137">
+      <c r="E7" s="139"/>
+      <c r="F7" s="139">
         <v>11000.05</v>
       </c>
-      <c r="G7" s="137"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="2"/>
       <c r="I7" s="15">
         <f t="shared" ref="I7:I13" si="0">D7*0.07</f>
@@ -10296,18 +10308,18 @@
     </row>
     <row r="8" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9"/>
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="137">
+      <c r="C8" s="137"/>
+      <c r="D8" s="139">
         <v>37794.5</v>
       </c>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137">
+      <c r="E8" s="139"/>
+      <c r="F8" s="139">
         <v>2645.62</v>
       </c>
-      <c r="G8" s="137"/>
+      <c r="G8" s="139"/>
       <c r="H8" s="2"/>
       <c r="I8" s="15">
         <f t="shared" si="0"/>
@@ -10321,18 +10333,18 @@
     </row>
     <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9"/>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="137">
+      <c r="C9" s="137"/>
+      <c r="D9" s="139">
         <v>102803.74</v>
       </c>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137">
+      <c r="E9" s="139"/>
+      <c r="F9" s="139">
         <v>7196.26</v>
       </c>
-      <c r="G9" s="137"/>
+      <c r="G9" s="139"/>
       <c r="H9" s="2"/>
       <c r="I9" s="15">
         <f t="shared" si="0"/>
@@ -10345,18 +10357,18 @@
     </row>
     <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="9"/>
-      <c r="B10" s="141" t="s">
+      <c r="B10" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="141"/>
-      <c r="D10" s="152">
-        <v>0</v>
-      </c>
-      <c r="E10" s="152"/>
-      <c r="F10" s="152">
-        <v>0</v>
-      </c>
-      <c r="G10" s="152"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="155">
+        <v>0</v>
+      </c>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155">
+        <v>0</v>
+      </c>
+      <c r="G10" s="155"/>
       <c r="H10" s="4"/>
       <c r="I10" s="15">
         <f t="shared" ref="I10" si="2">D10*0.07</f>
@@ -10369,14 +10381,14 @@
     </row>
     <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9"/>
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="141"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="152"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
       <c r="H11" s="4"/>
       <c r="I11" s="15">
         <f t="shared" si="0"/>
@@ -10389,18 +10401,18 @@
     </row>
     <row r="12" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A12" s="9"/>
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="141"/>
-      <c r="D12" s="146">
-        <v>0</v>
-      </c>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146">
-        <v>0</v>
-      </c>
-      <c r="G12" s="146"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="138">
+        <v>0</v>
+      </c>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138">
+        <v>0</v>
+      </c>
+      <c r="G12" s="138"/>
       <c r="H12" s="4"/>
       <c r="I12" s="15">
         <f t="shared" si="0"/>
@@ -10413,20 +10425,20 @@
     </row>
     <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A13" s="9"/>
-      <c r="B13" s="141" t="s">
+      <c r="B13" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="141"/>
-      <c r="D13" s="144">
+      <c r="C13" s="137"/>
+      <c r="D13" s="140">
         <f>SUM(D7:E12)</f>
         <v>297741.77</v>
       </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="144">
+      <c r="E13" s="141"/>
+      <c r="F13" s="140">
         <f>SUM(F7:G12)</f>
         <v>20841.93</v>
       </c>
-      <c r="G13" s="144"/>
+      <c r="G13" s="140"/>
       <c r="H13" s="41"/>
       <c r="I13" s="15">
         <f t="shared" si="0"/>
@@ -10446,60 +10458,60 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A15" s="143" t="s">
+      <c r="A15" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="144">
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="140">
         <f>F5-F13</f>
         <v>9997.32</v>
       </c>
-      <c r="G15" s="145"/>
+      <c r="G15" s="141"/>
       <c r="H15" s="41"/>
     </row>
     <row r="17" spans="1:12" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A17" s="142"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
+      <c r="A17" s="146"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
     </row>
     <row r="18" spans="1:12" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="139"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="153">
+      <c r="B18" s="144"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="152">
         <f>D5-D13</f>
         <v>142818.97999999998</v>
       </c>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
       <c r="H18" s="41"/>
     </row>
     <row r="19" spans="1:12" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="9"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A20" s="143"/>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="145"/>
+      <c r="A20" s="142"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="141"/>
       <c r="H20" s="37"/>
       <c r="J20">
         <f>SUM(J21:J27)</f>
@@ -10536,20 +10548,17 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
@@ -10565,17 +10574,20 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10606,28 +10618,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="145" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
     </row>
     <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
     </row>
     <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
       <c r="A3" s="134"/>
@@ -10653,36 +10665,36 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139" t="s">
+      <c r="C4" s="144"/>
+      <c r="D4" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139" t="s">
+      <c r="E4" s="144"/>
+      <c r="F4" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="139"/>
+      <c r="G4" s="144"/>
       <c r="H4" s="136"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A5" s="9"/>
-      <c r="B5" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="138">
-        <v>0</v>
-      </c>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138">
-        <v>0</v>
-      </c>
-      <c r="G5" s="138"/>
+      <c r="B5" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="137"/>
+      <c r="D5" s="143">
+        <v>0</v>
+      </c>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143">
+        <v>0</v>
+      </c>
+      <c r="G5" s="143"/>
       <c r="H5" s="2"/>
       <c r="I5" s="15">
         <f>D5*0.07</f>
@@ -10707,14 +10719,14 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="2"/>
       <c r="I7" s="15">
         <f t="shared" ref="I7:I12" si="0">D7*0.07</f>
@@ -10727,14 +10739,14 @@
     </row>
     <row r="8" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9"/>
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
       <c r="H8" s="2"/>
       <c r="I8" s="15">
         <f t="shared" si="0"/>
@@ -10748,14 +10760,14 @@
     </row>
     <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9"/>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
       <c r="H9" s="4"/>
       <c r="I9" s="15">
         <f t="shared" si="0"/>
@@ -10768,14 +10780,14 @@
     </row>
     <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="9"/>
-      <c r="B10" s="141" t="s">
+      <c r="B10" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="141"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="152"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
       <c r="H10" s="4"/>
       <c r="I10" s="15">
         <f t="shared" si="0"/>
@@ -10788,14 +10800,14 @@
     </row>
     <row r="11" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A11" s="9"/>
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="141"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
       <c r="H11" s="4"/>
       <c r="I11" s="15">
         <f t="shared" si="0"/>
@@ -10808,20 +10820,20 @@
     </row>
     <row r="12" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A12" s="9"/>
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="141"/>
-      <c r="D12" s="144">
+      <c r="C12" s="137"/>
+      <c r="D12" s="140">
         <f>SUM(D7:E11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="145"/>
-      <c r="F12" s="144">
+      <c r="E12" s="141"/>
+      <c r="F12" s="140">
         <f>SUM(F7:G11)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="144"/>
+      <c r="G12" s="140"/>
       <c r="H12" s="136"/>
       <c r="I12" s="15">
         <f t="shared" si="0"/>
@@ -10841,28 +10853,28 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A14" s="143" t="s">
+      <c r="A14" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="143"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="144">
+      <c r="B14" s="142"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="140">
         <f>F5-F12</f>
         <v>0</v>
       </c>
-      <c r="G14" s="145"/>
+      <c r="G14" s="141"/>
       <c r="H14" s="136"/>
     </row>
     <row r="16" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A16" s="9"/>
-      <c r="B16" s="141"/>
-      <c r="C16" s="141"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="145"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="141"/>
       <c r="H16" s="136"/>
       <c r="I16" s="15" t="s">
         <v>8</v>
@@ -10881,14 +10893,1042 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A17" s="143"/>
-      <c r="B17" s="143"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="145"/>
+      <c r="A17" s="142"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="141"/>
       <c r="H17" s="136"/>
+      <c r="I17" s="15">
+        <f>SUM(I18:I37)</f>
+        <v>2856000</v>
+      </c>
+      <c r="J17" s="15">
+        <f>SUM(J18:J37)</f>
+        <v>80800</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15">
+        <f t="shared" ref="L17:N17" si="2">SUM(L18:L37)</f>
+        <v>9158.8900000000012</v>
+      </c>
+      <c r="M17" s="15">
+        <f t="shared" si="2"/>
+        <v>1050</v>
+      </c>
+      <c r="N17" s="15">
+        <f t="shared" si="2"/>
+        <v>2731.03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="15">
+        <v>234000</v>
+      </c>
+      <c r="J18" s="15">
+        <v>8100</v>
+      </c>
+      <c r="L18">
+        <v>934.58</v>
+      </c>
+      <c r="M18">
+        <v>1050</v>
+      </c>
+      <c r="N18">
+        <v>1928.41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" s="15">
+        <v>338000</v>
+      </c>
+      <c r="J19" s="15">
+        <v>8100</v>
+      </c>
+      <c r="L19">
+        <v>934.58</v>
+      </c>
+      <c r="N19">
+        <v>802.62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20" s="15">
+        <v>280000</v>
+      </c>
+      <c r="J20" s="15">
+        <v>8000</v>
+      </c>
+      <c r="L20">
+        <v>934.58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21" s="15">
+        <v>154000</v>
+      </c>
+      <c r="J21" s="15">
+        <v>8000</v>
+      </c>
+      <c r="L21">
+        <v>934.58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22" s="15">
+        <v>342000</v>
+      </c>
+      <c r="J22" s="15">
+        <v>8100</v>
+      </c>
+      <c r="L22">
+        <v>1317.76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23" s="15">
+        <v>252000</v>
+      </c>
+      <c r="J23" s="15">
+        <v>8100</v>
+      </c>
+      <c r="L23">
+        <v>1130.8499999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="I24" s="15">
+        <v>274000</v>
+      </c>
+      <c r="J24" s="15">
+        <v>8100</v>
+      </c>
+      <c r="L24">
+        <v>467.29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>8</v>
+      </c>
+      <c r="I25" s="15">
+        <v>362000</v>
+      </c>
+      <c r="J25" s="15">
+        <v>8100</v>
+      </c>
+      <c r="L25">
+        <v>1355.14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>9</v>
+      </c>
+      <c r="I26" s="15">
+        <v>298000</v>
+      </c>
+      <c r="J26" s="15">
+        <v>8100</v>
+      </c>
+      <c r="L26">
+        <v>1149.53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27" s="15">
+        <v>322000</v>
+      </c>
+      <c r="J27" s="15">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>11</v>
+      </c>
+      <c r="J28" s="15"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>12</v>
+      </c>
+      <c r="J29" s="15"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>13</v>
+      </c>
+      <c r="J30" s="15"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>14</v>
+      </c>
+      <c r="J31" s="15"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>15</v>
+      </c>
+      <c r="J32" s="15"/>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>16</v>
+      </c>
+      <c r="J33" s="15"/>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>17</v>
+      </c>
+      <c r="J34" s="15"/>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>18</v>
+      </c>
+      <c r="J35" s="15"/>
+    </row>
+    <row r="36" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>19</v>
+      </c>
+      <c r="J36" s="15"/>
+    </row>
+    <row r="37" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>20</v>
+      </c>
+      <c r="J37" s="15"/>
+    </row>
+    <row r="38" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J38" s="15"/>
+    </row>
+    <row r="39" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J39" s="15"/>
+    </row>
+    <row r="40" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J40" s="15"/>
+    </row>
+    <row r="41" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J41" s="15"/>
+    </row>
+    <row r="42" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J42" s="15"/>
+    </row>
+    <row r="43" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J43" s="15"/>
+    </row>
+    <row r="44" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J44" s="15"/>
+    </row>
+    <row r="45" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J45" s="15"/>
+    </row>
+    <row r="46" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J46" s="15"/>
+    </row>
+    <row r="47" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J47" s="15"/>
+    </row>
+    <row r="48" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J48" s="15"/>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J49" s="15"/>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J50" s="15"/>
+    </row>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J51" s="15"/>
+    </row>
+    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J52" s="15"/>
+    </row>
+    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J53" s="15"/>
+    </row>
+    <row r="54" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J54" s="15"/>
+    </row>
+    <row r="55" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J55" s="15"/>
+    </row>
+    <row r="56" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J56" s="15"/>
+    </row>
+    <row r="57" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J57" s="15"/>
+    </row>
+    <row r="58" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J58" s="15"/>
+    </row>
+    <row r="59" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J59" s="15"/>
+    </row>
+    <row r="60" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J60" s="15"/>
+    </row>
+    <row r="61" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J61" s="15"/>
+    </row>
+    <row r="62" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J62" s="15"/>
+    </row>
+    <row r="63" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J63" s="15"/>
+    </row>
+    <row r="64" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J64" s="15"/>
+    </row>
+    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J65" s="15"/>
+    </row>
+    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J66" s="15"/>
+    </row>
+    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J67" s="15"/>
+    </row>
+    <row r="68" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J68" s="15"/>
+    </row>
+    <row r="69" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J69" s="15"/>
+    </row>
+    <row r="70" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J70" s="15"/>
+    </row>
+    <row r="71" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J71" s="15"/>
+    </row>
+    <row r="72" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J72" s="15"/>
+    </row>
+    <row r="73" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J73" s="15"/>
+    </row>
+    <row r="74" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J74" s="15"/>
+    </row>
+    <row r="75" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J75" s="15"/>
+    </row>
+    <row r="76" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J76" s="15"/>
+    </row>
+    <row r="77" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J77" s="15"/>
+    </row>
+    <row r="78" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J78" s="15"/>
+    </row>
+    <row r="79" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J79" s="15"/>
+    </row>
+    <row r="80" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J80" s="15"/>
+    </row>
+    <row r="81" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J81" s="15"/>
+    </row>
+    <row r="82" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J82" s="15"/>
+    </row>
+    <row r="83" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J83" s="15"/>
+    </row>
+    <row r="84" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J84" s="15"/>
+    </row>
+    <row r="85" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J85" s="15"/>
+    </row>
+    <row r="86" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J86" s="15"/>
+    </row>
+    <row r="87" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J87" s="15"/>
+    </row>
+    <row r="88" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J88" s="15"/>
+    </row>
+    <row r="89" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J89" s="15"/>
+    </row>
+    <row r="90" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J90" s="15"/>
+    </row>
+    <row r="91" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J91" s="15"/>
+    </row>
+    <row r="92" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J92" s="15"/>
+    </row>
+    <row r="93" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J93" s="15"/>
+    </row>
+    <row r="94" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J94" s="15"/>
+    </row>
+    <row r="95" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J95" s="15"/>
+    </row>
+    <row r="96" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J96" s="15"/>
+    </row>
+    <row r="97" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J97" s="15"/>
+    </row>
+    <row r="98" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J98" s="15"/>
+    </row>
+    <row r="99" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J99" s="15"/>
+    </row>
+    <row r="100" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J100" s="15"/>
+    </row>
+    <row r="101" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J101" s="15"/>
+    </row>
+    <row r="102" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J102" s="15"/>
+    </row>
+    <row r="103" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J103" s="15"/>
+    </row>
+    <row r="104" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J104" s="15"/>
+    </row>
+    <row r="105" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J105" s="15"/>
+    </row>
+    <row r="106" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J106" s="15"/>
+    </row>
+    <row r="107" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J107" s="15"/>
+    </row>
+    <row r="108" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J108" s="15"/>
+    </row>
+    <row r="109" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J109" s="15"/>
+    </row>
+    <row r="110" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J110" s="15"/>
+    </row>
+    <row r="111" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J111" s="15"/>
+    </row>
+    <row r="112" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J112" s="15"/>
+    </row>
+    <row r="113" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J113" s="15"/>
+    </row>
+    <row r="114" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J114" s="15"/>
+    </row>
+    <row r="115" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J115" s="15"/>
+    </row>
+    <row r="116" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J116" s="15"/>
+    </row>
+    <row r="117" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J117" s="15"/>
+    </row>
+    <row r="118" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J118" s="15"/>
+    </row>
+    <row r="119" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J119" s="15"/>
+    </row>
+    <row r="120" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J120" s="15"/>
+    </row>
+    <row r="121" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J121" s="15"/>
+    </row>
+    <row r="122" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J122" s="15"/>
+    </row>
+    <row r="123" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J123" s="15"/>
+    </row>
+    <row r="124" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J124" s="15"/>
+    </row>
+    <row r="125" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J125" s="15"/>
+    </row>
+    <row r="126" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J126" s="15"/>
+    </row>
+    <row r="127" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J127" s="15"/>
+    </row>
+    <row r="128" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J128" s="15"/>
+    </row>
+    <row r="129" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J129" s="15"/>
+    </row>
+    <row r="130" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J130" s="15"/>
+    </row>
+    <row r="131" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J131" s="15"/>
+    </row>
+    <row r="132" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J132" s="15"/>
+    </row>
+    <row r="133" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J133" s="15"/>
+    </row>
+    <row r="134" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J134" s="15"/>
+    </row>
+    <row r="135" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J135" s="15"/>
+    </row>
+    <row r="136" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J136" s="15"/>
+    </row>
+    <row r="137" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J137" s="15"/>
+    </row>
+    <row r="138" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J138" s="15"/>
+    </row>
+    <row r="139" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J139" s="15"/>
+    </row>
+    <row r="140" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J140" s="15"/>
+    </row>
+    <row r="141" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J141" s="15"/>
+    </row>
+    <row r="142" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J142" s="15"/>
+    </row>
+    <row r="143" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J143" s="15"/>
+    </row>
+    <row r="144" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J144" s="15"/>
+    </row>
+    <row r="145" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J145" s="15"/>
+    </row>
+    <row r="146" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J146" s="15"/>
+    </row>
+    <row r="147" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J147" s="15"/>
+    </row>
+    <row r="148" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J148" s="15"/>
+    </row>
+    <row r="149" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J149" s="15"/>
+    </row>
+    <row r="150" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J150" s="15"/>
+    </row>
+    <row r="151" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J151" s="15"/>
+    </row>
+    <row r="152" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J152" s="15"/>
+    </row>
+    <row r="153" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J153" s="15"/>
+    </row>
+    <row r="154" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J154" s="15"/>
+    </row>
+    <row r="155" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J155" s="15"/>
+    </row>
+    <row r="156" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J156" s="15"/>
+    </row>
+    <row r="157" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J157" s="15"/>
+    </row>
+    <row r="158" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J158" s="15"/>
+    </row>
+    <row r="159" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J159" s="15"/>
+    </row>
+    <row r="160" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J160" s="15"/>
+    </row>
+    <row r="161" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J161" s="15"/>
+    </row>
+    <row r="162" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J162" s="15"/>
+    </row>
+    <row r="163" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J163" s="15"/>
+    </row>
+    <row r="164" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J164" s="15"/>
+    </row>
+    <row r="165" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J165" s="15"/>
+    </row>
+    <row r="166" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J166" s="15"/>
+    </row>
+    <row r="167" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J167" s="15"/>
+    </row>
+    <row r="168" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J168" s="15"/>
+    </row>
+    <row r="169" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J169" s="15"/>
+    </row>
+    <row r="170" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J170" s="15"/>
+    </row>
+    <row r="171" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J171" s="15"/>
+    </row>
+    <row r="172" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J172" s="15"/>
+    </row>
+    <row r="173" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J173" s="15"/>
+    </row>
+    <row r="174" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J174" s="15"/>
+    </row>
+    <row r="175" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J175" s="15"/>
+    </row>
+    <row r="176" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J176" s="15"/>
+    </row>
+    <row r="177" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J177" s="15"/>
+    </row>
+    <row r="178" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J178" s="15"/>
+    </row>
+    <row r="179" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J179" s="15"/>
+    </row>
+    <row r="180" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J180" s="15"/>
+    </row>
+    <row r="181" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J181" s="15"/>
+    </row>
+    <row r="182" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J182" s="15"/>
+    </row>
+    <row r="183" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J183" s="15"/>
+    </row>
+    <row r="184" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J184" s="15"/>
+    </row>
+    <row r="185" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J185" s="15"/>
+    </row>
+    <row r="186" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J186" s="15"/>
+    </row>
+    <row r="187" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J187" s="15"/>
+    </row>
+    <row r="188" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J188" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:O188"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="22" customWidth="1"/>
+    <col min="15" max="15" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="34.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="145" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+    </row>
+    <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
+      <c r="A2" s="146" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+    </row>
+    <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="I3" s="15">
+        <f>C6*7/107</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="34">
+        <f>C6-I3</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>SUM(L4:L11)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+    </row>
+    <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="144" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="144"/>
+      <c r="H4" s="71"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+    </row>
+    <row r="5" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A5" s="9"/>
+      <c r="B5" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="137"/>
+      <c r="D5" s="143">
+        <v>0</v>
+      </c>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143">
+        <v>0</v>
+      </c>
+      <c r="G5" s="143"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="15">
+        <f>D5*0.07</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="21">
+        <f>D5+F5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="2"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="137"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="15">
+        <f t="shared" ref="I7:I12" si="0">D7*0.07</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="21">
+        <f t="shared" ref="J7:J11" si="1">D7+F7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="9"/>
+      <c r="B8" s="137" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="137"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="9"/>
+      <c r="B9" s="137" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="137"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="9"/>
+      <c r="B10" s="137" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="137"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A11" s="9"/>
+      <c r="B11" s="137" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="137"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A12" s="9"/>
+      <c r="B12" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="137"/>
+      <c r="D12" s="140">
+        <f>SUM(D7:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="141"/>
+      <c r="F12" s="140">
+        <f>SUM(F7:G11)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="140"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="71"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A14" s="142" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="142"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="140">
+        <f>F5-F12</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="141"/>
+      <c r="H14" s="71"/>
+    </row>
+    <row r="16" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A16" s="9"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A17" s="142"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="71"/>
       <c r="I17" s="15">
         <f>SUM(I18:I37)</f>
         <v>2856000</v>
@@ -11610,1034 +12650,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:O188"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="8.5" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="14" width="22" customWidth="1"/>
-    <col min="15" max="15" width="10.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="140" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-    </row>
-    <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="142" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-    </row>
-    <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="I3" s="15">
-        <f>C6*7/107</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="34">
-        <f>C6-I3</f>
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <f>SUM(L4:L11)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-    </row>
-    <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="139"/>
-      <c r="H4" s="71"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-    </row>
-    <row r="5" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A5" s="9"/>
-      <c r="B5" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="138">
-        <v>0</v>
-      </c>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138">
-        <v>0</v>
-      </c>
-      <c r="G5" s="138"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="15">
-        <f>D5*0.07</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="21">
-        <f>D5+F5</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="N5" s="16"/>
-    </row>
-    <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="69"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="2"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="141" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="15">
-        <f t="shared" ref="I7:I12" si="0">D7*0.07</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="21">
-        <f t="shared" ref="J7:J11" si="1">D7+F7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="9"/>
-      <c r="B8" s="141" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="9"/>
-      <c r="B9" s="141" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="9"/>
-      <c r="B10" s="141" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="141"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A11" s="9"/>
-      <c r="B11" s="141" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="141"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A12" s="9"/>
-      <c r="B12" s="141" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="141"/>
-      <c r="D12" s="144">
-        <f>SUM(D7:E11)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="145"/>
-      <c r="F12" s="144">
-        <f>SUM(F7:G11)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="144"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="21"/>
-    </row>
-    <row r="13" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="71"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A14" s="143" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="143"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="144">
-        <f>F5-F12</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="145"/>
-      <c r="H14" s="71"/>
-    </row>
-    <row r="16" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A16" s="9"/>
-      <c r="B16" s="141"/>
-      <c r="C16" s="141"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" t="s">
-        <v>1</v>
-      </c>
-      <c r="M16" t="s">
-        <v>44</v>
-      </c>
-      <c r="N16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A17" s="143"/>
-      <c r="B17" s="143"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="15">
-        <f>SUM(I18:I37)</f>
-        <v>2856000</v>
-      </c>
-      <c r="J17" s="15">
-        <f>SUM(J18:J37)</f>
-        <v>80800</v>
-      </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15">
-        <f t="shared" ref="L17:N17" si="2">SUM(L18:L37)</f>
-        <v>9158.8900000000012</v>
-      </c>
-      <c r="M17" s="15">
-        <f t="shared" si="2"/>
-        <v>1050</v>
-      </c>
-      <c r="N17" s="15">
-        <f t="shared" si="2"/>
-        <v>2731.03</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" s="15">
-        <v>234000</v>
-      </c>
-      <c r="J18" s="15">
-        <v>8100</v>
-      </c>
-      <c r="L18">
-        <v>934.58</v>
-      </c>
-      <c r="M18">
-        <v>1050</v>
-      </c>
-      <c r="N18">
-        <v>1928.41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19" s="15">
-        <v>338000</v>
-      </c>
-      <c r="J19" s="15">
-        <v>8100</v>
-      </c>
-      <c r="L19">
-        <v>934.58</v>
-      </c>
-      <c r="N19">
-        <v>802.62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20" s="15">
-        <v>280000</v>
-      </c>
-      <c r="J20" s="15">
-        <v>8000</v>
-      </c>
-      <c r="L20">
-        <v>934.58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H21">
-        <v>4</v>
-      </c>
-      <c r="I21" s="15">
-        <v>154000</v>
-      </c>
-      <c r="J21" s="15">
-        <v>8000</v>
-      </c>
-      <c r="L21">
-        <v>934.58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H22">
-        <v>5</v>
-      </c>
-      <c r="I22" s="15">
-        <v>342000</v>
-      </c>
-      <c r="J22" s="15">
-        <v>8100</v>
-      </c>
-      <c r="L22">
-        <v>1317.76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H23">
-        <v>6</v>
-      </c>
-      <c r="I23" s="15">
-        <v>252000</v>
-      </c>
-      <c r="J23" s="15">
-        <v>8100</v>
-      </c>
-      <c r="L23">
-        <v>1130.8499999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H24">
-        <v>7</v>
-      </c>
-      <c r="I24" s="15">
-        <v>274000</v>
-      </c>
-      <c r="J24" s="15">
-        <v>8100</v>
-      </c>
-      <c r="L24">
-        <v>467.29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H25">
-        <v>8</v>
-      </c>
-      <c r="I25" s="15">
-        <v>362000</v>
-      </c>
-      <c r="J25" s="15">
-        <v>8100</v>
-      </c>
-      <c r="L25">
-        <v>1355.14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H26">
-        <v>9</v>
-      </c>
-      <c r="I26" s="15">
-        <v>298000</v>
-      </c>
-      <c r="J26" s="15">
-        <v>8100</v>
-      </c>
-      <c r="L26">
-        <v>1149.53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H27">
-        <v>10</v>
-      </c>
-      <c r="I27" s="15">
-        <v>322000</v>
-      </c>
-      <c r="J27" s="15">
-        <v>8100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H28">
-        <v>11</v>
-      </c>
-      <c r="J28" s="15"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H29">
-        <v>12</v>
-      </c>
-      <c r="J29" s="15"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H30">
-        <v>13</v>
-      </c>
-      <c r="J30" s="15"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H31">
-        <v>14</v>
-      </c>
-      <c r="J31" s="15"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H32">
-        <v>15</v>
-      </c>
-      <c r="J32" s="15"/>
-    </row>
-    <row r="33" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H33">
-        <v>16</v>
-      </c>
-      <c r="J33" s="15"/>
-    </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H34">
-        <v>17</v>
-      </c>
-      <c r="J34" s="15"/>
-    </row>
-    <row r="35" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H35">
-        <v>18</v>
-      </c>
-      <c r="J35" s="15"/>
-    </row>
-    <row r="36" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H36">
-        <v>19</v>
-      </c>
-      <c r="J36" s="15"/>
-    </row>
-    <row r="37" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H37">
-        <v>20</v>
-      </c>
-      <c r="J37" s="15"/>
-    </row>
-    <row r="38" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="J38" s="15"/>
-    </row>
-    <row r="39" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="J39" s="15"/>
-    </row>
-    <row r="40" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="J40" s="15"/>
-    </row>
-    <row r="41" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="J41" s="15"/>
-    </row>
-    <row r="42" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="J42" s="15"/>
-    </row>
-    <row r="43" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="J43" s="15"/>
-    </row>
-    <row r="44" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="J44" s="15"/>
-    </row>
-    <row r="45" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="J45" s="15"/>
-    </row>
-    <row r="46" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="J46" s="15"/>
-    </row>
-    <row r="47" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="J47" s="15"/>
-    </row>
-    <row r="48" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="J48" s="15"/>
-    </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J49" s="15"/>
-    </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J50" s="15"/>
-    </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J51" s="15"/>
-    </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J52" s="15"/>
-    </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J53" s="15"/>
-    </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J54" s="15"/>
-    </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J55" s="15"/>
-    </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J56" s="15"/>
-    </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J57" s="15"/>
-    </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J58" s="15"/>
-    </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J59" s="15"/>
-    </row>
-    <row r="60" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J60" s="15"/>
-    </row>
-    <row r="61" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J61" s="15"/>
-    </row>
-    <row r="62" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J62" s="15"/>
-    </row>
-    <row r="63" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J63" s="15"/>
-    </row>
-    <row r="64" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J64" s="15"/>
-    </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J65" s="15"/>
-    </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J66" s="15"/>
-    </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J67" s="15"/>
-    </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J68" s="15"/>
-    </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J69" s="15"/>
-    </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J70" s="15"/>
-    </row>
-    <row r="71" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J71" s="15"/>
-    </row>
-    <row r="72" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J72" s="15"/>
-    </row>
-    <row r="73" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J73" s="15"/>
-    </row>
-    <row r="74" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J74" s="15"/>
-    </row>
-    <row r="75" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J75" s="15"/>
-    </row>
-    <row r="76" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J76" s="15"/>
-    </row>
-    <row r="77" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J77" s="15"/>
-    </row>
-    <row r="78" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J78" s="15"/>
-    </row>
-    <row r="79" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J79" s="15"/>
-    </row>
-    <row r="80" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J80" s="15"/>
-    </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J81" s="15"/>
-    </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J82" s="15"/>
-    </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J83" s="15"/>
-    </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J84" s="15"/>
-    </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J85" s="15"/>
-    </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J86" s="15"/>
-    </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J87" s="15"/>
-    </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J88" s="15"/>
-    </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J89" s="15"/>
-    </row>
-    <row r="90" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J90" s="15"/>
-    </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J91" s="15"/>
-    </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J92" s="15"/>
-    </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J93" s="15"/>
-    </row>
-    <row r="94" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J94" s="15"/>
-    </row>
-    <row r="95" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J95" s="15"/>
-    </row>
-    <row r="96" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J96" s="15"/>
-    </row>
-    <row r="97" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J97" s="15"/>
-    </row>
-    <row r="98" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J98" s="15"/>
-    </row>
-    <row r="99" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J99" s="15"/>
-    </row>
-    <row r="100" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J100" s="15"/>
-    </row>
-    <row r="101" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J101" s="15"/>
-    </row>
-    <row r="102" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J102" s="15"/>
-    </row>
-    <row r="103" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J103" s="15"/>
-    </row>
-    <row r="104" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J104" s="15"/>
-    </row>
-    <row r="105" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J105" s="15"/>
-    </row>
-    <row r="106" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J106" s="15"/>
-    </row>
-    <row r="107" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J107" s="15"/>
-    </row>
-    <row r="108" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J108" s="15"/>
-    </row>
-    <row r="109" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J109" s="15"/>
-    </row>
-    <row r="110" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J110" s="15"/>
-    </row>
-    <row r="111" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J111" s="15"/>
-    </row>
-    <row r="112" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J112" s="15"/>
-    </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J113" s="15"/>
-    </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J114" s="15"/>
-    </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J115" s="15"/>
-    </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J116" s="15"/>
-    </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J117" s="15"/>
-    </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J118" s="15"/>
-    </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J119" s="15"/>
-    </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J120" s="15"/>
-    </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J121" s="15"/>
-    </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J122" s="15"/>
-    </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J123" s="15"/>
-    </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J124" s="15"/>
-    </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J125" s="15"/>
-    </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J126" s="15"/>
-    </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J127" s="15"/>
-    </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J128" s="15"/>
-    </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J129" s="15"/>
-    </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J130" s="15"/>
-    </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J131" s="15"/>
-    </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J132" s="15"/>
-    </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J133" s="15"/>
-    </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J134" s="15"/>
-    </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J135" s="15"/>
-    </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J136" s="15"/>
-    </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J137" s="15"/>
-    </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J138" s="15"/>
-    </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J139" s="15"/>
-    </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J140" s="15"/>
-    </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J141" s="15"/>
-    </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J142" s="15"/>
-    </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J143" s="15"/>
-    </row>
-    <row r="144" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J144" s="15"/>
-    </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J145" s="15"/>
-    </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J146" s="15"/>
-    </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J147" s="15"/>
-    </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J148" s="15"/>
-    </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J149" s="15"/>
-    </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J150" s="15"/>
-    </row>
-    <row r="151" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J151" s="15"/>
-    </row>
-    <row r="152" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J152" s="15"/>
-    </row>
-    <row r="153" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J153" s="15"/>
-    </row>
-    <row r="154" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J154" s="15"/>
-    </row>
-    <row r="155" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J155" s="15"/>
-    </row>
-    <row r="156" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J156" s="15"/>
-    </row>
-    <row r="157" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J157" s="15"/>
-    </row>
-    <row r="158" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J158" s="15"/>
-    </row>
-    <row r="159" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J159" s="15"/>
-    </row>
-    <row r="160" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J160" s="15"/>
-    </row>
-    <row r="161" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J161" s="15"/>
-    </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J162" s="15"/>
-    </row>
-    <row r="163" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J163" s="15"/>
-    </row>
-    <row r="164" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J164" s="15"/>
-    </row>
-    <row r="165" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J165" s="15"/>
-    </row>
-    <row r="166" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J166" s="15"/>
-    </row>
-    <row r="167" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J167" s="15"/>
-    </row>
-    <row r="168" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J168" s="15"/>
-    </row>
-    <row r="169" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J169" s="15"/>
-    </row>
-    <row r="170" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J170" s="15"/>
-    </row>
-    <row r="171" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J171" s="15"/>
-    </row>
-    <row r="172" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J172" s="15"/>
-    </row>
-    <row r="173" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J173" s="15"/>
-    </row>
-    <row r="174" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J174" s="15"/>
-    </row>
-    <row r="175" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J175" s="15"/>
-    </row>
-    <row r="176" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J176" s="15"/>
-    </row>
-    <row r="177" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J177" s="15"/>
-    </row>
-    <row r="178" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J178" s="15"/>
-    </row>
-    <row r="179" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J179" s="15"/>
-    </row>
-    <row r="180" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J180" s="15"/>
-    </row>
-    <row r="181" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J181" s="15"/>
-    </row>
-    <row r="182" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J182" s="15"/>
-    </row>
-    <row r="183" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J183" s="15"/>
-    </row>
-    <row r="184" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J184" s="15"/>
-    </row>
-    <row r="185" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J185" s="15"/>
-    </row>
-    <row r="186" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J186" s="15"/>
-    </row>
-    <row r="187" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J187" s="15"/>
-    </row>
-    <row r="188" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J188" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:O25"/>
@@ -12660,74 +12672,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
     </row>
     <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
     </row>
     <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="146" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139" t="s">
+      <c r="C4" s="144"/>
+      <c r="D4" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139" t="s">
+      <c r="E4" s="144"/>
+      <c r="F4" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="139"/>
+      <c r="G4" s="144"/>
       <c r="H4" s="1"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9"/>
-      <c r="B5" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="137">
+      <c r="B5" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="137"/>
+      <c r="D5" s="139">
         <v>415770.35</v>
       </c>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137">
-        <v>0</v>
-      </c>
-      <c r="G5" s="137"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139">
+        <v>0</v>
+      </c>
+      <c r="G5" s="139"/>
       <c r="H5" s="2"/>
       <c r="J5" s="21"/>
       <c r="K5" s="3"/>
@@ -12739,59 +12751,59 @@
         <v>31</v>
       </c>
       <c r="C6" s="156"/>
-      <c r="D6" s="146">
+      <c r="D6" s="138">
         <v>398791.38</v>
       </c>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146">
-        <v>0</v>
-      </c>
-      <c r="G6" s="146"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138">
+        <v>0</v>
+      </c>
+      <c r="G6" s="138"/>
       <c r="H6" s="2"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A7" s="36"/>
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="138">
+      <c r="C7" s="137"/>
+      <c r="D7" s="143">
         <f>D5-D6</f>
         <v>16978.969999999972</v>
       </c>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138">
+      <c r="E7" s="143"/>
+      <c r="F7" s="143">
         <f>D7*0.07</f>
         <v>1188.5278999999982</v>
       </c>
-      <c r="G7" s="138"/>
+      <c r="G7" s="143"/>
       <c r="H7" s="2"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="157"/>
       <c r="C8" s="157"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
       <c r="H8" s="2"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9"/>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137">
-        <v>0</v>
-      </c>
-      <c r="G9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139">
+        <v>0</v>
+      </c>
+      <c r="G9" s="139"/>
       <c r="H9" s="2"/>
       <c r="J9" s="3"/>
     </row>
@@ -12801,103 +12813,103 @@
         <v>31</v>
       </c>
       <c r="C10" s="156"/>
-      <c r="D10" s="146">
-        <v>0</v>
-      </c>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146">
-        <v>0</v>
-      </c>
-      <c r="G10" s="146"/>
+      <c r="D10" s="138">
+        <v>0</v>
+      </c>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138">
+        <v>0</v>
+      </c>
+      <c r="G10" s="138"/>
       <c r="H10" s="2"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A11" s="9"/>
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="141"/>
-      <c r="D11" s="138">
+      <c r="C11" s="137"/>
+      <c r="D11" s="143">
         <f>D9-D10</f>
         <v>0</v>
       </c>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138">
+      <c r="E11" s="143"/>
+      <c r="F11" s="143">
         <f>D11*0.07</f>
         <v>0</v>
       </c>
-      <c r="G11" s="138"/>
+      <c r="G11" s="143"/>
       <c r="H11" s="4"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A12" s="9"/>
-      <c r="B12" s="141"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="145"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="141"/>
       <c r="H12" s="1"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="143"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="144">
+      <c r="B13" s="142"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="140">
         <f>F7-F11</f>
         <v>1188.5278999999982</v>
       </c>
-      <c r="G13" s="145"/>
+      <c r="G13" s="141"/>
       <c r="H13" s="1"/>
     </row>
     <row r="15" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A15" s="142" t="s">
+      <c r="A15" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
     </row>
     <row r="16" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="139" t="s">
+      <c r="B16" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139" t="s">
+      <c r="C16" s="144"/>
+      <c r="D16" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139" t="s">
+      <c r="E16" s="144"/>
+      <c r="F16" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="139"/>
+      <c r="G16" s="144"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="9"/>
-      <c r="B17" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="141"/>
-      <c r="D17" s="137">
+      <c r="B17" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="137"/>
+      <c r="D17" s="139">
         <v>1416769.7</v>
       </c>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137">
-        <v>0</v>
-      </c>
-      <c r="G17" s="137"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139">
+        <v>0</v>
+      </c>
+      <c r="G17" s="139"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
@@ -12906,57 +12918,57 @@
         <v>31</v>
       </c>
       <c r="C18" s="156"/>
-      <c r="D18" s="146">
+      <c r="D18" s="138">
         <v>1358339.79</v>
       </c>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146">
-        <v>0</v>
-      </c>
-      <c r="G18" s="146"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138">
+        <v>0</v>
+      </c>
+      <c r="G18" s="138"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A19" s="36"/>
-      <c r="B19" s="141" t="s">
+      <c r="B19" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="141"/>
-      <c r="D19" s="138">
+      <c r="C19" s="137"/>
+      <c r="D19" s="143">
         <f>D17-D18</f>
         <v>58429.909999999916</v>
       </c>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138">
+      <c r="E19" s="143"/>
+      <c r="F19" s="143">
         <f>D19*0.07</f>
         <v>4090.0936999999944</v>
       </c>
-      <c r="G19" s="138"/>
+      <c r="G19" s="143"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="157"/>
       <c r="C20" s="157"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="9"/>
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="141"/>
-      <c r="D21" s="137">
+      <c r="C21" s="137"/>
+      <c r="D21" s="139">
         <v>2050570</v>
       </c>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137">
-        <v>0</v>
-      </c>
-      <c r="G21" s="137"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139">
+        <v>0</v>
+      </c>
+      <c r="G21" s="139"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
@@ -12965,84 +12977,84 @@
         <v>31</v>
       </c>
       <c r="C22" s="156"/>
-      <c r="D22" s="146">
+      <c r="D22" s="138">
         <v>1986442.5</v>
       </c>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146">
-        <v>0</v>
-      </c>
-      <c r="G22" s="146"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138">
+        <v>0</v>
+      </c>
+      <c r="G22" s="138"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A23" s="9"/>
-      <c r="B23" s="141" t="s">
+      <c r="B23" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="141"/>
-      <c r="D23" s="138">
+      <c r="C23" s="137"/>
+      <c r="D23" s="143">
         <f>D21-D22</f>
         <v>64127.5</v>
       </c>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138">
+      <c r="E23" s="143"/>
+      <c r="F23" s="143">
         <f>D23*0.07</f>
         <v>4488.9250000000002</v>
       </c>
-      <c r="G23" s="138"/>
+      <c r="G23" s="143"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A24" s="9"/>
-      <c r="B24" s="141"/>
-      <c r="C24" s="141"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="145"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="137"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="141"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A25" s="143" t="s">
+      <c r="A25" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="143"/>
-      <c r="C25" s="143"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="144">
+      <c r="B25" s="142"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="140">
         <f>F19-F23</f>
         <v>-398.83130000000574</v>
       </c>
-      <c r="G25" s="145"/>
+      <c r="G25" s="141"/>
       <c r="H25" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
@@ -13059,29 +13071,29 @@
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13110,74 +13122,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
     </row>
     <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
     </row>
     <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139" t="s">
+      <c r="C4" s="144"/>
+      <c r="D4" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139" t="s">
+      <c r="E4" s="144"/>
+      <c r="F4" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="139"/>
+      <c r="G4" s="144"/>
       <c r="H4" s="45"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9"/>
-      <c r="B5" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="137">
+      <c r="B5" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="137"/>
+      <c r="D5" s="139">
         <v>378935.82</v>
       </c>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137">
-        <v>0</v>
-      </c>
-      <c r="G5" s="137"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139">
+        <v>0</v>
+      </c>
+      <c r="G5" s="139"/>
       <c r="H5" s="2"/>
       <c r="J5" s="21"/>
       <c r="K5" s="3"/>
@@ -13189,14 +13201,14 @@
         <v>31</v>
       </c>
       <c r="C6" s="156"/>
-      <c r="D6" s="137">
+      <c r="D6" s="139">
         <v>362676.47</v>
       </c>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137">
-        <v>0</v>
-      </c>
-      <c r="G6" s="137"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139">
+        <v>0</v>
+      </c>
+      <c r="G6" s="139"/>
       <c r="H6" s="2"/>
       <c r="J6" s="21"/>
       <c r="K6" s="3"/>
@@ -13204,83 +13216,83 @@
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="48"/>
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="137">
+      <c r="C7" s="137"/>
+      <c r="D7" s="139">
         <f>D5-D6</f>
         <v>16259.350000000035</v>
       </c>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137">
-        <v>0</v>
-      </c>
-      <c r="G7" s="137"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139">
+        <v>0</v>
+      </c>
+      <c r="G7" s="139"/>
       <c r="H7" s="2"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A8" s="44"/>
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="146">
-        <v>0</v>
-      </c>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146">
-        <v>0</v>
-      </c>
-      <c r="G8" s="146"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="138">
+        <v>0</v>
+      </c>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138">
+        <v>0</v>
+      </c>
+      <c r="G8" s="138"/>
       <c r="H8" s="2"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A9" s="44"/>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="138">
+      <c r="C9" s="137"/>
+      <c r="D9" s="143">
         <f>D7+D8</f>
         <v>16259.350000000035</v>
       </c>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138">
+      <c r="E9" s="143"/>
+      <c r="F9" s="143">
         <f>D9*0.07</f>
         <v>1138.1545000000026</v>
       </c>
-      <c r="G9" s="138"/>
+      <c r="G9" s="143"/>
       <c r="H9" s="2"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="157"/>
       <c r="C10" s="157"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
       <c r="H10" s="2"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9"/>
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="141"/>
-      <c r="D11" s="137">
+      <c r="C11" s="137"/>
+      <c r="D11" s="139">
         <v>11313.6</v>
       </c>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137">
-        <v>0</v>
-      </c>
-      <c r="G11" s="137"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139">
+        <v>0</v>
+      </c>
+      <c r="G11" s="139"/>
       <c r="H11" s="2"/>
       <c r="J11" s="3"/>
     </row>
@@ -13288,222 +13300,178 @@
       <c r="A12" s="9"/>
       <c r="B12" s="156"/>
       <c r="C12" s="156"/>
-      <c r="D12" s="146">
-        <v>0</v>
-      </c>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146">
-        <v>0</v>
-      </c>
-      <c r="G12" s="146"/>
+      <c r="D12" s="138">
+        <v>0</v>
+      </c>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138">
+        <v>0</v>
+      </c>
+      <c r="G12" s="138"/>
       <c r="H12" s="2"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A13" s="9"/>
-      <c r="B13" s="141" t="s">
+      <c r="B13" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="141"/>
-      <c r="D13" s="138">
+      <c r="C13" s="137"/>
+      <c r="D13" s="143">
         <f>D11-D12</f>
         <v>11313.6</v>
       </c>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138">
+      <c r="E13" s="143"/>
+      <c r="F13" s="143">
         <f>D13*0.07</f>
         <v>791.95200000000011</v>
       </c>
-      <c r="G13" s="138"/>
+      <c r="G13" s="143"/>
       <c r="H13" s="4"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A14" s="9"/>
-      <c r="B14" s="141"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="145"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="141"/>
       <c r="H14" s="45"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A15" s="143" t="s">
+      <c r="A15" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="144">
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="140">
         <f>F9-F13</f>
         <v>346.20250000000249</v>
       </c>
-      <c r="G15" s="145"/>
+      <c r="G15" s="141"/>
       <c r="H15" s="45"/>
     </row>
     <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A17" s="142"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
+      <c r="A17" s="146"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
     </row>
     <row r="18" spans="1:8" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="139"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="9"/>
-      <c r="B19" s="141"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A20" s="44"/>
       <c r="B20" s="156"/>
       <c r="C20" s="156"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A21" s="44"/>
-      <c r="B21" s="141"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="157"/>
       <c r="C22" s="157"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="9"/>
-      <c r="B23" s="141"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
+      <c r="B23" s="137"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A24" s="9"/>
       <c r="B24" s="156"/>
       <c r="C24" s="156"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A25" s="9"/>
-      <c r="B25" s="141"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="138"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="138"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A26" s="9"/>
-      <c r="B26" s="141"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="145"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="141"/>
       <c r="H26" s="45"/>
     </row>
     <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A27" s="143"/>
-      <c r="B27" s="143"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="145"/>
+      <c r="A27" s="142"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="141"/>
       <c r="H27" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
@@ -13516,399 +13484,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:O27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
-    <col min="13" max="13" width="12.125" customWidth="1"/>
-    <col min="15" max="15" width="10.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="140" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-    </row>
-    <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="142" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-    </row>
-    <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A3" s="142" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-    </row>
-    <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="139"/>
-      <c r="H4" s="50"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-    </row>
-    <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="9"/>
-      <c r="B5" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="137">
-        <v>2849052.6</v>
-      </c>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137">
-        <v>0</v>
-      </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="2"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="3"/>
-      <c r="N5" s="16"/>
-    </row>
-    <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="9"/>
-      <c r="B6" s="156" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="156"/>
-      <c r="D6" s="137">
-        <v>2719601.67</v>
-      </c>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137">
-        <v>0</v>
-      </c>
-      <c r="G6" s="137"/>
-      <c r="H6" s="2"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="3"/>
-      <c r="N6" s="16"/>
-    </row>
-    <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="49"/>
-      <c r="B7" s="141" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="137">
-        <f>D5-D6</f>
-        <v>129450.93000000017</v>
-      </c>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137">
-        <v>0</v>
-      </c>
-      <c r="G7" s="137"/>
-      <c r="H7" s="2"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A8" s="49"/>
-      <c r="B8" s="141" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="146">
-        <v>0</v>
-      </c>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146">
-        <v>0</v>
-      </c>
-      <c r="G8" s="146"/>
-      <c r="H8" s="2"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A9" s="49"/>
-      <c r="B9" s="141" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="138">
-        <f>D7+D8</f>
-        <v>129450.93000000017</v>
-      </c>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138">
-        <f>D9*0.07</f>
-        <v>9061.5651000000125</v>
-      </c>
-      <c r="G9" s="138"/>
-      <c r="H9" s="2"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="157"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="2"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="9"/>
-      <c r="B11" s="141" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="141"/>
-      <c r="D11" s="137">
-        <v>73474.34</v>
-      </c>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="2"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A12" s="9"/>
-      <c r="B12" s="156"/>
-      <c r="C12" s="156"/>
-      <c r="D12" s="146">
-        <v>0</v>
-      </c>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146">
-        <v>0</v>
-      </c>
-      <c r="G12" s="146"/>
-      <c r="H12" s="2"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A13" s="9"/>
-      <c r="B13" s="141" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="141"/>
-      <c r="D13" s="138">
-        <f>D11-D12</f>
-        <v>73474.34</v>
-      </c>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138">
-        <f>D13*0.07</f>
-        <v>5143.2038000000002</v>
-      </c>
-      <c r="G13" s="138"/>
-      <c r="H13" s="4"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A14" s="9"/>
-      <c r="B14" s="141"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="50"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A15" s="143" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="144">
-        <f>F9-F13</f>
-        <v>3918.3613000000123</v>
-      </c>
-      <c r="G15" s="145"/>
-      <c r="H15" s="50"/>
-    </row>
-    <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A17" s="142"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-    </row>
-    <row r="18" spans="1:8" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="139"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="50"/>
-    </row>
-    <row r="19" spans="1:8" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="9"/>
-      <c r="B19" s="141"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A20" s="49"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A21" s="49"/>
-      <c r="B21" s="141"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="157"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="9"/>
-      <c r="B23" s="141"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A24" s="9"/>
-      <c r="B24" s="156"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A25" s="9"/>
-      <c r="B25" s="141"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="138"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A26" s="9"/>
-      <c r="B26" s="141"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="50"/>
-    </row>
-    <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A27" s="143"/>
-      <c r="B27" s="143"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="50"/>
-    </row>
-  </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
@@ -13965,6 +13540,443 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:O27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" customWidth="1"/>
+    <col min="13" max="13" width="12.125" customWidth="1"/>
+    <col min="15" max="15" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="34.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="145" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+    </row>
+    <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
+      <c r="A2" s="146" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+    </row>
+    <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
+      <c r="A3" s="146" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+    </row>
+    <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="144" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="144"/>
+      <c r="H4" s="50"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+    </row>
+    <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="9"/>
+      <c r="B5" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="137"/>
+      <c r="D5" s="139">
+        <v>2849052.6</v>
+      </c>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139">
+        <v>0</v>
+      </c>
+      <c r="G5" s="139"/>
+      <c r="H5" s="2"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="3"/>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="9"/>
+      <c r="B6" s="156" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="156"/>
+      <c r="D6" s="139">
+        <v>2719601.67</v>
+      </c>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139">
+        <v>0</v>
+      </c>
+      <c r="G6" s="139"/>
+      <c r="H6" s="2"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="3"/>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="49"/>
+      <c r="B7" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="137"/>
+      <c r="D7" s="139">
+        <f>D5-D6</f>
+        <v>129450.93000000017</v>
+      </c>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139">
+        <v>0</v>
+      </c>
+      <c r="G7" s="139"/>
+      <c r="H7" s="2"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A8" s="49"/>
+      <c r="B8" s="137" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="137"/>
+      <c r="D8" s="138">
+        <v>0</v>
+      </c>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138">
+        <v>0</v>
+      </c>
+      <c r="G8" s="138"/>
+      <c r="H8" s="2"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A9" s="49"/>
+      <c r="B9" s="137" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="137"/>
+      <c r="D9" s="143">
+        <f>D7+D8</f>
+        <v>129450.93000000017</v>
+      </c>
+      <c r="E9" s="143"/>
+      <c r="F9" s="143">
+        <f>D9*0.07</f>
+        <v>9061.5651000000125</v>
+      </c>
+      <c r="G9" s="143"/>
+      <c r="H9" s="2"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="157"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="2"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="9"/>
+      <c r="B11" s="137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="137"/>
+      <c r="D11" s="139">
+        <v>73474.34</v>
+      </c>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="2"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A12" s="9"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="138">
+        <v>0</v>
+      </c>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138">
+        <v>0</v>
+      </c>
+      <c r="G12" s="138"/>
+      <c r="H12" s="2"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A13" s="9"/>
+      <c r="B13" s="137" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="137"/>
+      <c r="D13" s="143">
+        <f>D11-D12</f>
+        <v>73474.34</v>
+      </c>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143">
+        <f>D13*0.07</f>
+        <v>5143.2038000000002</v>
+      </c>
+      <c r="G13" s="143"/>
+      <c r="H13" s="4"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A14" s="9"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="50"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A15" s="142" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="140">
+        <f>F9-F13</f>
+        <v>3918.3613000000123</v>
+      </c>
+      <c r="G15" s="141"/>
+      <c r="H15" s="50"/>
+    </row>
+    <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.65">
+      <c r="A17" s="146"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+    </row>
+    <row r="18" spans="1:8" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="144"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="50"/>
+    </row>
+    <row r="19" spans="1:8" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="9"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A20" s="49"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A21" s="49"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="157"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="9"/>
+      <c r="B23" s="137"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A24" s="9"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A25" s="9"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A26" s="9"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="50"/>
+    </row>
+    <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A27" s="142"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="68">
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:O27"/>
@@ -13986,74 +13998,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
     </row>
     <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
     </row>
     <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139" t="s">
+      <c r="C4" s="144"/>
+      <c r="D4" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139" t="s">
+      <c r="E4" s="144"/>
+      <c r="F4" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="139"/>
+      <c r="G4" s="144"/>
       <c r="H4" s="50"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9"/>
-      <c r="B5" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="137">
+      <c r="B5" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="137"/>
+      <c r="D5" s="139">
         <v>10410544.02</v>
       </c>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137">
-        <v>0</v>
-      </c>
-      <c r="G5" s="137"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139">
+        <v>0</v>
+      </c>
+      <c r="G5" s="139"/>
       <c r="H5" s="2"/>
       <c r="J5" s="21"/>
       <c r="K5" s="3"/>
@@ -14065,14 +14077,14 @@
         <v>31</v>
       </c>
       <c r="C6" s="156"/>
-      <c r="D6" s="137">
+      <c r="D6" s="139">
         <v>9970345.4199999999</v>
       </c>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137">
-        <v>0</v>
-      </c>
-      <c r="G6" s="137"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139">
+        <v>0</v>
+      </c>
+      <c r="G6" s="139"/>
       <c r="H6" s="2"/>
       <c r="J6" s="21"/>
       <c r="K6" s="3"/>
@@ -14080,81 +14092,81 @@
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="49"/>
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="137">
+      <c r="C7" s="137"/>
+      <c r="D7" s="139">
         <f>D5-D6</f>
         <v>440198.59999999963</v>
       </c>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137">
-        <v>0</v>
-      </c>
-      <c r="G7" s="137"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139">
+        <v>0</v>
+      </c>
+      <c r="G7" s="139"/>
       <c r="H7" s="2"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A8" s="49"/>
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="146">
-        <v>0</v>
-      </c>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146">
-        <v>0</v>
-      </c>
-      <c r="G8" s="146"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="138">
+        <v>0</v>
+      </c>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138">
+        <v>0</v>
+      </c>
+      <c r="G8" s="138"/>
       <c r="H8" s="2"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A9" s="49"/>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="138">
+      <c r="C9" s="137"/>
+      <c r="D9" s="143">
         <f>D7+D8</f>
         <v>440198.59999999963</v>
       </c>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138">
+      <c r="E9" s="143"/>
+      <c r="F9" s="143">
         <f>D9*0.07</f>
         <v>30813.901999999976</v>
       </c>
-      <c r="G9" s="138"/>
+      <c r="G9" s="143"/>
       <c r="H9" s="2"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="157"/>
       <c r="C10" s="157"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
       <c r="H10" s="2"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9"/>
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="141"/>
-      <c r="D11" s="137">
+      <c r="C11" s="137"/>
+      <c r="D11" s="139">
         <v>378186.85</v>
       </c>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
       <c r="H11" s="2"/>
       <c r="J11" s="3"/>
     </row>
@@ -14162,232 +14174,172 @@
       <c r="A12" s="9"/>
       <c r="B12" s="156"/>
       <c r="C12" s="156"/>
-      <c r="D12" s="146">
-        <v>0</v>
-      </c>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146">
-        <v>0</v>
-      </c>
-      <c r="G12" s="146"/>
+      <c r="D12" s="138">
+        <v>0</v>
+      </c>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138">
+        <v>0</v>
+      </c>
+      <c r="G12" s="138"/>
       <c r="H12" s="2"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A13" s="9"/>
-      <c r="B13" s="141" t="s">
+      <c r="B13" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="141"/>
-      <c r="D13" s="138">
+      <c r="C13" s="137"/>
+      <c r="D13" s="143">
         <f>D11-D12</f>
         <v>378186.85</v>
       </c>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138">
+      <c r="E13" s="143"/>
+      <c r="F13" s="143">
         <f>D13*0.07</f>
         <v>26473.0795</v>
       </c>
-      <c r="G13" s="138"/>
+      <c r="G13" s="143"/>
       <c r="H13" s="4"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A14" s="9"/>
-      <c r="B14" s="141"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="145"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="141"/>
       <c r="H14" s="50"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A15" s="143" t="s">
+      <c r="A15" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="144">
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="140">
         <f>F9-F13</f>
         <v>4340.8224999999766</v>
       </c>
-      <c r="G15" s="145"/>
+      <c r="G15" s="141"/>
       <c r="H15" s="50"/>
     </row>
     <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A17" s="142"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
+      <c r="A17" s="146"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
     </row>
     <row r="18" spans="1:8" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="139"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
       <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:8" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="9"/>
-      <c r="B19" s="141"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A20" s="49"/>
       <c r="B20" s="156"/>
       <c r="C20" s="156"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A21" s="49"/>
-      <c r="B21" s="141"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="157"/>
       <c r="C22" s="157"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="9"/>
-      <c r="B23" s="141"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
+      <c r="B23" s="137"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A24" s="9"/>
       <c r="B24" s="156"/>
       <c r="C24" s="156"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A25" s="9"/>
-      <c r="B25" s="141"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="138"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="138"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A26" s="9"/>
-      <c r="B26" s="141"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="145"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="141"/>
       <c r="H26" s="50"/>
     </row>
     <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A27" s="143"/>
-      <c r="B27" s="143"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="145"/>
+      <c r="A27" s="142"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="141"/>
       <c r="H27" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="B25:C25"/>
@@ -14396,6 +14348,66 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2561/MY WORK/ยอดแบบ ภพ.30.xlsx
+++ b/2561/MY WORK/ยอดแบบ ภพ.30.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07345EDC-709E-4260-B596-D469C40594E1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05BE461-CF8B-469C-BEEF-E7FF67FDC282}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="887" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="887" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="นานายิ่งไพศาล" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,16 @@
     <sheet name="ลิ้มเคียนฮวด" sheetId="10" r:id="rId8"/>
     <sheet name="ห้างทองศรีฟ้า" sheetId="11" r:id="rId9"/>
     <sheet name="ทวีทรัพย์LPG สนญ." sheetId="4" r:id="rId10"/>
-    <sheet name="จักรยานแก๊ส" sheetId="2" r:id="rId11"/>
-    <sheet name="ทวีทรัพย์LPG สาขา" sheetId="5" r:id="rId12"/>
+    <sheet name="ทวีทรัพย์LPG สาขา" sheetId="5" r:id="rId11"/>
+    <sheet name="จักรยานแก๊ส" sheetId="2" r:id="rId12"/>
     <sheet name="โชคเจริญไพศาล" sheetId="3" r:id="rId13"/>
     <sheet name="รถบ้านบุญมาก" sheetId="12" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">จักรยานแก๊ส!$A$1:$H$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">จักรยานแก๊ส!$A$1:$H$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">โชคเจริญไพศาล!$A$1:$H$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'ทวีทรัพย์LPG สนญ.'!$A$1:$H$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">'ทวีทรัพย์LPG สาขา'!$A$1:$H$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'ทวีทรัพย์LPG สาขา'!$A$1:$H$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'นวพร 1999'!$A$1:$H$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">นานายิ่งไพศาล!$A$1:$H$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">รถบ้านบุญมาก!$A$1:$H$16</definedName>
@@ -967,22 +967,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -994,8 +979,32 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="187" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1003,13 +1012,7 @@
     <xf numFmtId="187" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="187" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1021,43 +1024,10 @@
     <xf numFmtId="187" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="187" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1073,6 +1043,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="189" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="187" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1441,32 +1441,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
     </row>
     <row r="2" spans="1:14" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="142" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
     </row>
     <row r="3" spans="1:14" ht="31.5" x14ac:dyDescent="0.65">
       <c r="A3" s="10"/>
@@ -1482,36 +1482,36 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144" t="s">
+      <c r="C4" s="139"/>
+      <c r="D4" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144" t="s">
+      <c r="E4" s="139"/>
+      <c r="F4" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="144"/>
+      <c r="G4" s="139"/>
       <c r="H4" s="1"/>
       <c r="J4" s="21"/>
       <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:14" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A5" s="9"/>
-      <c r="B5" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="143">
+      <c r="B5" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="141"/>
+      <c r="D5" s="138">
         <v>680635.51</v>
       </c>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143">
+      <c r="E5" s="138"/>
+      <c r="F5" s="138">
         <v>47644.49</v>
       </c>
-      <c r="G5" s="143"/>
+      <c r="G5" s="138"/>
       <c r="H5" s="2"/>
       <c r="I5" s="3">
         <f>D5+F5</f>
@@ -1525,10 +1525,10 @@
     </row>
     <row r="6" spans="1:14" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8"/>
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="143" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="142"/>
+      <c r="C6" s="143"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -1539,18 +1539,18 @@
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:14" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="141" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="139">
+      <c r="C7" s="141"/>
+      <c r="D7" s="137">
         <v>237724.02</v>
       </c>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139">
+      <c r="E7" s="137"/>
+      <c r="F7" s="137">
         <v>16640.68</v>
       </c>
-      <c r="G7" s="139"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3">
         <f t="shared" ref="I7:I14" si="0">D7+F7</f>
@@ -1564,18 +1564,18 @@
     </row>
     <row r="8" spans="1:14" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9"/>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="139">
+      <c r="C8" s="141"/>
+      <c r="D8" s="137">
         <v>172290.56</v>
       </c>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139">
+      <c r="E8" s="137"/>
+      <c r="F8" s="137">
         <v>12060.34</v>
       </c>
-      <c r="G8" s="139"/>
+      <c r="G8" s="137"/>
       <c r="H8" s="2"/>
       <c r="I8" s="3">
         <f t="shared" si="0"/>
@@ -1589,14 +1589,14 @@
     </row>
     <row r="9" spans="1:14" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9"/>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
       <c r="H9" s="2"/>
       <c r="I9" s="3">
         <f t="shared" si="0"/>
@@ -1610,18 +1610,18 @@
     </row>
     <row r="10" spans="1:14" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="9"/>
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="139">
-        <v>0</v>
-      </c>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139">
-        <v>0</v>
-      </c>
-      <c r="G10" s="139"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="137">
+        <v>0</v>
+      </c>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137">
+        <v>0</v>
+      </c>
+      <c r="G10" s="137"/>
       <c r="H10" s="2"/>
       <c r="I10" s="3">
         <f>D10+F10</f>
@@ -1635,18 +1635,18 @@
     </row>
     <row r="11" spans="1:14" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9"/>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="137"/>
-      <c r="D11" s="139">
-        <v>0</v>
-      </c>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139">
-        <v>0</v>
-      </c>
-      <c r="G11" s="139"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="137">
+        <v>0</v>
+      </c>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137">
+        <v>0</v>
+      </c>
+      <c r="G11" s="137"/>
       <c r="H11" s="2"/>
       <c r="I11" s="3">
         <f t="shared" si="0"/>
@@ -1660,19 +1660,19 @@
     </row>
     <row r="12" spans="1:14" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9"/>
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="137"/>
-      <c r="D12" s="139">
+      <c r="C12" s="141"/>
+      <c r="D12" s="137">
         <f>5981.31+3364.49+10560.75</f>
         <v>19906.55</v>
       </c>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139">
+      <c r="E12" s="137"/>
+      <c r="F12" s="137">
         <v>1393.46</v>
       </c>
-      <c r="G12" s="139"/>
+      <c r="G12" s="137"/>
       <c r="H12" s="4"/>
       <c r="I12" s="3">
         <f>D12+F12</f>
@@ -1686,18 +1686,18 @@
     </row>
     <row r="13" spans="1:14" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A13" s="9"/>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="137"/>
-      <c r="D13" s="138">
+      <c r="C13" s="141"/>
+      <c r="D13" s="146">
         <v>3500</v>
       </c>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138">
+      <c r="E13" s="146"/>
+      <c r="F13" s="146">
         <v>245</v>
       </c>
-      <c r="G13" s="138"/>
+      <c r="G13" s="146"/>
       <c r="H13" s="4"/>
       <c r="I13" s="3">
         <f t="shared" si="0"/>
@@ -1711,20 +1711,20 @@
     </row>
     <row r="14" spans="1:14" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A14" s="9"/>
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="137"/>
-      <c r="D14" s="140">
+      <c r="C14" s="141"/>
+      <c r="D14" s="144">
         <f>SUM(D7:E13)</f>
         <v>433421.12999999995</v>
       </c>
-      <c r="E14" s="141"/>
-      <c r="F14" s="140">
+      <c r="E14" s="145"/>
+      <c r="F14" s="144">
         <f>SUM(F7:G13)</f>
         <v>30339.48</v>
       </c>
-      <c r="G14" s="141"/>
+      <c r="G14" s="145"/>
       <c r="H14" s="1"/>
       <c r="I14" s="3">
         <f t="shared" si="0"/>
@@ -1749,18 +1749,18 @@
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:14" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="140">
+      <c r="B16" s="143"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="144">
         <f>F5-F14</f>
         <v>17305.009999999998</v>
       </c>
-      <c r="G16" s="141"/>
+      <c r="G16" s="145"/>
       <c r="H16" s="1"/>
       <c r="L16" s="14"/>
     </row>
@@ -2174,6 +2174,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="F11:G11"/>
@@ -2190,27 +2211,6 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2221,8 +2221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2244,16 +2244,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
       <c r="M1" s="3">
         <f>ROUND(C$19,2)</f>
         <v>76886</v>
@@ -2268,16 +2268,16 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="142" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
       <c r="M2" s="3">
         <f>ROUND(D$19,2)</f>
         <v>0</v>
@@ -2319,18 +2319,18 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144" t="s">
+      <c r="C4" s="139"/>
+      <c r="D4" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144" t="s">
+      <c r="E4" s="139"/>
+      <c r="F4" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="144"/>
+      <c r="G4" s="139"/>
       <c r="H4" s="1"/>
       <c r="J4" t="s">
         <v>8</v>
@@ -2354,18 +2354,18 @@
     </row>
     <row r="5" spans="1:16" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A5" s="9"/>
-      <c r="B5" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="143">
+      <c r="B5" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="141"/>
+      <c r="D5" s="138">
         <v>1064907.03</v>
       </c>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143">
+      <c r="E5" s="138"/>
+      <c r="F5" s="138">
         <v>74543.490000000005</v>
       </c>
-      <c r="G5" s="143"/>
+      <c r="G5" s="138"/>
       <c r="H5" s="2"/>
       <c r="I5" s="3">
         <f>D5*0.07</f>
@@ -2426,18 +2426,18 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="139">
+      <c r="C7" s="141"/>
+      <c r="D7" s="137">
         <v>750372.61</v>
       </c>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139">
+      <c r="E7" s="137"/>
+      <c r="F7" s="137">
         <v>52526.080000000002</v>
       </c>
-      <c r="G7" s="139"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3">
         <f t="shared" si="1"/>
@@ -2456,18 +2456,18 @@
     </row>
     <row r="8" spans="1:16" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9"/>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="139">
+      <c r="C8" s="141"/>
+      <c r="D8" s="137">
         <v>7691.45</v>
       </c>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139">
+      <c r="E8" s="137"/>
+      <c r="F8" s="137">
         <v>538.4</v>
       </c>
-      <c r="G8" s="139"/>
+      <c r="G8" s="137"/>
       <c r="H8" s="2"/>
       <c r="I8" s="3">
         <f t="shared" si="1"/>
@@ -2484,14 +2484,14 @@
     </row>
     <row r="9" spans="1:16" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9"/>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
       <c r="H9" s="2"/>
       <c r="I9" s="3">
         <f t="shared" si="1"/>
@@ -2501,14 +2501,14 @@
     </row>
     <row r="10" spans="1:16" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="9"/>
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
       <c r="H10" s="2"/>
       <c r="I10" s="3">
         <f t="shared" si="1"/>
@@ -2518,18 +2518,18 @@
     </row>
     <row r="11" spans="1:16" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A11" s="9"/>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="137"/>
-      <c r="D11" s="138">
+      <c r="C11" s="141"/>
+      <c r="D11" s="146">
         <v>6000</v>
       </c>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138">
+      <c r="E11" s="146"/>
+      <c r="F11" s="146">
         <v>420</v>
       </c>
-      <c r="G11" s="138"/>
+      <c r="G11" s="146"/>
       <c r="H11" s="4"/>
       <c r="I11" s="3">
         <f t="shared" si="1"/>
@@ -2539,20 +2539,20 @@
     </row>
     <row r="12" spans="1:16" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A12" s="9"/>
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="137"/>
-      <c r="D12" s="140">
+      <c r="C12" s="141"/>
+      <c r="D12" s="144">
         <f>SUM(D7:E11)</f>
         <v>764064.05999999994</v>
       </c>
-      <c r="E12" s="141"/>
-      <c r="F12" s="140">
+      <c r="E12" s="145"/>
+      <c r="F12" s="144">
         <f>SUM(F7:G11)</f>
         <v>53484.480000000003</v>
       </c>
-      <c r="G12" s="140"/>
+      <c r="G12" s="144"/>
       <c r="H12" s="1"/>
       <c r="I12" s="3">
         <f t="shared" si="1"/>
@@ -2570,18 +2570,18 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:16" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A14" s="142" t="s">
+      <c r="A14" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="142"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="140">
+      <c r="B14" s="143"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="144">
         <f>F5-F12</f>
         <v>21059.010000000002</v>
       </c>
-      <c r="G14" s="141"/>
+      <c r="G14" s="145"/>
       <c r="H14" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -2784,20 +2784,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
@@ -2807,11 +2798,20 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2819,6 +2819,599 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:P71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="9.75" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="11" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.75" customWidth="1"/>
+    <col min="14" max="14" width="10.25" customWidth="1"/>
+    <col min="15" max="15" width="15.75" customWidth="1"/>
+    <col min="16" max="16" width="16.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="34.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="140" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="M1" s="3">
+        <f>ROUND(C$18,2)</f>
+        <v>66026.5</v>
+      </c>
+      <c r="N1" s="52">
+        <f>C23</f>
+        <v>14.82</v>
+      </c>
+      <c r="O1" s="34">
+        <f>ROUND(N1*M1,2)</f>
+        <v>978512.73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="31.5" x14ac:dyDescent="0.65">
+      <c r="A2" s="142" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="M2" s="3">
+        <f>ROUND(D$18,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="52">
+        <f>D23</f>
+        <v>14.82</v>
+      </c>
+      <c r="O2" s="34">
+        <f t="shared" ref="O2:O6" si="0">ROUND(N2*M2,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="31.5" x14ac:dyDescent="0.65">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="15">
+        <v>9550</v>
+      </c>
+      <c r="M3" s="3">
+        <f>ROUND(E$18,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="52">
+        <f>E23</f>
+        <v>15.13</v>
+      </c>
+      <c r="O3" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="139" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="139"/>
+      <c r="H4" s="60"/>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="15">
+        <f>15220+7550+4580+7760</f>
+        <v>35110</v>
+      </c>
+      <c r="M4" s="3">
+        <f>ROUND(F$18,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="52">
+        <f>F23</f>
+        <v>15.97</v>
+      </c>
+      <c r="O4" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A5" s="9"/>
+      <c r="B5" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="141"/>
+      <c r="D5" s="138">
+        <v>914497.88</v>
+      </c>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138">
+        <v>64014.85</v>
+      </c>
+      <c r="G5" s="138"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3">
+        <f>D5*0.07</f>
+        <v>64014.851600000009</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="15">
+        <v>8970</v>
+      </c>
+      <c r="M5" s="3">
+        <f>ROUND(G$18,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="52">
+        <f>G23</f>
+        <v>14.82</v>
+      </c>
+      <c r="O5" s="34">
+        <f>ROUND(N5*M5,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3">
+        <f t="shared" ref="I6:I11" si="1">D6*0.07</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <f>K3+K4-K5</f>
+        <v>35690</v>
+      </c>
+      <c r="L6" s="15">
+        <f>K6*1.85</f>
+        <v>66026.5</v>
+      </c>
+      <c r="M6" s="3">
+        <f>H$18</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="52"/>
+      <c r="O6" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="34">
+        <f>SUM(O1:O6)</f>
+        <v>978512.73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="141"/>
+      <c r="D7" s="137">
+        <v>640855.81000000006</v>
+      </c>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137">
+        <v>44859.91</v>
+      </c>
+      <c r="G7" s="137"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3">
+        <f t="shared" si="1"/>
+        <v>44859.906700000007</v>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="42">
+        <f>SUM(M1:M6)</f>
+        <v>66026.5</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="P7" s="34">
+        <f>ROUND(P6*7/107,2)</f>
+        <v>64014.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="9"/>
+      <c r="B8" s="141" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="141"/>
+      <c r="D8" s="137">
+        <v>5635.17</v>
+      </c>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137">
+        <v>394.46</v>
+      </c>
+      <c r="G8" s="137"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3">
+        <f t="shared" si="1"/>
+        <v>394.46190000000007</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="15"/>
+      <c r="P8" s="35">
+        <f>P6-P7</f>
+        <v>914497.88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="9"/>
+      <c r="B9" s="141" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="141"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="34"/>
+    </row>
+    <row r="10" spans="1:16" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A10" s="9"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="34"/>
+    </row>
+    <row r="11" spans="1:16" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A11" s="9"/>
+      <c r="B11" s="141" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="141"/>
+      <c r="D11" s="144">
+        <f>SUM(D7:E10)</f>
+        <v>646490.9800000001</v>
+      </c>
+      <c r="E11" s="145"/>
+      <c r="F11" s="144">
+        <f>SUM(F7:G10)</f>
+        <v>45254.37</v>
+      </c>
+      <c r="G11" s="144"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="3">
+        <f t="shared" si="1"/>
+        <v>45254.368600000009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="60"/>
+    </row>
+    <row r="13" spans="1:16" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A13" s="143" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="143"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="144">
+        <f>F5-F11</f>
+        <v>18760.479999999996</v>
+      </c>
+      <c r="G13" s="145"/>
+      <c r="H13" s="60"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E15" s="34"/>
+      <c r="M15" s="42">
+        <f>SUM(M16:M26)</f>
+        <v>640855.81000000006</v>
+      </c>
+      <c r="N15" s="42">
+        <f>SUM(N16:N19)</f>
+        <v>44859.899999999994</v>
+      </c>
+      <c r="O15" s="42">
+        <f>SUM(O16:O19)</f>
+        <v>685715.71000000008</v>
+      </c>
+      <c r="P15" s="15"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="15">
+        <f>L6</f>
+        <v>66026.5</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="M16" s="15">
+        <v>277807.62</v>
+      </c>
+      <c r="N16" s="15">
+        <f>ROUND(M16*0.07,2)</f>
+        <v>19446.53</v>
+      </c>
+      <c r="O16" s="15">
+        <f>M16+N16</f>
+        <v>297254.15000000002</v>
+      </c>
+      <c r="P16" s="15"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E17" s="34"/>
+      <c r="M17" s="15">
+        <v>137808.64000000001</v>
+      </c>
+      <c r="N17" s="15">
+        <f t="shared" ref="N17:N19" si="2">ROUND(M17*0.07,2)</f>
+        <v>9646.6</v>
+      </c>
+      <c r="O17" s="15">
+        <f t="shared" ref="O17:O19" si="3">M17+N17</f>
+        <v>147455.24000000002</v>
+      </c>
+      <c r="P17" s="15"/>
+    </row>
+    <row r="18" spans="2:16" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="42">
+        <f>30/30*$C$16</f>
+        <v>66026.5</v>
+      </c>
+      <c r="D18" s="42"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35">
+        <f>0/31*C16</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="23">
+        <f>SUM(C18:H18)</f>
+        <v>66026.5</v>
+      </c>
+      <c r="M18" s="15">
+        <v>83597.820000000007</v>
+      </c>
+      <c r="N18" s="15">
+        <f t="shared" si="2"/>
+        <v>5851.85</v>
+      </c>
+      <c r="O18" s="15">
+        <f t="shared" si="3"/>
+        <v>89449.670000000013</v>
+      </c>
+      <c r="P18" s="42"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M19" s="15">
+        <v>141641.73000000001</v>
+      </c>
+      <c r="N19" s="15">
+        <f t="shared" si="2"/>
+        <v>9914.92</v>
+      </c>
+      <c r="O19" s="15">
+        <f t="shared" si="3"/>
+        <v>151556.65000000002</v>
+      </c>
+      <c r="P19" s="15"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C22" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="64"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+    </row>
+    <row r="23" spans="2:16" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="66">
+        <v>14.82</v>
+      </c>
+      <c r="D23" s="66">
+        <v>14.82</v>
+      </c>
+      <c r="E23" s="67">
+        <v>15.13</v>
+      </c>
+      <c r="F23" s="67">
+        <v>15.97</v>
+      </c>
+      <c r="G23" s="67">
+        <v>14.82</v>
+      </c>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+    </row>
+    <row r="24" spans="2:16" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="42">
+        <f>SUM(C25:C244)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="42">
+        <f>SUM(D25:D244)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="42">
+        <f>SUM(E25:E244)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="42">
+        <f>SUM(F25:F244)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="42">
+        <f t="shared" ref="G24:H24" si="4">SUM(G25:G244)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E47" s="63"/>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E48" s="63"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F52" s="63"/>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E71" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O49"/>
   <sheetViews>
@@ -2842,28 +3435,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
     </row>
     <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
     </row>
     <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
       <c r="A3" s="10"/>
@@ -2887,18 +3480,18 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144" t="s">
+      <c r="C4" s="139"/>
+      <c r="D4" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144" t="s">
+      <c r="E4" s="139"/>
+      <c r="F4" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="144"/>
+      <c r="G4" s="139"/>
       <c r="H4" s="1"/>
       <c r="M4" s="15">
         <f>D16*388</f>
@@ -2915,18 +3508,18 @@
     </row>
     <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9"/>
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="139">
+      <c r="C5" s="141"/>
+      <c r="D5" s="137">
         <v>141057.94</v>
       </c>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139">
+      <c r="E5" s="137"/>
+      <c r="F5" s="137">
         <v>9874.06</v>
       </c>
-      <c r="G5" s="139"/>
+      <c r="G5" s="137"/>
       <c r="H5" s="2"/>
       <c r="J5" s="21">
         <f>D5*0.07</f>
@@ -2945,18 +3538,18 @@
     </row>
     <row r="6" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A6" s="9"/>
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="143">
+      <c r="C6" s="141"/>
+      <c r="D6" s="138">
         <v>8224.2999999999993</v>
       </c>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143">
+      <c r="E6" s="138"/>
+      <c r="F6" s="138">
         <v>575.70000000000005</v>
       </c>
-      <c r="G6" s="143"/>
+      <c r="G6" s="138"/>
       <c r="H6" s="2"/>
       <c r="J6" s="21">
         <f>D6*0.07</f>
@@ -2972,20 +3565,20 @@
     </row>
     <row r="7" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A7" s="8"/>
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="142"/>
-      <c r="D7" s="143">
+      <c r="C7" s="143"/>
+      <c r="D7" s="138">
         <f>SUM(D5:E6)</f>
         <v>149282.23999999999</v>
       </c>
-      <c r="E7" s="143"/>
-      <c r="F7" s="143">
+      <c r="E7" s="138"/>
+      <c r="F7" s="138">
         <f>SUM(F5:G6)</f>
         <v>10449.76</v>
       </c>
-      <c r="G7" s="143"/>
+      <c r="G7" s="138"/>
       <c r="H7" s="2"/>
       <c r="J7" s="3">
         <f t="shared" ref="J7:J12" si="0">D7*0.07</f>
@@ -2993,18 +3586,18 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="139">
+      <c r="C8" s="141"/>
+      <c r="D8" s="137">
         <v>119244.86</v>
       </c>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139">
+      <c r="E8" s="137"/>
+      <c r="F8" s="137">
         <v>8347.14</v>
       </c>
-      <c r="G8" s="139"/>
+      <c r="G8" s="137"/>
       <c r="H8" s="2"/>
       <c r="J8" s="3">
         <f t="shared" si="0"/>
@@ -3017,12 +3610,12 @@
     </row>
     <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
       <c r="H9" s="2"/>
       <c r="J9" s="3">
         <f t="shared" si="0"/>
@@ -3031,12 +3624,12 @@
     </row>
     <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="9"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
       <c r="H10" s="2"/>
       <c r="J10" s="3">
         <f t="shared" si="0"/>
@@ -3045,12 +3638,12 @@
     </row>
     <row r="11" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A11" s="9"/>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
       <c r="H11" s="4"/>
       <c r="J11" s="3">
         <f t="shared" si="0"/>
@@ -3059,20 +3652,20 @@
     </row>
     <row r="12" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A12" s="9"/>
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="142"/>
-      <c r="D12" s="140">
+      <c r="C12" s="143"/>
+      <c r="D12" s="144">
         <f>SUM(D8:E11)</f>
         <v>119244.86</v>
       </c>
-      <c r="E12" s="141"/>
-      <c r="F12" s="140">
+      <c r="E12" s="145"/>
+      <c r="F12" s="144">
         <f>SUM(F8:G11)</f>
         <v>8347.14</v>
       </c>
-      <c r="G12" s="141"/>
+      <c r="G12" s="145"/>
       <c r="H12" s="1"/>
       <c r="J12" s="3">
         <f t="shared" si="0"/>
@@ -3090,18 +3683,18 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A14" s="142" t="s">
+      <c r="A14" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="142"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="140">
+      <c r="B14" s="143"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="144">
         <f>F7-F12</f>
         <v>2102.6200000000008</v>
       </c>
-      <c r="G14" s="141"/>
+      <c r="G14" s="145"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -3406,12 +3999,23 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
@@ -3420,617 +4024,14 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:P71"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
-    <col min="8" max="8" width="9.75" customWidth="1"/>
-    <col min="9" max="9" width="14.625" customWidth="1"/>
-    <col min="11" max="12" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.75" customWidth="1"/>
-    <col min="14" max="14" width="13.25" customWidth="1"/>
-    <col min="15" max="15" width="15.75" customWidth="1"/>
-    <col min="16" max="16" width="16.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="145" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="M1" s="3">
-        <f>ROUND(C$18,2)</f>
-        <v>114977.5</v>
-      </c>
-      <c r="N1" s="52">
-        <f>C23</f>
-        <v>14.82</v>
-      </c>
-      <c r="O1" s="34">
-        <f>ROUND(N1*M1,2)</f>
-        <v>1703966.55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="146" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="M2" s="3">
-        <f>ROUND(D$18,2)</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="52">
-        <f>D23</f>
-        <v>14.82</v>
-      </c>
-      <c r="O2" s="34">
-        <f t="shared" ref="O2:O6" si="0">ROUND(N2*M2,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="15">
-        <v>10200</v>
-      </c>
-      <c r="M3" s="3">
-        <f>ROUND(E$18,2)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="52">
-        <f>E23</f>
-        <v>15.13</v>
-      </c>
-      <c r="O3" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="144" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="144"/>
-      <c r="H4" s="60"/>
-      <c r="J4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="15">
-        <v>61500</v>
-      </c>
-      <c r="M4" s="3">
-        <f>ROUND(F$18,2)</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="52">
-        <f>F23</f>
-        <v>15.97</v>
-      </c>
-      <c r="O4" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A5" s="9"/>
-      <c r="B5" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="143">
-        <v>1592492.1</v>
-      </c>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143">
-        <v>111474.45</v>
-      </c>
-      <c r="G5" s="143"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3">
-        <f>D5*0.07</f>
-        <v>111474.44700000001</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="15">
-        <v>9550</v>
-      </c>
-      <c r="M5" s="3">
-        <f>ROUND(G$18,2)</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="52">
-        <f>G23</f>
-        <v>14.82</v>
-      </c>
-      <c r="O5" s="34">
-        <f>ROUND(N5*M5,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3">
-        <f t="shared" ref="I6:I11" si="1">D6*0.07</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="15">
-        <f>K3+K4-K5</f>
-        <v>62150</v>
-      </c>
-      <c r="L6" s="15">
-        <f>K6*1.85</f>
-        <v>114977.5</v>
-      </c>
-      <c r="M6" s="3">
-        <f>H$18</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="52"/>
-      <c r="O6" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="34">
-        <f>SUM(O1:O6)</f>
-        <v>1703966.55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="137" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="139">
-        <v>1122532.97</v>
-      </c>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139">
-        <v>78577.31</v>
-      </c>
-      <c r="G7" s="139"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3">
-        <f t="shared" si="1"/>
-        <v>78577.3079</v>
-      </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="42">
-        <f>SUM(M1:M6)</f>
-        <v>114977.5</v>
-      </c>
-      <c r="N7" s="15"/>
-      <c r="P7" s="34">
-        <f>ROUND(P6*7/107,2)</f>
-        <v>111474.45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="9"/>
-      <c r="B8" s="137" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="139">
-        <v>5488.19</v>
-      </c>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139">
-        <v>384.17</v>
-      </c>
-      <c r="G8" s="139"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3">
-        <f t="shared" si="1"/>
-        <v>384.17329999999998</v>
-      </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="15"/>
-      <c r="P8" s="35">
-        <f>P6-P7</f>
-        <v>1592492.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="9"/>
-      <c r="B9" s="137" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="34"/>
-    </row>
-    <row r="10" spans="1:16" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A10" s="9"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="34"/>
-    </row>
-    <row r="11" spans="1:16" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A11" s="9"/>
-      <c r="B11" s="137" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="137"/>
-      <c r="D11" s="140">
-        <f>SUM(D7:E10)</f>
-        <v>1128021.1599999999</v>
-      </c>
-      <c r="E11" s="141"/>
-      <c r="F11" s="140">
-        <f>SUM(F7:G10)</f>
-        <v>78961.48</v>
-      </c>
-      <c r="G11" s="140"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="3">
-        <f t="shared" si="1"/>
-        <v>78961.481199999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="60"/>
-    </row>
-    <row r="13" spans="1:16" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A13" s="142" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="142"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="140">
-        <f>F5-F11</f>
-        <v>32512.97</v>
-      </c>
-      <c r="G13" s="141"/>
-      <c r="H13" s="60"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E15" s="34"/>
-      <c r="M15" s="42">
-        <f>SUM(M16:M26)</f>
-        <v>1122532.97</v>
-      </c>
-      <c r="N15" s="42">
-        <f>SUM(N16:N19)</f>
-        <v>78577.31</v>
-      </c>
-      <c r="O15" s="42">
-        <f>SUM(O16:O19)</f>
-        <v>1201110.2799999998</v>
-      </c>
-      <c r="P15" s="15"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="15">
-        <f>L6</f>
-        <v>114977.5</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="M16" s="15">
-        <v>283465.98</v>
-      </c>
-      <c r="N16" s="15">
-        <f>ROUND(M16*0.07,2)</f>
-        <v>19842.62</v>
-      </c>
-      <c r="O16" s="15">
-        <f>M16+N16</f>
-        <v>303308.59999999998</v>
-      </c>
-      <c r="P16" s="15"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E17" s="34"/>
-      <c r="M17" s="15">
-        <v>279085.31</v>
-      </c>
-      <c r="N17" s="15">
-        <f t="shared" ref="N17:N19" si="2">ROUND(M17*0.07,2)</f>
-        <v>19535.97</v>
-      </c>
-      <c r="O17" s="15">
-        <f t="shared" ref="O17:O19" si="3">M17+N17</f>
-        <v>298621.28000000003</v>
-      </c>
-      <c r="P17" s="15"/>
-    </row>
-    <row r="18" spans="2:16" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="42">
-        <f>30/30*$C$16</f>
-        <v>114977.5</v>
-      </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35">
-        <f>0/31*C16</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="23">
-        <f>SUM(C18:H18)</f>
-        <v>114977.5</v>
-      </c>
-      <c r="M18" s="15">
-        <v>280355.89</v>
-      </c>
-      <c r="N18" s="15">
-        <f t="shared" si="2"/>
-        <v>19624.91</v>
-      </c>
-      <c r="O18" s="15">
-        <f t="shared" si="3"/>
-        <v>299980.79999999999</v>
-      </c>
-      <c r="P18" s="42"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="M19" s="15">
-        <v>279625.78999999998</v>
-      </c>
-      <c r="N19" s="15">
-        <f t="shared" si="2"/>
-        <v>19573.810000000001</v>
-      </c>
-      <c r="O19" s="15">
-        <f t="shared" si="3"/>
-        <v>299199.59999999998</v>
-      </c>
-      <c r="P19" s="15"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C22" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-    </row>
-    <row r="23" spans="2:16" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="66">
-        <v>14.82</v>
-      </c>
-      <c r="D23" s="66">
-        <v>14.82</v>
-      </c>
-      <c r="E23" s="67">
-        <v>15.13</v>
-      </c>
-      <c r="F23" s="67">
-        <v>15.97</v>
-      </c>
-      <c r="G23" s="67">
-        <v>14.82</v>
-      </c>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-    </row>
-    <row r="24" spans="2:16" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="42">
-        <f>SUM(C25:C244)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="42">
-        <f>SUM(D25:D244)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="42">
-        <f>SUM(E25:E244)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="42">
-        <f>SUM(F25:F244)</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="42">
-        <f t="shared" ref="G24:H24" si="4">SUM(G25:G244)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-    </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E47" s="63"/>
-    </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E48" s="63"/>
-    </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F52" s="63"/>
-    </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E71" s="34"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:G13"/>
-  </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
@@ -4088,14 +4089,14 @@
       <c r="N1" s="90"/>
       <c r="O1" s="90"/>
       <c r="P1" s="88"/>
-      <c r="S1" s="169" t="s">
+      <c r="S1" s="159" t="s">
         <v>101</v>
       </c>
-      <c r="T1" s="169"/>
-      <c r="U1" s="169"/>
-      <c r="V1" s="169"/>
-      <c r="W1" s="169"/>
-      <c r="X1" s="169"/>
+      <c r="T1" s="159"/>
+      <c r="U1" s="159"/>
+      <c r="V1" s="159"/>
+      <c r="W1" s="159"/>
+      <c r="X1" s="159"/>
     </row>
     <row r="2" spans="1:24" ht="31.5" x14ac:dyDescent="0.65">
       <c r="A2" s="166" t="s">
@@ -4126,10 +4127,10 @@
       <c r="V2" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="W2" s="170" t="s">
+      <c r="W2" s="160" t="s">
         <v>63</v>
       </c>
-      <c r="X2" s="170"/>
+      <c r="X2" s="160"/>
     </row>
     <row r="3" spans="1:24" ht="31.5" x14ac:dyDescent="0.65">
       <c r="A3" s="76"/>
@@ -4161,11 +4162,11 @@
       <c r="V3" s="107">
         <v>0</v>
       </c>
-      <c r="W3" s="171">
+      <c r="W3" s="161">
         <f>T3+V3</f>
         <v>5</v>
       </c>
-      <c r="X3" s="171"/>
+      <c r="X3" s="161"/>
     </row>
     <row r="4" spans="1:24" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="167" t="s">
@@ -4201,18 +4202,18 @@
         <f>H55</f>
         <v>14738</v>
       </c>
-      <c r="W4" s="171">
+      <c r="W4" s="161">
         <f>SUM(T4:V4)</f>
         <v>14758</v>
       </c>
-      <c r="X4" s="171"/>
+      <c r="X4" s="161"/>
     </row>
     <row r="5" spans="1:24" ht="30" x14ac:dyDescent="0.8">
       <c r="A5" s="79"/>
-      <c r="B5" s="158" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="158"/>
+      <c r="B5" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="163"/>
       <c r="D5" s="164">
         <v>4553673.83</v>
       </c>
@@ -4245,11 +4246,11 @@
         <f>-N21</f>
         <v>-389</v>
       </c>
-      <c r="W5" s="171">
+      <c r="W5" s="161">
         <f>SUM(T5:V5)</f>
         <v>-399</v>
       </c>
-      <c r="X5" s="171"/>
+      <c r="X5" s="161"/>
     </row>
     <row r="6" spans="1:24" ht="27.75" x14ac:dyDescent="0.65">
       <c r="A6" s="81"/>
@@ -4284,25 +4285,25 @@
         <f>-O21</f>
         <v>-14349</v>
       </c>
-      <c r="W6" s="171">
+      <c r="W6" s="161">
         <f t="shared" ref="W6" si="1">T6+V6</f>
         <v>-14364</v>
       </c>
-      <c r="X6" s="171"/>
+      <c r="X6" s="161"/>
     </row>
     <row r="7" spans="1:24" ht="27.75" x14ac:dyDescent="0.65">
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="162">
+      <c r="C7" s="163"/>
+      <c r="D7" s="168">
         <v>4419496.21</v>
       </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162">
+      <c r="E7" s="168"/>
+      <c r="F7" s="168">
         <v>309364.73</v>
       </c>
-      <c r="G7" s="162"/>
+      <c r="G7" s="168"/>
       <c r="H7" s="80"/>
       <c r="J7" s="74">
         <f t="shared" si="0"/>
@@ -4331,27 +4332,27 @@
         <f t="shared" ref="V7" si="2">SUM(V3:V6)</f>
         <v>0</v>
       </c>
-      <c r="W7" s="172">
+      <c r="W7" s="162">
         <f>SUM(W3:W6)</f>
         <v>0</v>
       </c>
-      <c r="X7" s="172"/>
+      <c r="X7" s="162"/>
     </row>
     <row r="8" spans="1:24" ht="27.75" x14ac:dyDescent="0.65">
       <c r="A8" s="79"/>
-      <c r="B8" s="158" t="s">
+      <c r="B8" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="158"/>
-      <c r="D8" s="162">
+      <c r="C8" s="163"/>
+      <c r="D8" s="168">
         <f>25467.29+25233.65</f>
         <v>50700.94</v>
       </c>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162">
+      <c r="E8" s="168"/>
+      <c r="F8" s="168">
         <v>3549.07</v>
       </c>
-      <c r="G8" s="162"/>
+      <c r="G8" s="168"/>
       <c r="H8" s="80"/>
       <c r="J8" s="74">
         <f t="shared" si="0"/>
@@ -4372,18 +4373,18 @@
     </row>
     <row r="9" spans="1:24" ht="27.75" x14ac:dyDescent="0.65">
       <c r="A9" s="79"/>
-      <c r="B9" s="158" t="s">
+      <c r="B9" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="158"/>
-      <c r="D9" s="162">
+      <c r="C9" s="163"/>
+      <c r="D9" s="168">
         <v>9262.5499999999993</v>
       </c>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162">
+      <c r="E9" s="168"/>
+      <c r="F9" s="168">
         <v>648.38</v>
       </c>
-      <c r="G9" s="162"/>
+      <c r="G9" s="168"/>
       <c r="H9" s="80"/>
       <c r="J9" s="74">
         <f t="shared" si="0"/>
@@ -4410,18 +4411,18 @@
     </row>
     <row r="10" spans="1:24" ht="30" x14ac:dyDescent="0.8">
       <c r="A10" s="79"/>
-      <c r="B10" s="158" t="s">
+      <c r="B10" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="158"/>
-      <c r="D10" s="163">
+      <c r="C10" s="163"/>
+      <c r="D10" s="169">
         <v>4000</v>
       </c>
-      <c r="E10" s="163"/>
-      <c r="F10" s="163">
+      <c r="E10" s="169"/>
+      <c r="F10" s="169">
         <v>280</v>
       </c>
-      <c r="G10" s="163"/>
+      <c r="G10" s="169"/>
       <c r="H10" s="84"/>
       <c r="J10" s="74">
         <f t="shared" si="0"/>
@@ -4453,20 +4454,20 @@
     </row>
     <row r="11" spans="1:24" ht="30" x14ac:dyDescent="0.8">
       <c r="A11" s="79"/>
-      <c r="B11" s="158" t="s">
+      <c r="B11" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="158"/>
-      <c r="D11" s="159">
+      <c r="C11" s="163"/>
+      <c r="D11" s="170">
         <f>SUM(D7:E10)</f>
         <v>4483459.7</v>
       </c>
-      <c r="E11" s="160"/>
-      <c r="F11" s="159">
+      <c r="E11" s="171"/>
+      <c r="F11" s="170">
         <f>SUM(F7:G10)</f>
         <v>313842.18</v>
       </c>
-      <c r="G11" s="159"/>
+      <c r="G11" s="170"/>
       <c r="H11" s="77"/>
       <c r="J11" s="74">
         <f t="shared" si="0"/>
@@ -4519,18 +4520,18 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="30" x14ac:dyDescent="0.8">
-      <c r="A13" s="161" t="s">
+      <c r="A13" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="161"/>
-      <c r="C13" s="161"/>
-      <c r="D13" s="161"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="159">
+      <c r="B13" s="172"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="170">
         <f>F5-F11</f>
         <v>4914.9899999999907</v>
       </c>
-      <c r="G13" s="160"/>
+      <c r="G13" s="171"/>
       <c r="H13" s="77"/>
       <c r="T13" s="100" t="s">
         <v>72</v>
@@ -4597,13 +4598,13 @@
     <row r="19" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="73"/>
       <c r="E19" s="74"/>
-      <c r="S19" s="168" t="s">
+      <c r="S19" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="T19" s="168"/>
-      <c r="U19" s="168"/>
-      <c r="V19" s="168"/>
-      <c r="W19" s="168"/>
+      <c r="T19" s="158"/>
+      <c r="U19" s="158"/>
+      <c r="V19" s="158"/>
+      <c r="W19" s="158"/>
       <c r="X19" s="113">
         <f>SUM(X10:X18)</f>
         <v>4848064</v>
@@ -4793,13 +4794,13 @@
         <f>O23*P23</f>
         <v>0</v>
       </c>
-      <c r="S23" s="168" t="s">
+      <c r="S23" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="T23" s="168"/>
-      <c r="U23" s="168"/>
-      <c r="V23" s="168"/>
-      <c r="W23" s="168"/>
+      <c r="T23" s="158"/>
+      <c r="U23" s="158"/>
+      <c r="V23" s="158"/>
+      <c r="W23" s="158"/>
       <c r="X23" s="117">
         <f>SUM(X21:X22)</f>
         <v>24367</v>
@@ -6679,6 +6680,31 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="S19:W19"/>
     <mergeCell ref="S23:W23"/>
     <mergeCell ref="S1:X1"/>
@@ -6688,31 +6714,6 @@
     <mergeCell ref="W5:X5"/>
     <mergeCell ref="W6:X6"/>
     <mergeCell ref="W7:X7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6744,28 +6745,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
     </row>
     <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
     </row>
     <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
       <c r="A3" s="55"/>
@@ -6791,37 +6792,37 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144" t="s">
+      <c r="C4" s="139"/>
+      <c r="D4" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144" t="s">
+      <c r="E4" s="139"/>
+      <c r="F4" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="144"/>
+      <c r="G4" s="139"/>
       <c r="H4" s="56"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A5" s="9"/>
-      <c r="B5" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="143">
+      <c r="B5" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="141"/>
+      <c r="D5" s="138">
         <f>C20</f>
         <v>1178373</v>
       </c>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143">
+      <c r="E5" s="138"/>
+      <c r="F5" s="138">
         <v>82486.11</v>
       </c>
-      <c r="G5" s="143"/>
+      <c r="G5" s="138"/>
       <c r="H5" s="2"/>
       <c r="I5" s="15">
         <f>D5*0.07</f>
@@ -6846,19 +6847,19 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="139">
+      <c r="C7" s="141"/>
+      <c r="D7" s="137">
         <f>I18</f>
         <v>892000</v>
       </c>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139">
+      <c r="E7" s="137"/>
+      <c r="F7" s="137">
         <v>62440</v>
       </c>
-      <c r="G7" s="139"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="2"/>
       <c r="I7" s="15">
         <f>D7*0.07</f>
@@ -6871,19 +6872,19 @@
     </row>
     <row r="8" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9"/>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="139">
+      <c r="C8" s="141"/>
+      <c r="D8" s="137">
         <f>J18</f>
         <v>24300</v>
       </c>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139">
+      <c r="E8" s="137"/>
+      <c r="F8" s="137">
         <v>1701</v>
       </c>
-      <c r="G8" s="139"/>
+      <c r="G8" s="137"/>
       <c r="H8" s="2"/>
       <c r="I8" s="15">
         <f t="shared" ref="I8:I12" si="1">D8*0.07</f>
@@ -6897,18 +6898,18 @@
     </row>
     <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9"/>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="139">
-        <v>0</v>
-      </c>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139">
-        <v>0</v>
-      </c>
-      <c r="G9" s="139"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="137">
+        <v>0</v>
+      </c>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137">
+        <v>0</v>
+      </c>
+      <c r="G9" s="137"/>
       <c r="H9" s="4"/>
       <c r="I9" s="15">
         <f t="shared" si="1"/>
@@ -6921,18 +6922,18 @@
     </row>
     <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="9"/>
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="139">
+      <c r="C10" s="141"/>
+      <c r="D10" s="137">
         <v>4000</v>
       </c>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139">
+      <c r="E10" s="137"/>
+      <c r="F10" s="137">
         <v>280</v>
       </c>
-      <c r="G10" s="139"/>
+      <c r="G10" s="137"/>
       <c r="H10" s="4"/>
       <c r="I10" s="15">
         <f t="shared" si="1"/>
@@ -6945,18 +6946,18 @@
     </row>
     <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9"/>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="137"/>
-      <c r="D11" s="139">
-        <v>0</v>
-      </c>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139">
-        <v>0</v>
-      </c>
-      <c r="G11" s="139"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="137">
+        <v>0</v>
+      </c>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137">
+        <v>0</v>
+      </c>
+      <c r="G11" s="137"/>
       <c r="H11" s="4"/>
       <c r="I11" s="15">
         <f t="shared" si="1"/>
@@ -6969,18 +6970,18 @@
     </row>
     <row r="12" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9"/>
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="137"/>
-      <c r="D12" s="139">
-        <v>0</v>
-      </c>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139">
-        <v>0</v>
-      </c>
-      <c r="G12" s="139"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="137">
+        <v>0</v>
+      </c>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137">
+        <v>0</v>
+      </c>
+      <c r="G12" s="137"/>
       <c r="H12" s="4"/>
       <c r="I12" s="15">
         <f t="shared" si="1"/>
@@ -6993,20 +6994,20 @@
     </row>
     <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A13" s="9"/>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="137"/>
-      <c r="D13" s="140">
+      <c r="C13" s="141"/>
+      <c r="D13" s="144">
         <f>SUM(D7:E12)</f>
         <v>920300</v>
       </c>
-      <c r="E13" s="141"/>
-      <c r="F13" s="140">
+      <c r="E13" s="145"/>
+      <c r="F13" s="144">
         <f>SUM(F7:G12)</f>
         <v>64421</v>
       </c>
-      <c r="G13" s="140"/>
+      <c r="G13" s="144"/>
       <c r="H13" s="56"/>
       <c r="I13" s="15">
         <f t="shared" ref="I13" si="3">D13*0.07</f>
@@ -7026,28 +7027,28 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A15" s="142" t="s">
+      <c r="A15" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="140">
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="144">
         <f>F5-F13</f>
         <v>18065.11</v>
       </c>
-      <c r="G15" s="141"/>
+      <c r="G15" s="145"/>
       <c r="H15" s="56"/>
     </row>
     <row r="17" spans="1:14" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A17" s="9"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="141"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="145"/>
       <c r="H17" s="56"/>
       <c r="I17" s="15" t="s">
         <v>8</v>
@@ -7066,13 +7067,13 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A18" s="142"/>
-      <c r="B18" s="142"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="141"/>
+      <c r="A18" s="143"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="145"/>
       <c r="H18" s="56"/>
       <c r="I18" s="15">
         <f>SUM(I19:I38)</f>
@@ -7808,27 +7809,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:G15"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
@@ -7844,6 +7824,27 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7877,32 +7878,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
       <c r="L1" s="149"/>
       <c r="M1" s="149"/>
       <c r="N1" s="149"/>
       <c r="O1" s="149"/>
     </row>
     <row r="2" spans="1:21" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="142" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
       <c r="L2" s="25"/>
       <c r="M2" s="26"/>
       <c r="N2" s="25"/>
@@ -7960,18 +7961,18 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144" t="s">
+      <c r="C4" s="139"/>
+      <c r="D4" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144" t="s">
+      <c r="E4" s="139"/>
+      <c r="F4" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="144"/>
+      <c r="G4" s="139"/>
       <c r="H4" s="1"/>
       <c r="L4" s="28"/>
       <c r="M4" s="29"/>
@@ -8000,18 +8001,18 @@
     </row>
     <row r="5" spans="1:21" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A5" s="9"/>
-      <c r="B5" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="143">
+      <c r="B5" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="141"/>
+      <c r="D5" s="138">
         <v>1522624.38</v>
       </c>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143">
+      <c r="E5" s="138"/>
+      <c r="F5" s="138">
         <v>106583.71</v>
       </c>
-      <c r="G5" s="143"/>
+      <c r="G5" s="138"/>
       <c r="H5" s="2"/>
       <c r="I5" s="3">
         <f>D5+F5</f>
@@ -8058,19 +8059,19 @@
       <c r="S6" s="15"/>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="139">
+      <c r="C7" s="141"/>
+      <c r="D7" s="137">
         <f>M49</f>
         <v>1284529.3400000001</v>
       </c>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139">
+      <c r="E7" s="137"/>
+      <c r="F7" s="137">
         <v>89917.05</v>
       </c>
-      <c r="G7" s="139"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3">
         <f t="shared" ref="I7:I14" si="0">D7+F7</f>
@@ -8097,18 +8098,18 @@
     </row>
     <row r="8" spans="1:21" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9"/>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="139">
+      <c r="C8" s="141"/>
+      <c r="D8" s="137">
         <v>17832.150000000001</v>
       </c>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139">
+      <c r="E8" s="137"/>
+      <c r="F8" s="137">
         <v>1248.25</v>
       </c>
-      <c r="G8" s="139"/>
+      <c r="G8" s="137"/>
       <c r="H8" s="2"/>
       <c r="I8" s="3">
         <f t="shared" si="0"/>
@@ -8153,18 +8154,18 @@
     </row>
     <row r="9" spans="1:21" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9"/>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="139">
+      <c r="C9" s="141"/>
+      <c r="D9" s="137">
         <v>440</v>
       </c>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139">
+      <c r="E9" s="137"/>
+      <c r="F9" s="137">
         <v>30.8</v>
       </c>
-      <c r="G9" s="139"/>
+      <c r="G9" s="137"/>
       <c r="H9" s="2"/>
       <c r="I9" s="3">
         <f t="shared" si="0"/>
@@ -8185,18 +8186,18 @@
     </row>
     <row r="10" spans="1:21" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="9"/>
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="139">
+      <c r="C10" s="141"/>
+      <c r="D10" s="137">
         <v>3396</v>
       </c>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139">
+      <c r="E10" s="137"/>
+      <c r="F10" s="137">
         <v>237.72</v>
       </c>
-      <c r="G10" s="139"/>
+      <c r="G10" s="137"/>
       <c r="H10" s="2"/>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
@@ -8219,18 +8220,18 @@
     </row>
     <row r="11" spans="1:21" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9"/>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="137"/>
-      <c r="D11" s="139">
+      <c r="C11" s="141"/>
+      <c r="D11" s="137">
         <v>9273.83</v>
       </c>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139">
+      <c r="E11" s="137"/>
+      <c r="F11" s="137">
         <v>649.16999999999996</v>
       </c>
-      <c r="G11" s="139"/>
+      <c r="G11" s="137"/>
       <c r="H11" s="2"/>
       <c r="I11" s="3">
         <f t="shared" si="0"/>
@@ -8254,18 +8255,18 @@
     </row>
     <row r="12" spans="1:21" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9"/>
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="137"/>
-      <c r="D12" s="139">
+      <c r="C12" s="141"/>
+      <c r="D12" s="137">
         <v>28869.19</v>
       </c>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139">
+      <c r="E12" s="137"/>
+      <c r="F12" s="137">
         <v>2020.84</v>
       </c>
-      <c r="G12" s="139"/>
+      <c r="G12" s="137"/>
       <c r="H12" s="2"/>
       <c r="I12" s="3">
         <f t="shared" si="0"/>
@@ -8289,19 +8290,19 @@
     </row>
     <row r="13" spans="1:21" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="9"/>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="141" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="137"/>
-      <c r="D13" s="139">
+      <c r="C13" s="141"/>
+      <c r="D13" s="137">
         <f>27943.93+28953.27</f>
         <v>56897.2</v>
       </c>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139">
+      <c r="E13" s="137"/>
+      <c r="F13" s="137">
         <v>3982.8</v>
       </c>
-      <c r="G13" s="139"/>
+      <c r="G13" s="137"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3">
         <f t="shared" ref="I13" si="3">D13+F13</f>
@@ -8322,14 +8323,14 @@
     </row>
     <row r="14" spans="1:21" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="9"/>
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="137"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3">
         <f t="shared" si="0"/>
@@ -8350,18 +8351,18 @@
     </row>
     <row r="15" spans="1:21" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="9"/>
-      <c r="B15" s="137" t="s">
+      <c r="B15" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="137"/>
-      <c r="D15" s="139">
-        <v>0</v>
-      </c>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139">
-        <v>0</v>
-      </c>
-      <c r="G15" s="139"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="137">
+        <v>0</v>
+      </c>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137">
+        <v>0</v>
+      </c>
+      <c r="G15" s="137"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3">
         <f t="shared" ref="I15" si="5">D15+F15</f>
@@ -8382,18 +8383,18 @@
     </row>
     <row r="16" spans="1:21" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="9"/>
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="137"/>
-      <c r="D16" s="139">
+      <c r="C16" s="141"/>
+      <c r="D16" s="137">
         <v>4000</v>
       </c>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139">
+      <c r="E16" s="137"/>
+      <c r="F16" s="137">
         <v>280</v>
       </c>
-      <c r="G16" s="139"/>
+      <c r="G16" s="137"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3">
         <f t="shared" ref="I16:I18" si="7">D16+F16</f>
@@ -8414,14 +8415,14 @@
     </row>
     <row r="17" spans="1:19" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="9"/>
-      <c r="B17" s="137" t="s">
+      <c r="B17" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="137"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
       <c r="H17" s="2"/>
       <c r="I17" s="3">
         <f t="shared" si="7"/>
@@ -8442,18 +8443,18 @@
     </row>
     <row r="18" spans="1:19" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="9"/>
-      <c r="B18" s="137" t="s">
+      <c r="B18" s="141" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="137"/>
-      <c r="D18" s="139">
-        <v>0</v>
-      </c>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139">
-        <v>0</v>
-      </c>
-      <c r="G18" s="139"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="137">
+        <v>0</v>
+      </c>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137">
+        <v>0</v>
+      </c>
+      <c r="G18" s="137"/>
       <c r="H18" s="2"/>
       <c r="I18" s="3">
         <f t="shared" si="7"/>
@@ -8474,18 +8475,18 @@
     </row>
     <row r="19" spans="1:19" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="9"/>
-      <c r="B19" s="137" t="s">
+      <c r="B19" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="137"/>
-      <c r="D19" s="139">
-        <v>0</v>
-      </c>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139">
-        <v>0</v>
-      </c>
-      <c r="G19" s="139"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="137">
+        <v>0</v>
+      </c>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137">
+        <v>0</v>
+      </c>
+      <c r="G19" s="137"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3">
         <f t="shared" ref="I19" si="9">D19+F19</f>
@@ -8506,20 +8507,20 @@
     </row>
     <row r="20" spans="1:19" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A20" s="9"/>
-      <c r="B20" s="137" t="s">
+      <c r="B20" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="137"/>
-      <c r="D20" s="140">
+      <c r="C20" s="141"/>
+      <c r="D20" s="144">
         <f>SUM(D7:E19)</f>
         <v>1405237.71</v>
       </c>
-      <c r="E20" s="141"/>
-      <c r="F20" s="140">
+      <c r="E20" s="145"/>
+      <c r="F20" s="144">
         <f>SUM(F7:G19)</f>
         <v>98366.63</v>
       </c>
-      <c r="G20" s="141"/>
+      <c r="G20" s="145"/>
       <c r="H20" s="1"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3">
@@ -8539,18 +8540,18 @@
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:19" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A22" s="142" t="s">
+      <c r="A22" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="142"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="140">
+      <c r="B22" s="143"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="144">
         <f>F5-F20</f>
         <v>8217.0800000000017</v>
       </c>
-      <c r="G22" s="141"/>
+      <c r="G22" s="145"/>
       <c r="H22" s="1"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.5">
@@ -8564,33 +8565,33 @@
       <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:19" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A25" s="145" t="s">
+      <c r="A25" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="145"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
+      <c r="B25" s="140"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="140"/>
+      <c r="H25" s="140"/>
       <c r="L25" s="33"/>
       <c r="M25" s="33"/>
       <c r="N25" s="33"/>
       <c r="O25" s="33"/>
     </row>
     <row r="26" spans="1:19" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A26" s="146" t="str">
+      <c r="A26" s="142" t="str">
         <f>A2</f>
         <v>ประจำงวด 09/2561</v>
       </c>
-      <c r="B26" s="146"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
     </row>
     <row r="27" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A27" s="17"/>
@@ -8602,18 +8603,18 @@
       <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:19" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="144" t="s">
+      <c r="B28" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="144"/>
-      <c r="D28" s="144" t="s">
+      <c r="C28" s="139"/>
+      <c r="D28" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144" t="s">
+      <c r="E28" s="139"/>
+      <c r="F28" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="144"/>
+      <c r="G28" s="139"/>
       <c r="H28" s="1"/>
       <c r="L28" s="149"/>
       <c r="M28" s="149"/>
@@ -8622,20 +8623,20 @@
     </row>
     <row r="29" spans="1:19" ht="33.75" x14ac:dyDescent="0.8">
       <c r="A29" s="9"/>
-      <c r="B29" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="150"/>
-      <c r="D29" s="151">
+      <c r="B29" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="147"/>
+      <c r="D29" s="148">
         <f>D5</f>
         <v>1522624.38</v>
       </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151">
+      <c r="E29" s="148"/>
+      <c r="F29" s="148">
         <f>F5</f>
         <v>106583.71</v>
       </c>
-      <c r="G29" s="151"/>
+      <c r="G29" s="148"/>
       <c r="H29" s="2"/>
       <c r="L29" s="25"/>
       <c r="M29" s="26"/>
@@ -8657,33 +8658,33 @@
       <c r="O30" s="25"/>
     </row>
     <row r="31" spans="1:19" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A31" s="145" t="s">
+      <c r="A31" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="145"/>
-      <c r="C31" s="145"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
+      <c r="B31" s="140"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="140"/>
+      <c r="H31" s="140"/>
       <c r="L31" s="28"/>
       <c r="M31" s="29"/>
       <c r="N31" s="29"/>
       <c r="O31" s="29"/>
     </row>
     <row r="32" spans="1:19" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A32" s="146" t="str">
+      <c r="A32" s="142" t="str">
         <f>A26</f>
         <v>ประจำงวด 09/2561</v>
       </c>
-      <c r="B32" s="146"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
+      <c r="B32" s="142"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="142"/>
       <c r="L32" s="28"/>
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
@@ -8703,18 +8704,18 @@
       <c r="O33" s="29"/>
     </row>
     <row r="34" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="144" t="s">
+      <c r="B34" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144" t="s">
+      <c r="C34" s="139"/>
+      <c r="D34" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144" t="s">
+      <c r="E34" s="139"/>
+      <c r="F34" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="144"/>
+      <c r="G34" s="139"/>
       <c r="H34" s="1"/>
       <c r="L34" s="28"/>
       <c r="M34" s="29"/>
@@ -8723,21 +8724,21 @@
     </row>
     <row r="35" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="9"/>
-      <c r="B35" s="137" t="str">
+      <c r="B35" s="141" t="str">
         <f>B7</f>
         <v>ซื้อ</v>
       </c>
-      <c r="C35" s="137"/>
-      <c r="D35" s="139">
+      <c r="C35" s="141"/>
+      <c r="D35" s="137">
         <f>D7</f>
         <v>1284529.3400000001</v>
       </c>
-      <c r="E35" s="139"/>
-      <c r="F35" s="139">
+      <c r="E35" s="137"/>
+      <c r="F35" s="137">
         <f>F7</f>
         <v>89917.05</v>
       </c>
-      <c r="G35" s="139"/>
+      <c r="G35" s="137"/>
       <c r="H35" s="2"/>
       <c r="L35" s="28"/>
       <c r="M35" s="29"/>
@@ -8746,21 +8747,21 @@
     </row>
     <row r="36" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="9"/>
-      <c r="B36" s="137" t="str">
+      <c r="B36" s="141" t="str">
         <f t="shared" ref="B36:B47" si="11">B8</f>
         <v>ค่าไฟฟ้า</v>
       </c>
-      <c r="C36" s="137"/>
-      <c r="D36" s="139">
+      <c r="C36" s="141"/>
+      <c r="D36" s="137">
         <f t="shared" ref="D36:D47" si="12">D8</f>
         <v>17832.150000000001</v>
       </c>
-      <c r="E36" s="139"/>
-      <c r="F36" s="139">
+      <c r="E36" s="137"/>
+      <c r="F36" s="137">
         <f t="shared" ref="F36:F47" si="13">F8</f>
         <v>1248.25</v>
       </c>
-      <c r="G36" s="139"/>
+      <c r="G36" s="137"/>
       <c r="H36" s="2"/>
       <c r="L36" s="28"/>
       <c r="M36" s="29"/>
@@ -8769,21 +8770,21 @@
     </row>
     <row r="37" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="9"/>
-      <c r="B37" s="137" t="str">
+      <c r="B37" s="141" t="str">
         <f t="shared" si="11"/>
         <v>ค่าน้ำประปา</v>
       </c>
-      <c r="C37" s="137"/>
-      <c r="D37" s="139">
+      <c r="C37" s="141"/>
+      <c r="D37" s="137">
         <f t="shared" si="12"/>
         <v>440</v>
       </c>
-      <c r="E37" s="139"/>
-      <c r="F37" s="139">
+      <c r="E37" s="137"/>
+      <c r="F37" s="137">
         <f t="shared" si="13"/>
         <v>30.8</v>
       </c>
-      <c r="G37" s="139"/>
+      <c r="G37" s="137"/>
       <c r="H37" s="2"/>
       <c r="L37" s="28"/>
       <c r="M37" s="29"/>
@@ -8792,21 +8793,21 @@
     </row>
     <row r="38" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="9"/>
-      <c r="B38" s="137" t="str">
+      <c r="B38" s="141" t="str">
         <f t="shared" si="11"/>
         <v>ค่าโทรศัพท์</v>
       </c>
-      <c r="C38" s="137"/>
-      <c r="D38" s="139">
+      <c r="C38" s="141"/>
+      <c r="D38" s="137">
         <f t="shared" si="12"/>
         <v>3396</v>
       </c>
-      <c r="E38" s="139"/>
-      <c r="F38" s="139">
+      <c r="E38" s="137"/>
+      <c r="F38" s="137">
         <f t="shared" si="13"/>
         <v>237.72</v>
       </c>
-      <c r="G38" s="139"/>
+      <c r="G38" s="137"/>
       <c r="H38" s="2"/>
       <c r="L38" s="28"/>
       <c r="M38" s="29"/>
@@ -8815,21 +8816,21 @@
     </row>
     <row r="39" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="9"/>
-      <c r="B39" s="137" t="str">
+      <c r="B39" s="141" t="str">
         <f t="shared" si="11"/>
         <v>ค่าผ่อนรถยนต์</v>
       </c>
-      <c r="C39" s="137"/>
-      <c r="D39" s="139">
+      <c r="C39" s="141"/>
+      <c r="D39" s="137">
         <f t="shared" si="12"/>
         <v>9273.83</v>
       </c>
-      <c r="E39" s="139"/>
-      <c r="F39" s="139">
+      <c r="E39" s="137"/>
+      <c r="F39" s="137">
         <f t="shared" si="13"/>
         <v>649.16999999999996</v>
       </c>
-      <c r="G39" s="139"/>
+      <c r="G39" s="137"/>
       <c r="H39" s="2"/>
       <c r="L39" s="28"/>
       <c r="M39" s="29"/>
@@ -8838,21 +8839,21 @@
     </row>
     <row r="40" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="9"/>
-      <c r="B40" s="137" t="str">
+      <c r="B40" s="141" t="str">
         <f t="shared" si="11"/>
         <v>ค่าน้ำมัน</v>
       </c>
-      <c r="C40" s="137"/>
-      <c r="D40" s="139">
+      <c r="C40" s="141"/>
+      <c r="D40" s="137">
         <f t="shared" si="12"/>
         <v>28869.19</v>
       </c>
-      <c r="E40" s="139"/>
-      <c r="F40" s="139">
+      <c r="E40" s="137"/>
+      <c r="F40" s="137">
         <f t="shared" si="13"/>
         <v>2020.84</v>
       </c>
-      <c r="G40" s="139"/>
+      <c r="G40" s="137"/>
       <c r="H40" s="2"/>
       <c r="L40" s="28"/>
       <c r="M40" s="29"/>
@@ -8861,21 +8862,21 @@
     </row>
     <row r="41" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="9"/>
-      <c r="B41" s="137" t="str">
+      <c r="B41" s="141" t="str">
         <f t="shared" si="11"/>
         <v>ซื้อทรัพย์สิน</v>
       </c>
-      <c r="C41" s="137"/>
-      <c r="D41" s="139">
+      <c r="C41" s="141"/>
+      <c r="D41" s="137">
         <f t="shared" si="12"/>
         <v>56897.2</v>
       </c>
-      <c r="E41" s="139"/>
-      <c r="F41" s="139">
+      <c r="E41" s="137"/>
+      <c r="F41" s="137">
         <f t="shared" si="13"/>
         <v>3982.8</v>
       </c>
-      <c r="G41" s="139"/>
+      <c r="G41" s="137"/>
       <c r="H41" s="2"/>
       <c r="L41" s="28"/>
       <c r="M41" s="29"/>
@@ -8884,21 +8885,21 @@
     </row>
     <row r="42" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="9"/>
-      <c r="B42" s="137" t="str">
+      <c r="B42" s="141" t="str">
         <f t="shared" si="11"/>
         <v>วัสดุสิ้นเปลืองสำนักงาน</v>
       </c>
-      <c r="C42" s="137"/>
-      <c r="D42" s="139">
+      <c r="C42" s="141"/>
+      <c r="D42" s="137">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E42" s="139"/>
-      <c r="F42" s="139">
+      <c r="E42" s="137"/>
+      <c r="F42" s="137">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G42" s="139"/>
+      <c r="G42" s="137"/>
       <c r="H42" s="2"/>
       <c r="L42" s="28"/>
       <c r="M42" s="29"/>
@@ -8907,21 +8908,21 @@
     </row>
     <row r="43" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="9"/>
-      <c r="B43" s="137" t="str">
+      <c r="B43" s="141" t="str">
         <f t="shared" si="11"/>
         <v>ค่าอินเตอร์เน็ต</v>
       </c>
-      <c r="C43" s="137"/>
-      <c r="D43" s="139">
+      <c r="C43" s="141"/>
+      <c r="D43" s="137">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E43" s="139"/>
-      <c r="F43" s="139">
+      <c r="E43" s="137"/>
+      <c r="F43" s="137">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G43" s="139"/>
+      <c r="G43" s="137"/>
       <c r="H43" s="2"/>
       <c r="L43" s="28"/>
       <c r="M43" s="29"/>
@@ -8930,21 +8931,21 @@
     </row>
     <row r="44" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="9"/>
-      <c r="B44" s="137" t="str">
+      <c r="B44" s="141" t="str">
         <f t="shared" si="11"/>
         <v>ค่าทำบัญชี</v>
       </c>
-      <c r="C44" s="137"/>
-      <c r="D44" s="139">
+      <c r="C44" s="141"/>
+      <c r="D44" s="137">
         <f t="shared" si="12"/>
         <v>4000</v>
       </c>
-      <c r="E44" s="139"/>
-      <c r="F44" s="139">
+      <c r="E44" s="137"/>
+      <c r="F44" s="137">
         <f t="shared" si="13"/>
         <v>280</v>
       </c>
-      <c r="G44" s="139"/>
+      <c r="G44" s="137"/>
       <c r="H44" s="2"/>
       <c r="L44" s="28"/>
       <c r="M44" s="29"/>
@@ -8953,21 +8954,21 @@
     </row>
     <row r="45" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="9"/>
-      <c r="B45" s="137" t="str">
+      <c r="B45" s="141" t="str">
         <f t="shared" si="11"/>
         <v>ค่าซ่อมบำรุงยานพาหนะ</v>
       </c>
-      <c r="C45" s="137"/>
-      <c r="D45" s="139">
+      <c r="C45" s="141"/>
+      <c r="D45" s="137">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E45" s="139"/>
-      <c r="F45" s="139">
+      <c r="E45" s="137"/>
+      <c r="F45" s="137">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G45" s="139"/>
+      <c r="G45" s="137"/>
       <c r="H45" s="2"/>
       <c r="L45" s="28"/>
       <c r="M45" s="29"/>
@@ -8976,21 +8977,21 @@
     </row>
     <row r="46" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="9"/>
-      <c r="B46" s="137" t="str">
+      <c r="B46" s="141" t="str">
         <f t="shared" si="11"/>
         <v>ค่าซ่อมบำรุงอุปกรณ์สำนักงาน</v>
       </c>
-      <c r="C46" s="137"/>
-      <c r="D46" s="139">
+      <c r="C46" s="141"/>
+      <c r="D46" s="137">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E46" s="139"/>
-      <c r="F46" s="139">
+      <c r="E46" s="137"/>
+      <c r="F46" s="137">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G46" s="139"/>
+      <c r="G46" s="137"/>
       <c r="H46" s="2"/>
       <c r="L46" s="28"/>
       <c r="M46" s="29"/>
@@ -8999,21 +9000,21 @@
     </row>
     <row r="47" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="9"/>
-      <c r="B47" s="137" t="str">
+      <c r="B47" s="141" t="str">
         <f t="shared" si="11"/>
         <v>ค่าใช้จ่ายเบ็ดเตล็ด</v>
       </c>
-      <c r="C47" s="137"/>
-      <c r="D47" s="139">
+      <c r="C47" s="141"/>
+      <c r="D47" s="137">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E47" s="139"/>
-      <c r="F47" s="139">
+      <c r="E47" s="137"/>
+      <c r="F47" s="137">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G47" s="139"/>
+      <c r="G47" s="137"/>
       <c r="H47" s="2"/>
       <c r="L47" s="28"/>
       <c r="M47" s="29"/>
@@ -9022,20 +9023,20 @@
     </row>
     <row r="48" spans="1:15" ht="31.5" x14ac:dyDescent="0.75">
       <c r="A48" s="9"/>
-      <c r="B48" s="147" t="s">
+      <c r="B48" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="147"/>
-      <c r="D48" s="148">
+      <c r="C48" s="150"/>
+      <c r="D48" s="151">
         <f>D20</f>
         <v>1405237.71</v>
       </c>
-      <c r="E48" s="148"/>
-      <c r="F48" s="148">
+      <c r="E48" s="151"/>
+      <c r="F48" s="151">
         <f>F20</f>
         <v>98366.63</v>
       </c>
-      <c r="G48" s="148"/>
+      <c r="G48" s="151"/>
       <c r="H48" s="2"/>
       <c r="L48" s="28"/>
       <c r="M48" s="29"/>
@@ -9066,13 +9067,13 @@
       </c>
     </row>
     <row r="50" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.7">
-      <c r="A50" s="142"/>
-      <c r="B50" s="142"/>
-      <c r="C50" s="142"/>
-      <c r="D50" s="142"/>
-      <c r="E50" s="142"/>
-      <c r="F50" s="140"/>
-      <c r="G50" s="141"/>
+      <c r="A50" s="143"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="143"/>
+      <c r="E50" s="143"/>
+      <c r="F50" s="144"/>
+      <c r="G50" s="145"/>
       <c r="H50" s="1"/>
       <c r="L50" s="30"/>
       <c r="M50" s="31"/>
@@ -10028,21 +10029,78 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="L28:O28"/>
     <mergeCell ref="B20:C20"/>
@@ -10067,78 +10125,21 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10168,16 +10169,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
       <c r="I1" s="15">
         <f>157143.53*3</f>
         <v>471430.58999999997</v>
@@ -10195,16 +10196,16 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="142" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
     </row>
     <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
       <c r="A3" s="39"/>
@@ -10230,36 +10231,36 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144" t="s">
+      <c r="C4" s="139"/>
+      <c r="D4" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144" t="s">
+      <c r="E4" s="139"/>
+      <c r="F4" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="144"/>
+      <c r="G4" s="139"/>
       <c r="H4" s="41"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A5" s="9"/>
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="143">
+      <c r="C5" s="141"/>
+      <c r="D5" s="138">
         <v>440560.75</v>
       </c>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143">
+      <c r="E5" s="138"/>
+      <c r="F5" s="138">
         <v>30839.25</v>
       </c>
-      <c r="G5" s="143"/>
+      <c r="G5" s="138"/>
       <c r="H5" s="2"/>
       <c r="I5" s="15">
         <f>D5*0.07</f>
@@ -10284,18 +10285,18 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="139">
+      <c r="C7" s="141"/>
+      <c r="D7" s="137">
         <v>157143.53</v>
       </c>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139">
+      <c r="E7" s="137"/>
+      <c r="F7" s="137">
         <v>11000.05</v>
       </c>
-      <c r="G7" s="139"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="2"/>
       <c r="I7" s="15">
         <f t="shared" ref="I7:I13" si="0">D7*0.07</f>
@@ -10308,18 +10309,18 @@
     </row>
     <row r="8" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9"/>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="139">
+      <c r="C8" s="141"/>
+      <c r="D8" s="137">
         <v>37794.5</v>
       </c>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139">
+      <c r="E8" s="137"/>
+      <c r="F8" s="137">
         <v>2645.62</v>
       </c>
-      <c r="G8" s="139"/>
+      <c r="G8" s="137"/>
       <c r="H8" s="2"/>
       <c r="I8" s="15">
         <f t="shared" si="0"/>
@@ -10333,18 +10334,18 @@
     </row>
     <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9"/>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="139">
+      <c r="C9" s="141"/>
+      <c r="D9" s="137">
         <v>102803.74</v>
       </c>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139">
+      <c r="E9" s="137"/>
+      <c r="F9" s="137">
         <v>7196.26</v>
       </c>
-      <c r="G9" s="139"/>
+      <c r="G9" s="137"/>
       <c r="H9" s="2"/>
       <c r="I9" s="15">
         <f t="shared" si="0"/>
@@ -10357,18 +10358,18 @@
     </row>
     <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="9"/>
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="155">
-        <v>0</v>
-      </c>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155">
-        <v>0</v>
-      </c>
-      <c r="G10" s="155"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="152">
+        <v>0</v>
+      </c>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152">
+        <v>0</v>
+      </c>
+      <c r="G10" s="152"/>
       <c r="H10" s="4"/>
       <c r="I10" s="15">
         <f t="shared" ref="I10" si="2">D10*0.07</f>
@@ -10381,14 +10382,14 @@
     </row>
     <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9"/>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="137"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="155"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="152"/>
       <c r="H11" s="4"/>
       <c r="I11" s="15">
         <f t="shared" si="0"/>
@@ -10401,18 +10402,18 @@
     </row>
     <row r="12" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A12" s="9"/>
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="137"/>
-      <c r="D12" s="138">
-        <v>0</v>
-      </c>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138">
-        <v>0</v>
-      </c>
-      <c r="G12" s="138"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="146">
+        <v>0</v>
+      </c>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146">
+        <v>0</v>
+      </c>
+      <c r="G12" s="146"/>
       <c r="H12" s="4"/>
       <c r="I12" s="15">
         <f t="shared" si="0"/>
@@ -10425,20 +10426,20 @@
     </row>
     <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A13" s="9"/>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="137"/>
-      <c r="D13" s="140">
+      <c r="C13" s="141"/>
+      <c r="D13" s="144">
         <f>SUM(D7:E12)</f>
         <v>297741.77</v>
       </c>
-      <c r="E13" s="141"/>
-      <c r="F13" s="140">
+      <c r="E13" s="145"/>
+      <c r="F13" s="144">
         <f>SUM(F7:G12)</f>
         <v>20841.93</v>
       </c>
-      <c r="G13" s="140"/>
+      <c r="G13" s="144"/>
       <c r="H13" s="41"/>
       <c r="I13" s="15">
         <f t="shared" si="0"/>
@@ -10458,60 +10459,60 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A15" s="142" t="s">
+      <c r="A15" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="140">
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="144">
         <f>F5-F13</f>
         <v>9997.32</v>
       </c>
-      <c r="G15" s="141"/>
+      <c r="G15" s="145"/>
       <c r="H15" s="41"/>
     </row>
     <row r="17" spans="1:12" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A17" s="146"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
+      <c r="A17" s="142"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
     </row>
     <row r="18" spans="1:12" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="144"/>
-      <c r="C18" s="144"/>
-      <c r="D18" s="152">
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="153">
         <f>D5-D13</f>
         <v>142818.97999999998</v>
       </c>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
       <c r="H18" s="41"/>
     </row>
     <row r="19" spans="1:12" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="9"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A20" s="142"/>
-      <c r="B20" s="142"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="141"/>
+      <c r="A20" s="143"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="145"/>
       <c r="H20" s="37"/>
       <c r="J20">
         <f>SUM(J21:J27)</f>
@@ -10548,17 +10549,20 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
@@ -10574,20 +10578,17 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10618,28 +10619,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
     </row>
     <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
     </row>
     <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
       <c r="A3" s="134"/>
@@ -10665,36 +10666,36 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144" t="s">
+      <c r="C4" s="139"/>
+      <c r="D4" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144" t="s">
+      <c r="E4" s="139"/>
+      <c r="F4" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="144"/>
+      <c r="G4" s="139"/>
       <c r="H4" s="136"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A5" s="9"/>
-      <c r="B5" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="143">
-        <v>0</v>
-      </c>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143">
-        <v>0</v>
-      </c>
-      <c r="G5" s="143"/>
+      <c r="B5" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="141"/>
+      <c r="D5" s="138">
+        <v>0</v>
+      </c>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138">
+        <v>0</v>
+      </c>
+      <c r="G5" s="138"/>
       <c r="H5" s="2"/>
       <c r="I5" s="15">
         <f>D5*0.07</f>
@@ -10719,14 +10720,14 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="2"/>
       <c r="I7" s="15">
         <f t="shared" ref="I7:I12" si="0">D7*0.07</f>
@@ -10739,14 +10740,14 @@
     </row>
     <row r="8" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9"/>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
       <c r="H8" s="2"/>
       <c r="I8" s="15">
         <f t="shared" si="0"/>
@@ -10760,14 +10761,14 @@
     </row>
     <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9"/>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
       <c r="H9" s="4"/>
       <c r="I9" s="15">
         <f t="shared" si="0"/>
@@ -10780,14 +10781,14 @@
     </row>
     <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="9"/>
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
       <c r="H10" s="4"/>
       <c r="I10" s="15">
         <f t="shared" si="0"/>
@@ -10800,14 +10801,14 @@
     </row>
     <row r="11" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A11" s="9"/>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="137"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
       <c r="H11" s="4"/>
       <c r="I11" s="15">
         <f t="shared" si="0"/>
@@ -10820,20 +10821,20 @@
     </row>
     <row r="12" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A12" s="9"/>
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="137"/>
-      <c r="D12" s="140">
+      <c r="C12" s="141"/>
+      <c r="D12" s="144">
         <f>SUM(D7:E11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="141"/>
-      <c r="F12" s="140">
+      <c r="E12" s="145"/>
+      <c r="F12" s="144">
         <f>SUM(F7:G11)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="140"/>
+      <c r="G12" s="144"/>
       <c r="H12" s="136"/>
       <c r="I12" s="15">
         <f t="shared" si="0"/>
@@ -10853,28 +10854,28 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A14" s="142" t="s">
+      <c r="A14" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="142"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="140">
+      <c r="B14" s="143"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="144">
         <f>F5-F12</f>
         <v>0</v>
       </c>
-      <c r="G14" s="141"/>
+      <c r="G14" s="145"/>
       <c r="H14" s="136"/>
     </row>
     <row r="16" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A16" s="9"/>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="141"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="145"/>
       <c r="H16" s="136"/>
       <c r="I16" s="15" t="s">
         <v>8</v>
@@ -10893,14 +10894,1042 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A17" s="142"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="141"/>
+      <c r="A17" s="143"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="145"/>
       <c r="H17" s="136"/>
+      <c r="I17" s="15">
+        <f>SUM(I18:I37)</f>
+        <v>2856000</v>
+      </c>
+      <c r="J17" s="15">
+        <f>SUM(J18:J37)</f>
+        <v>80800</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15">
+        <f t="shared" ref="L17:N17" si="2">SUM(L18:L37)</f>
+        <v>9158.8900000000012</v>
+      </c>
+      <c r="M17" s="15">
+        <f t="shared" si="2"/>
+        <v>1050</v>
+      </c>
+      <c r="N17" s="15">
+        <f t="shared" si="2"/>
+        <v>2731.03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="15">
+        <v>234000</v>
+      </c>
+      <c r="J18" s="15">
+        <v>8100</v>
+      </c>
+      <c r="L18">
+        <v>934.58</v>
+      </c>
+      <c r="M18">
+        <v>1050</v>
+      </c>
+      <c r="N18">
+        <v>1928.41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" s="15">
+        <v>338000</v>
+      </c>
+      <c r="J19" s="15">
+        <v>8100</v>
+      </c>
+      <c r="L19">
+        <v>934.58</v>
+      </c>
+      <c r="N19">
+        <v>802.62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20" s="15">
+        <v>280000</v>
+      </c>
+      <c r="J20" s="15">
+        <v>8000</v>
+      </c>
+      <c r="L20">
+        <v>934.58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21" s="15">
+        <v>154000</v>
+      </c>
+      <c r="J21" s="15">
+        <v>8000</v>
+      </c>
+      <c r="L21">
+        <v>934.58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22" s="15">
+        <v>342000</v>
+      </c>
+      <c r="J22" s="15">
+        <v>8100</v>
+      </c>
+      <c r="L22">
+        <v>1317.76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23" s="15">
+        <v>252000</v>
+      </c>
+      <c r="J23" s="15">
+        <v>8100</v>
+      </c>
+      <c r="L23">
+        <v>1130.8499999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="I24" s="15">
+        <v>274000</v>
+      </c>
+      <c r="J24" s="15">
+        <v>8100</v>
+      </c>
+      <c r="L24">
+        <v>467.29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>8</v>
+      </c>
+      <c r="I25" s="15">
+        <v>362000</v>
+      </c>
+      <c r="J25" s="15">
+        <v>8100</v>
+      </c>
+      <c r="L25">
+        <v>1355.14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>9</v>
+      </c>
+      <c r="I26" s="15">
+        <v>298000</v>
+      </c>
+      <c r="J26" s="15">
+        <v>8100</v>
+      </c>
+      <c r="L26">
+        <v>1149.53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27" s="15">
+        <v>322000</v>
+      </c>
+      <c r="J27" s="15">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>11</v>
+      </c>
+      <c r="J28" s="15"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>12</v>
+      </c>
+      <c r="J29" s="15"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>13</v>
+      </c>
+      <c r="J30" s="15"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>14</v>
+      </c>
+      <c r="J31" s="15"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>15</v>
+      </c>
+      <c r="J32" s="15"/>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>16</v>
+      </c>
+      <c r="J33" s="15"/>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>17</v>
+      </c>
+      <c r="J34" s="15"/>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>18</v>
+      </c>
+      <c r="J35" s="15"/>
+    </row>
+    <row r="36" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>19</v>
+      </c>
+      <c r="J36" s="15"/>
+    </row>
+    <row r="37" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>20</v>
+      </c>
+      <c r="J37" s="15"/>
+    </row>
+    <row r="38" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J38" s="15"/>
+    </row>
+    <row r="39" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J39" s="15"/>
+    </row>
+    <row r="40" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J40" s="15"/>
+    </row>
+    <row r="41" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J41" s="15"/>
+    </row>
+    <row r="42" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J42" s="15"/>
+    </row>
+    <row r="43" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J43" s="15"/>
+    </row>
+    <row r="44" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J44" s="15"/>
+    </row>
+    <row r="45" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J45" s="15"/>
+    </row>
+    <row r="46" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J46" s="15"/>
+    </row>
+    <row r="47" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J47" s="15"/>
+    </row>
+    <row r="48" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J48" s="15"/>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J49" s="15"/>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J50" s="15"/>
+    </row>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J51" s="15"/>
+    </row>
+    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J52" s="15"/>
+    </row>
+    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J53" s="15"/>
+    </row>
+    <row r="54" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J54" s="15"/>
+    </row>
+    <row r="55" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J55" s="15"/>
+    </row>
+    <row r="56" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J56" s="15"/>
+    </row>
+    <row r="57" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J57" s="15"/>
+    </row>
+    <row r="58" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J58" s="15"/>
+    </row>
+    <row r="59" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J59" s="15"/>
+    </row>
+    <row r="60" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J60" s="15"/>
+    </row>
+    <row r="61" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J61" s="15"/>
+    </row>
+    <row r="62" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J62" s="15"/>
+    </row>
+    <row r="63" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J63" s="15"/>
+    </row>
+    <row r="64" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J64" s="15"/>
+    </row>
+    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J65" s="15"/>
+    </row>
+    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J66" s="15"/>
+    </row>
+    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J67" s="15"/>
+    </row>
+    <row r="68" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J68" s="15"/>
+    </row>
+    <row r="69" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J69" s="15"/>
+    </row>
+    <row r="70" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J70" s="15"/>
+    </row>
+    <row r="71" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J71" s="15"/>
+    </row>
+    <row r="72" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J72" s="15"/>
+    </row>
+    <row r="73" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J73" s="15"/>
+    </row>
+    <row r="74" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J74" s="15"/>
+    </row>
+    <row r="75" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J75" s="15"/>
+    </row>
+    <row r="76" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J76" s="15"/>
+    </row>
+    <row r="77" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J77" s="15"/>
+    </row>
+    <row r="78" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J78" s="15"/>
+    </row>
+    <row r="79" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J79" s="15"/>
+    </row>
+    <row r="80" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J80" s="15"/>
+    </row>
+    <row r="81" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J81" s="15"/>
+    </row>
+    <row r="82" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J82" s="15"/>
+    </row>
+    <row r="83" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J83" s="15"/>
+    </row>
+    <row r="84" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J84" s="15"/>
+    </row>
+    <row r="85" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J85" s="15"/>
+    </row>
+    <row r="86" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J86" s="15"/>
+    </row>
+    <row r="87" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J87" s="15"/>
+    </row>
+    <row r="88" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J88" s="15"/>
+    </row>
+    <row r="89" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J89" s="15"/>
+    </row>
+    <row r="90" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J90" s="15"/>
+    </row>
+    <row r="91" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J91" s="15"/>
+    </row>
+    <row r="92" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J92" s="15"/>
+    </row>
+    <row r="93" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J93" s="15"/>
+    </row>
+    <row r="94" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J94" s="15"/>
+    </row>
+    <row r="95" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J95" s="15"/>
+    </row>
+    <row r="96" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J96" s="15"/>
+    </row>
+    <row r="97" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J97" s="15"/>
+    </row>
+    <row r="98" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J98" s="15"/>
+    </row>
+    <row r="99" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J99" s="15"/>
+    </row>
+    <row r="100" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J100" s="15"/>
+    </row>
+    <row r="101" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J101" s="15"/>
+    </row>
+    <row r="102" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J102" s="15"/>
+    </row>
+    <row r="103" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J103" s="15"/>
+    </row>
+    <row r="104" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J104" s="15"/>
+    </row>
+    <row r="105" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J105" s="15"/>
+    </row>
+    <row r="106" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J106" s="15"/>
+    </row>
+    <row r="107" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J107" s="15"/>
+    </row>
+    <row r="108" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J108" s="15"/>
+    </row>
+    <row r="109" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J109" s="15"/>
+    </row>
+    <row r="110" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J110" s="15"/>
+    </row>
+    <row r="111" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J111" s="15"/>
+    </row>
+    <row r="112" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J112" s="15"/>
+    </row>
+    <row r="113" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J113" s="15"/>
+    </row>
+    <row r="114" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J114" s="15"/>
+    </row>
+    <row r="115" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J115" s="15"/>
+    </row>
+    <row r="116" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J116" s="15"/>
+    </row>
+    <row r="117" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J117" s="15"/>
+    </row>
+    <row r="118" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J118" s="15"/>
+    </row>
+    <row r="119" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J119" s="15"/>
+    </row>
+    <row r="120" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J120" s="15"/>
+    </row>
+    <row r="121" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J121" s="15"/>
+    </row>
+    <row r="122" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J122" s="15"/>
+    </row>
+    <row r="123" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J123" s="15"/>
+    </row>
+    <row r="124" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J124" s="15"/>
+    </row>
+    <row r="125" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J125" s="15"/>
+    </row>
+    <row r="126" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J126" s="15"/>
+    </row>
+    <row r="127" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J127" s="15"/>
+    </row>
+    <row r="128" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J128" s="15"/>
+    </row>
+    <row r="129" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J129" s="15"/>
+    </row>
+    <row r="130" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J130" s="15"/>
+    </row>
+    <row r="131" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J131" s="15"/>
+    </row>
+    <row r="132" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J132" s="15"/>
+    </row>
+    <row r="133" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J133" s="15"/>
+    </row>
+    <row r="134" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J134" s="15"/>
+    </row>
+    <row r="135" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J135" s="15"/>
+    </row>
+    <row r="136" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J136" s="15"/>
+    </row>
+    <row r="137" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J137" s="15"/>
+    </row>
+    <row r="138" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J138" s="15"/>
+    </row>
+    <row r="139" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J139" s="15"/>
+    </row>
+    <row r="140" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J140" s="15"/>
+    </row>
+    <row r="141" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J141" s="15"/>
+    </row>
+    <row r="142" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J142" s="15"/>
+    </row>
+    <row r="143" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J143" s="15"/>
+    </row>
+    <row r="144" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J144" s="15"/>
+    </row>
+    <row r="145" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J145" s="15"/>
+    </row>
+    <row r="146" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J146" s="15"/>
+    </row>
+    <row r="147" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J147" s="15"/>
+    </row>
+    <row r="148" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J148" s="15"/>
+    </row>
+    <row r="149" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J149" s="15"/>
+    </row>
+    <row r="150" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J150" s="15"/>
+    </row>
+    <row r="151" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J151" s="15"/>
+    </row>
+    <row r="152" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J152" s="15"/>
+    </row>
+    <row r="153" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J153" s="15"/>
+    </row>
+    <row r="154" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J154" s="15"/>
+    </row>
+    <row r="155" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J155" s="15"/>
+    </row>
+    <row r="156" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J156" s="15"/>
+    </row>
+    <row r="157" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J157" s="15"/>
+    </row>
+    <row r="158" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J158" s="15"/>
+    </row>
+    <row r="159" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J159" s="15"/>
+    </row>
+    <row r="160" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J160" s="15"/>
+    </row>
+    <row r="161" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J161" s="15"/>
+    </row>
+    <row r="162" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J162" s="15"/>
+    </row>
+    <row r="163" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J163" s="15"/>
+    </row>
+    <row r="164" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J164" s="15"/>
+    </row>
+    <row r="165" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J165" s="15"/>
+    </row>
+    <row r="166" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J166" s="15"/>
+    </row>
+    <row r="167" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J167" s="15"/>
+    </row>
+    <row r="168" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J168" s="15"/>
+    </row>
+    <row r="169" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J169" s="15"/>
+    </row>
+    <row r="170" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J170" s="15"/>
+    </row>
+    <row r="171" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J171" s="15"/>
+    </row>
+    <row r="172" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J172" s="15"/>
+    </row>
+    <row r="173" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J173" s="15"/>
+    </row>
+    <row r="174" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J174" s="15"/>
+    </row>
+    <row r="175" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J175" s="15"/>
+    </row>
+    <row r="176" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J176" s="15"/>
+    </row>
+    <row r="177" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J177" s="15"/>
+    </row>
+    <row r="178" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J178" s="15"/>
+    </row>
+    <row r="179" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J179" s="15"/>
+    </row>
+    <row r="180" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J180" s="15"/>
+    </row>
+    <row r="181" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J181" s="15"/>
+    </row>
+    <row r="182" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J182" s="15"/>
+    </row>
+    <row r="183" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J183" s="15"/>
+    </row>
+    <row r="184" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J184" s="15"/>
+    </row>
+    <row r="185" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J185" s="15"/>
+    </row>
+    <row r="186" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J186" s="15"/>
+    </row>
+    <row r="187" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J187" s="15"/>
+    </row>
+    <row r="188" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J188" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:O188"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="22" customWidth="1"/>
+    <col min="15" max="15" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="34.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="140" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+    </row>
+    <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
+      <c r="A2" s="142" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+    </row>
+    <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="I3" s="15">
+        <f>C6*7/107</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="34">
+        <f>C6-I3</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>SUM(L4:L11)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+    </row>
+    <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="139" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="139"/>
+      <c r="H4" s="71"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+    </row>
+    <row r="5" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A5" s="9"/>
+      <c r="B5" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="141"/>
+      <c r="D5" s="138">
+        <v>0</v>
+      </c>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138">
+        <v>0</v>
+      </c>
+      <c r="G5" s="138"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="15">
+        <f>D5*0.07</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="21">
+        <f>D5+F5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="2"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="141"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="15">
+        <f t="shared" ref="I7:I12" si="0">D7*0.07</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="21">
+        <f t="shared" ref="J7:J11" si="1">D7+F7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="9"/>
+      <c r="B8" s="141" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="141"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="9"/>
+      <c r="B9" s="141" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="141"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="9"/>
+      <c r="B10" s="141" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="141"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A11" s="9"/>
+      <c r="B11" s="141" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="141"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A12" s="9"/>
+      <c r="B12" s="141" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="141"/>
+      <c r="D12" s="144">
+        <f>SUM(D7:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="145"/>
+      <c r="F12" s="144">
+        <f>SUM(F7:G11)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="144"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="71"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A14" s="143" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="143"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="144">
+        <f>F5-F12</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="145"/>
+      <c r="H14" s="71"/>
+    </row>
+    <row r="16" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A16" s="9"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A17" s="143"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="71"/>
       <c r="I17" s="15">
         <f>SUM(I18:I37)</f>
         <v>2856000</v>
@@ -11622,1034 +12651,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:O188"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="8.5" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="14" width="22" customWidth="1"/>
-    <col min="15" max="15" width="10.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="145" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-    </row>
-    <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="146" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-    </row>
-    <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="I3" s="15">
-        <f>C6*7/107</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="34">
-        <f>C6-I3</f>
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <f>SUM(L4:L11)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-    </row>
-    <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="144" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="144"/>
-      <c r="H4" s="71"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-    </row>
-    <row r="5" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A5" s="9"/>
-      <c r="B5" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="143">
-        <v>0</v>
-      </c>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143">
-        <v>0</v>
-      </c>
-      <c r="G5" s="143"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="15">
-        <f>D5*0.07</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="21">
-        <f>D5+F5</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="N5" s="16"/>
-    </row>
-    <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="69"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="2"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="137" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="15">
-        <f t="shared" ref="I7:I12" si="0">D7*0.07</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="21">
-        <f t="shared" ref="J7:J11" si="1">D7+F7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="9"/>
-      <c r="B8" s="137" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="9"/>
-      <c r="B9" s="137" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="9"/>
-      <c r="B10" s="137" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A11" s="9"/>
-      <c r="B11" s="137" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="137"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A12" s="9"/>
-      <c r="B12" s="137" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="137"/>
-      <c r="D12" s="140">
-        <f>SUM(D7:E11)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="141"/>
-      <c r="F12" s="140">
-        <f>SUM(F7:G11)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="140"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="21"/>
-    </row>
-    <row r="13" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="71"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A14" s="142" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="142"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="140">
-        <f>F5-F12</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="141"/>
-      <c r="H14" s="71"/>
-    </row>
-    <row r="16" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A16" s="9"/>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" t="s">
-        <v>1</v>
-      </c>
-      <c r="M16" t="s">
-        <v>44</v>
-      </c>
-      <c r="N16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A17" s="142"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="15">
-        <f>SUM(I18:I37)</f>
-        <v>2856000</v>
-      </c>
-      <c r="J17" s="15">
-        <f>SUM(J18:J37)</f>
-        <v>80800</v>
-      </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15">
-        <f t="shared" ref="L17:N17" si="2">SUM(L18:L37)</f>
-        <v>9158.8900000000012</v>
-      </c>
-      <c r="M17" s="15">
-        <f t="shared" si="2"/>
-        <v>1050</v>
-      </c>
-      <c r="N17" s="15">
-        <f t="shared" si="2"/>
-        <v>2731.03</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" s="15">
-        <v>234000</v>
-      </c>
-      <c r="J18" s="15">
-        <v>8100</v>
-      </c>
-      <c r="L18">
-        <v>934.58</v>
-      </c>
-      <c r="M18">
-        <v>1050</v>
-      </c>
-      <c r="N18">
-        <v>1928.41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19" s="15">
-        <v>338000</v>
-      </c>
-      <c r="J19" s="15">
-        <v>8100</v>
-      </c>
-      <c r="L19">
-        <v>934.58</v>
-      </c>
-      <c r="N19">
-        <v>802.62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20" s="15">
-        <v>280000</v>
-      </c>
-      <c r="J20" s="15">
-        <v>8000</v>
-      </c>
-      <c r="L20">
-        <v>934.58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H21">
-        <v>4</v>
-      </c>
-      <c r="I21" s="15">
-        <v>154000</v>
-      </c>
-      <c r="J21" s="15">
-        <v>8000</v>
-      </c>
-      <c r="L21">
-        <v>934.58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H22">
-        <v>5</v>
-      </c>
-      <c r="I22" s="15">
-        <v>342000</v>
-      </c>
-      <c r="J22" s="15">
-        <v>8100</v>
-      </c>
-      <c r="L22">
-        <v>1317.76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H23">
-        <v>6</v>
-      </c>
-      <c r="I23" s="15">
-        <v>252000</v>
-      </c>
-      <c r="J23" s="15">
-        <v>8100</v>
-      </c>
-      <c r="L23">
-        <v>1130.8499999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H24">
-        <v>7</v>
-      </c>
-      <c r="I24" s="15">
-        <v>274000</v>
-      </c>
-      <c r="J24" s="15">
-        <v>8100</v>
-      </c>
-      <c r="L24">
-        <v>467.29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H25">
-        <v>8</v>
-      </c>
-      <c r="I25" s="15">
-        <v>362000</v>
-      </c>
-      <c r="J25" s="15">
-        <v>8100</v>
-      </c>
-      <c r="L25">
-        <v>1355.14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H26">
-        <v>9</v>
-      </c>
-      <c r="I26" s="15">
-        <v>298000</v>
-      </c>
-      <c r="J26" s="15">
-        <v>8100</v>
-      </c>
-      <c r="L26">
-        <v>1149.53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H27">
-        <v>10</v>
-      </c>
-      <c r="I27" s="15">
-        <v>322000</v>
-      </c>
-      <c r="J27" s="15">
-        <v>8100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H28">
-        <v>11</v>
-      </c>
-      <c r="J28" s="15"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H29">
-        <v>12</v>
-      </c>
-      <c r="J29" s="15"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H30">
-        <v>13</v>
-      </c>
-      <c r="J30" s="15"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H31">
-        <v>14</v>
-      </c>
-      <c r="J31" s="15"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H32">
-        <v>15</v>
-      </c>
-      <c r="J32" s="15"/>
-    </row>
-    <row r="33" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H33">
-        <v>16</v>
-      </c>
-      <c r="J33" s="15"/>
-    </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H34">
-        <v>17</v>
-      </c>
-      <c r="J34" s="15"/>
-    </row>
-    <row r="35" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H35">
-        <v>18</v>
-      </c>
-      <c r="J35" s="15"/>
-    </row>
-    <row r="36" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H36">
-        <v>19</v>
-      </c>
-      <c r="J36" s="15"/>
-    </row>
-    <row r="37" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H37">
-        <v>20</v>
-      </c>
-      <c r="J37" s="15"/>
-    </row>
-    <row r="38" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="J38" s="15"/>
-    </row>
-    <row r="39" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="J39" s="15"/>
-    </row>
-    <row r="40" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="J40" s="15"/>
-    </row>
-    <row r="41" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="J41" s="15"/>
-    </row>
-    <row r="42" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="J42" s="15"/>
-    </row>
-    <row r="43" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="J43" s="15"/>
-    </row>
-    <row r="44" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="J44" s="15"/>
-    </row>
-    <row r="45" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="J45" s="15"/>
-    </row>
-    <row r="46" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="J46" s="15"/>
-    </row>
-    <row r="47" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="J47" s="15"/>
-    </row>
-    <row r="48" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="J48" s="15"/>
-    </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J49" s="15"/>
-    </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J50" s="15"/>
-    </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J51" s="15"/>
-    </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J52" s="15"/>
-    </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J53" s="15"/>
-    </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J54" s="15"/>
-    </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J55" s="15"/>
-    </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J56" s="15"/>
-    </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J57" s="15"/>
-    </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J58" s="15"/>
-    </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J59" s="15"/>
-    </row>
-    <row r="60" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J60" s="15"/>
-    </row>
-    <row r="61" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J61" s="15"/>
-    </row>
-    <row r="62" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J62" s="15"/>
-    </row>
-    <row r="63" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J63" s="15"/>
-    </row>
-    <row r="64" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J64" s="15"/>
-    </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J65" s="15"/>
-    </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J66" s="15"/>
-    </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J67" s="15"/>
-    </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J68" s="15"/>
-    </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J69" s="15"/>
-    </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J70" s="15"/>
-    </row>
-    <row r="71" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J71" s="15"/>
-    </row>
-    <row r="72" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J72" s="15"/>
-    </row>
-    <row r="73" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J73" s="15"/>
-    </row>
-    <row r="74" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J74" s="15"/>
-    </row>
-    <row r="75" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J75" s="15"/>
-    </row>
-    <row r="76" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J76" s="15"/>
-    </row>
-    <row r="77" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J77" s="15"/>
-    </row>
-    <row r="78" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J78" s="15"/>
-    </row>
-    <row r="79" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J79" s="15"/>
-    </row>
-    <row r="80" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J80" s="15"/>
-    </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J81" s="15"/>
-    </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J82" s="15"/>
-    </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J83" s="15"/>
-    </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J84" s="15"/>
-    </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J85" s="15"/>
-    </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J86" s="15"/>
-    </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J87" s="15"/>
-    </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J88" s="15"/>
-    </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J89" s="15"/>
-    </row>
-    <row r="90" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J90" s="15"/>
-    </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J91" s="15"/>
-    </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J92" s="15"/>
-    </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J93" s="15"/>
-    </row>
-    <row r="94" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J94" s="15"/>
-    </row>
-    <row r="95" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J95" s="15"/>
-    </row>
-    <row r="96" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J96" s="15"/>
-    </row>
-    <row r="97" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J97" s="15"/>
-    </row>
-    <row r="98" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J98" s="15"/>
-    </row>
-    <row r="99" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J99" s="15"/>
-    </row>
-    <row r="100" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J100" s="15"/>
-    </row>
-    <row r="101" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J101" s="15"/>
-    </row>
-    <row r="102" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J102" s="15"/>
-    </row>
-    <row r="103" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J103" s="15"/>
-    </row>
-    <row r="104" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J104" s="15"/>
-    </row>
-    <row r="105" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J105" s="15"/>
-    </row>
-    <row r="106" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J106" s="15"/>
-    </row>
-    <row r="107" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J107" s="15"/>
-    </row>
-    <row r="108" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J108" s="15"/>
-    </row>
-    <row r="109" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J109" s="15"/>
-    </row>
-    <row r="110" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J110" s="15"/>
-    </row>
-    <row r="111" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J111" s="15"/>
-    </row>
-    <row r="112" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J112" s="15"/>
-    </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J113" s="15"/>
-    </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J114" s="15"/>
-    </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J115" s="15"/>
-    </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J116" s="15"/>
-    </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J117" s="15"/>
-    </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J118" s="15"/>
-    </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J119" s="15"/>
-    </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J120" s="15"/>
-    </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J121" s="15"/>
-    </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J122" s="15"/>
-    </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J123" s="15"/>
-    </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J124" s="15"/>
-    </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J125" s="15"/>
-    </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J126" s="15"/>
-    </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J127" s="15"/>
-    </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J128" s="15"/>
-    </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J129" s="15"/>
-    </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J130" s="15"/>
-    </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J131" s="15"/>
-    </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J132" s="15"/>
-    </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J133" s="15"/>
-    </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J134" s="15"/>
-    </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J135" s="15"/>
-    </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J136" s="15"/>
-    </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J137" s="15"/>
-    </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J138" s="15"/>
-    </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J139" s="15"/>
-    </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J140" s="15"/>
-    </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J141" s="15"/>
-    </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J142" s="15"/>
-    </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J143" s="15"/>
-    </row>
-    <row r="144" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J144" s="15"/>
-    </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J145" s="15"/>
-    </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J146" s="15"/>
-    </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J147" s="15"/>
-    </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J148" s="15"/>
-    </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J149" s="15"/>
-    </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J150" s="15"/>
-    </row>
-    <row r="151" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J151" s="15"/>
-    </row>
-    <row r="152" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J152" s="15"/>
-    </row>
-    <row r="153" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J153" s="15"/>
-    </row>
-    <row r="154" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J154" s="15"/>
-    </row>
-    <row r="155" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J155" s="15"/>
-    </row>
-    <row r="156" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J156" s="15"/>
-    </row>
-    <row r="157" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J157" s="15"/>
-    </row>
-    <row r="158" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J158" s="15"/>
-    </row>
-    <row r="159" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J159" s="15"/>
-    </row>
-    <row r="160" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J160" s="15"/>
-    </row>
-    <row r="161" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J161" s="15"/>
-    </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J162" s="15"/>
-    </row>
-    <row r="163" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J163" s="15"/>
-    </row>
-    <row r="164" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J164" s="15"/>
-    </row>
-    <row r="165" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J165" s="15"/>
-    </row>
-    <row r="166" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J166" s="15"/>
-    </row>
-    <row r="167" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J167" s="15"/>
-    </row>
-    <row r="168" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J168" s="15"/>
-    </row>
-    <row r="169" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J169" s="15"/>
-    </row>
-    <row r="170" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J170" s="15"/>
-    </row>
-    <row r="171" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J171" s="15"/>
-    </row>
-    <row r="172" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J172" s="15"/>
-    </row>
-    <row r="173" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J173" s="15"/>
-    </row>
-    <row r="174" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J174" s="15"/>
-    </row>
-    <row r="175" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J175" s="15"/>
-    </row>
-    <row r="176" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J176" s="15"/>
-    </row>
-    <row r="177" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J177" s="15"/>
-    </row>
-    <row r="178" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J178" s="15"/>
-    </row>
-    <row r="179" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J179" s="15"/>
-    </row>
-    <row r="180" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J180" s="15"/>
-    </row>
-    <row r="181" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J181" s="15"/>
-    </row>
-    <row r="182" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J182" s="15"/>
-    </row>
-    <row r="183" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J183" s="15"/>
-    </row>
-    <row r="184" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J184" s="15"/>
-    </row>
-    <row r="185" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J185" s="15"/>
-    </row>
-    <row r="186" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J186" s="15"/>
-    </row>
-    <row r="187" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J187" s="15"/>
-    </row>
-    <row r="188" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J188" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:O25"/>
@@ -12672,74 +12673,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
     </row>
     <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="142" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
     </row>
     <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144" t="s">
+      <c r="C4" s="139"/>
+      <c r="D4" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144" t="s">
+      <c r="E4" s="139"/>
+      <c r="F4" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="144"/>
+      <c r="G4" s="139"/>
       <c r="H4" s="1"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9"/>
-      <c r="B5" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="139">
+      <c r="B5" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="141"/>
+      <c r="D5" s="137">
         <v>415770.35</v>
       </c>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139">
-        <v>0</v>
-      </c>
-      <c r="G5" s="139"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137">
+        <v>0</v>
+      </c>
+      <c r="G5" s="137"/>
       <c r="H5" s="2"/>
       <c r="J5" s="21"/>
       <c r="K5" s="3"/>
@@ -12751,59 +12752,59 @@
         <v>31</v>
       </c>
       <c r="C6" s="156"/>
-      <c r="D6" s="138">
+      <c r="D6" s="146">
         <v>398791.38</v>
       </c>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138">
-        <v>0</v>
-      </c>
-      <c r="G6" s="138"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146">
+        <v>0</v>
+      </c>
+      <c r="G6" s="146"/>
       <c r="H6" s="2"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A7" s="36"/>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="143">
+      <c r="C7" s="141"/>
+      <c r="D7" s="138">
         <f>D5-D6</f>
         <v>16978.969999999972</v>
       </c>
-      <c r="E7" s="143"/>
-      <c r="F7" s="143">
+      <c r="E7" s="138"/>
+      <c r="F7" s="138">
         <f>D7*0.07</f>
         <v>1188.5278999999982</v>
       </c>
-      <c r="G7" s="143"/>
+      <c r="G7" s="138"/>
       <c r="H7" s="2"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="157"/>
       <c r="C8" s="157"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
       <c r="H8" s="2"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9"/>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139">
-        <v>0</v>
-      </c>
-      <c r="G9" s="139"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137">
+        <v>0</v>
+      </c>
+      <c r="G9" s="137"/>
       <c r="H9" s="2"/>
       <c r="J9" s="3"/>
     </row>
@@ -12813,103 +12814,103 @@
         <v>31</v>
       </c>
       <c r="C10" s="156"/>
-      <c r="D10" s="138">
-        <v>0</v>
-      </c>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138">
-        <v>0</v>
-      </c>
-      <c r="G10" s="138"/>
+      <c r="D10" s="146">
+        <v>0</v>
+      </c>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146">
+        <v>0</v>
+      </c>
+      <c r="G10" s="146"/>
       <c r="H10" s="2"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A11" s="9"/>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="137"/>
-      <c r="D11" s="143">
+      <c r="C11" s="141"/>
+      <c r="D11" s="138">
         <f>D9-D10</f>
         <v>0</v>
       </c>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143">
+      <c r="E11" s="138"/>
+      <c r="F11" s="138">
         <f>D11*0.07</f>
         <v>0</v>
       </c>
-      <c r="G11" s="143"/>
+      <c r="G11" s="138"/>
       <c r="H11" s="4"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A12" s="9"/>
-      <c r="B12" s="137"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="141"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="145"/>
       <c r="H12" s="1"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A13" s="142" t="s">
+      <c r="A13" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="142"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="140">
+      <c r="B13" s="143"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="144">
         <f>F7-F11</f>
         <v>1188.5278999999982</v>
       </c>
-      <c r="G13" s="141"/>
+      <c r="G13" s="145"/>
       <c r="H13" s="1"/>
     </row>
     <row r="15" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A15" s="146" t="s">
+      <c r="A15" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
     </row>
     <row r="16" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="144" t="s">
+      <c r="B16" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144" t="s">
+      <c r="C16" s="139"/>
+      <c r="D16" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144" t="s">
+      <c r="E16" s="139"/>
+      <c r="F16" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="144"/>
+      <c r="G16" s="139"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="9"/>
-      <c r="B17" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="137"/>
-      <c r="D17" s="139">
+      <c r="B17" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="141"/>
+      <c r="D17" s="137">
         <v>1416769.7</v>
       </c>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139">
-        <v>0</v>
-      </c>
-      <c r="G17" s="139"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137">
+        <v>0</v>
+      </c>
+      <c r="G17" s="137"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
@@ -12918,57 +12919,57 @@
         <v>31</v>
       </c>
       <c r="C18" s="156"/>
-      <c r="D18" s="138">
+      <c r="D18" s="146">
         <v>1358339.79</v>
       </c>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138">
-        <v>0</v>
-      </c>
-      <c r="G18" s="138"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146">
+        <v>0</v>
+      </c>
+      <c r="G18" s="146"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A19" s="36"/>
-      <c r="B19" s="137" t="s">
+      <c r="B19" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="137"/>
-      <c r="D19" s="143">
+      <c r="C19" s="141"/>
+      <c r="D19" s="138">
         <f>D17-D18</f>
         <v>58429.909999999916</v>
       </c>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143">
+      <c r="E19" s="138"/>
+      <c r="F19" s="138">
         <f>D19*0.07</f>
         <v>4090.0936999999944</v>
       </c>
-      <c r="G19" s="143"/>
+      <c r="G19" s="138"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="157"/>
       <c r="C20" s="157"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="9"/>
-      <c r="B21" s="137" t="s">
+      <c r="B21" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="137"/>
-      <c r="D21" s="139">
+      <c r="C21" s="141"/>
+      <c r="D21" s="137">
         <v>2050570</v>
       </c>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139">
-        <v>0</v>
-      </c>
-      <c r="G21" s="139"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137">
+        <v>0</v>
+      </c>
+      <c r="G21" s="137"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
@@ -12977,84 +12978,84 @@
         <v>31</v>
       </c>
       <c r="C22" s="156"/>
-      <c r="D22" s="138">
+      <c r="D22" s="146">
         <v>1986442.5</v>
       </c>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138">
-        <v>0</v>
-      </c>
-      <c r="G22" s="138"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146">
+        <v>0</v>
+      </c>
+      <c r="G22" s="146"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A23" s="9"/>
-      <c r="B23" s="137" t="s">
+      <c r="B23" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="137"/>
-      <c r="D23" s="143">
+      <c r="C23" s="141"/>
+      <c r="D23" s="138">
         <f>D21-D22</f>
         <v>64127.5</v>
       </c>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143">
+      <c r="E23" s="138"/>
+      <c r="F23" s="138">
         <f>D23*0.07</f>
         <v>4488.9250000000002</v>
       </c>
-      <c r="G23" s="143"/>
+      <c r="G23" s="138"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A24" s="9"/>
-      <c r="B24" s="137"/>
-      <c r="C24" s="137"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="141"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="145"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A25" s="142" t="s">
+      <c r="A25" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="142"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="140">
+      <c r="B25" s="143"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="144">
         <f>F19-F23</f>
         <v>-398.83130000000574</v>
       </c>
-      <c r="G25" s="141"/>
+      <c r="G25" s="145"/>
       <c r="H25" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
@@ -13071,29 +13072,29 @@
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13122,74 +13123,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
     </row>
     <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="142" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
     </row>
     <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144" t="s">
+      <c r="C4" s="139"/>
+      <c r="D4" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144" t="s">
+      <c r="E4" s="139"/>
+      <c r="F4" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="144"/>
+      <c r="G4" s="139"/>
       <c r="H4" s="45"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9"/>
-      <c r="B5" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="139">
+      <c r="B5" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="141"/>
+      <c r="D5" s="137">
         <v>378935.82</v>
       </c>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139">
-        <v>0</v>
-      </c>
-      <c r="G5" s="139"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137">
+        <v>0</v>
+      </c>
+      <c r="G5" s="137"/>
       <c r="H5" s="2"/>
       <c r="J5" s="21"/>
       <c r="K5" s="3"/>
@@ -13201,14 +13202,14 @@
         <v>31</v>
       </c>
       <c r="C6" s="156"/>
-      <c r="D6" s="139">
+      <c r="D6" s="137">
         <v>362676.47</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139">
-        <v>0</v>
-      </c>
-      <c r="G6" s="139"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137">
+        <v>0</v>
+      </c>
+      <c r="G6" s="137"/>
       <c r="H6" s="2"/>
       <c r="J6" s="21"/>
       <c r="K6" s="3"/>
@@ -13216,83 +13217,83 @@
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="48"/>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="139">
+      <c r="C7" s="141"/>
+      <c r="D7" s="137">
         <f>D5-D6</f>
         <v>16259.350000000035</v>
       </c>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139">
-        <v>0</v>
-      </c>
-      <c r="G7" s="139"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137">
+        <v>0</v>
+      </c>
+      <c r="G7" s="137"/>
       <c r="H7" s="2"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A8" s="44"/>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="138">
-        <v>0</v>
-      </c>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138">
-        <v>0</v>
-      </c>
-      <c r="G8" s="138"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="146">
+        <v>0</v>
+      </c>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146">
+        <v>0</v>
+      </c>
+      <c r="G8" s="146"/>
       <c r="H8" s="2"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A9" s="44"/>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="143">
+      <c r="C9" s="141"/>
+      <c r="D9" s="138">
         <f>D7+D8</f>
         <v>16259.350000000035</v>
       </c>
-      <c r="E9" s="143"/>
-      <c r="F9" s="143">
+      <c r="E9" s="138"/>
+      <c r="F9" s="138">
         <f>D9*0.07</f>
         <v>1138.1545000000026</v>
       </c>
-      <c r="G9" s="143"/>
+      <c r="G9" s="138"/>
       <c r="H9" s="2"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="157"/>
       <c r="C10" s="157"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
       <c r="H10" s="2"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9"/>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="137"/>
-      <c r="D11" s="139">
+      <c r="C11" s="141"/>
+      <c r="D11" s="137">
         <v>11313.6</v>
       </c>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139">
-        <v>0</v>
-      </c>
-      <c r="G11" s="139"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137">
+        <v>0</v>
+      </c>
+      <c r="G11" s="137"/>
       <c r="H11" s="2"/>
       <c r="J11" s="3"/>
     </row>
@@ -13300,178 +13301,222 @@
       <c r="A12" s="9"/>
       <c r="B12" s="156"/>
       <c r="C12" s="156"/>
-      <c r="D12" s="138">
-        <v>0</v>
-      </c>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138">
-        <v>0</v>
-      </c>
-      <c r="G12" s="138"/>
+      <c r="D12" s="146">
+        <v>0</v>
+      </c>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146">
+        <v>0</v>
+      </c>
+      <c r="G12" s="146"/>
       <c r="H12" s="2"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A13" s="9"/>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="137"/>
-      <c r="D13" s="143">
+      <c r="C13" s="141"/>
+      <c r="D13" s="138">
         <f>D11-D12</f>
         <v>11313.6</v>
       </c>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143">
+      <c r="E13" s="138"/>
+      <c r="F13" s="138">
         <f>D13*0.07</f>
         <v>791.95200000000011</v>
       </c>
-      <c r="G13" s="143"/>
+      <c r="G13" s="138"/>
       <c r="H13" s="4"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A14" s="9"/>
-      <c r="B14" s="137"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="141"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="145"/>
       <c r="H14" s="45"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A15" s="142" t="s">
+      <c r="A15" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="140">
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="144">
         <f>F9-F13</f>
         <v>346.20250000000249</v>
       </c>
-      <c r="G15" s="141"/>
+      <c r="G15" s="145"/>
       <c r="H15" s="45"/>
     </row>
     <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A17" s="146"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
+      <c r="A17" s="142"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
     </row>
     <row r="18" spans="1:8" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="144"/>
-      <c r="C18" s="144"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="9"/>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A20" s="44"/>
       <c r="B20" s="156"/>
       <c r="C20" s="156"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="138"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A21" s="44"/>
-      <c r="B21" s="137"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="157"/>
       <c r="C22" s="157"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="9"/>
-      <c r="B23" s="137"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A24" s="9"/>
       <c r="B24" s="156"/>
       <c r="C24" s="156"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A25" s="9"/>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A26" s="9"/>
-      <c r="B26" s="137"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="141"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="145"/>
       <c r="H26" s="45"/>
     </row>
     <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A27" s="142"/>
-      <c r="B27" s="142"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="141"/>
+      <c r="A27" s="143"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="145"/>
       <c r="H27" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
@@ -13484,6 +13529,399 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:O27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" customWidth="1"/>
+    <col min="13" max="13" width="12.125" customWidth="1"/>
+    <col min="15" max="15" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="34.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="140" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+    </row>
+    <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
+      <c r="A2" s="142" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+    </row>
+    <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
+      <c r="A3" s="142" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+    </row>
+    <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="139" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="139"/>
+      <c r="H4" s="50"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+    </row>
+    <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="9"/>
+      <c r="B5" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="141"/>
+      <c r="D5" s="137">
+        <v>2849052.6</v>
+      </c>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137">
+        <v>0</v>
+      </c>
+      <c r="G5" s="137"/>
+      <c r="H5" s="2"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="3"/>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="9"/>
+      <c r="B6" s="156" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="156"/>
+      <c r="D6" s="137">
+        <v>2719601.67</v>
+      </c>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137">
+        <v>0</v>
+      </c>
+      <c r="G6" s="137"/>
+      <c r="H6" s="2"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="3"/>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="49"/>
+      <c r="B7" s="141" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="141"/>
+      <c r="D7" s="137">
+        <f>D5-D6</f>
+        <v>129450.93000000017</v>
+      </c>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137">
+        <v>0</v>
+      </c>
+      <c r="G7" s="137"/>
+      <c r="H7" s="2"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A8" s="49"/>
+      <c r="B8" s="141" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="141"/>
+      <c r="D8" s="146">
+        <v>0</v>
+      </c>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146">
+        <v>0</v>
+      </c>
+      <c r="G8" s="146"/>
+      <c r="H8" s="2"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A9" s="49"/>
+      <c r="B9" s="141" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="141"/>
+      <c r="D9" s="138">
+        <f>D7+D8</f>
+        <v>129450.93000000017</v>
+      </c>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138">
+        <f>D9*0.07</f>
+        <v>9061.5651000000125</v>
+      </c>
+      <c r="G9" s="138"/>
+      <c r="H9" s="2"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="157"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="2"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="9"/>
+      <c r="B11" s="141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="141"/>
+      <c r="D11" s="137">
+        <v>73474.34</v>
+      </c>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="2"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A12" s="9"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="146">
+        <v>0</v>
+      </c>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146">
+        <v>0</v>
+      </c>
+      <c r="G12" s="146"/>
+      <c r="H12" s="2"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A13" s="9"/>
+      <c r="B13" s="141" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="141"/>
+      <c r="D13" s="138">
+        <f>D11-D12</f>
+        <v>73474.34</v>
+      </c>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138">
+        <f>D13*0.07</f>
+        <v>5143.2038000000002</v>
+      </c>
+      <c r="G13" s="138"/>
+      <c r="H13" s="4"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A14" s="9"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="50"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A15" s="143" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="144">
+        <f>F9-F13</f>
+        <v>3918.3613000000123</v>
+      </c>
+      <c r="G15" s="145"/>
+      <c r="H15" s="50"/>
+    </row>
+    <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.65">
+      <c r="A17" s="142"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+    </row>
+    <row r="18" spans="1:8" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="50"/>
+    </row>
+    <row r="19" spans="1:8" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="9"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A20" s="49"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A21" s="49"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="157"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="9"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A24" s="9"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A25" s="9"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A26" s="9"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="50"/>
+    </row>
+    <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
+      <c r="A27" s="143"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="68">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
@@ -13540,443 +13978,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:O27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
-    <col min="13" max="13" width="12.125" customWidth="1"/>
-    <col min="15" max="15" width="10.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="145" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-    </row>
-    <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="146" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-    </row>
-    <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A3" s="146" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-    </row>
-    <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="144" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="144"/>
-      <c r="H4" s="50"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-    </row>
-    <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="9"/>
-      <c r="B5" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="139">
-        <v>2849052.6</v>
-      </c>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139">
-        <v>0</v>
-      </c>
-      <c r="G5" s="139"/>
-      <c r="H5" s="2"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="3"/>
-      <c r="N5" s="16"/>
-    </row>
-    <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="9"/>
-      <c r="B6" s="156" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="156"/>
-      <c r="D6" s="139">
-        <v>2719601.67</v>
-      </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139">
-        <v>0</v>
-      </c>
-      <c r="G6" s="139"/>
-      <c r="H6" s="2"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="3"/>
-      <c r="N6" s="16"/>
-    </row>
-    <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="49"/>
-      <c r="B7" s="137" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="139">
-        <f>D5-D6</f>
-        <v>129450.93000000017</v>
-      </c>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139">
-        <v>0</v>
-      </c>
-      <c r="G7" s="139"/>
-      <c r="H7" s="2"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A8" s="49"/>
-      <c r="B8" s="137" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="138">
-        <v>0</v>
-      </c>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138">
-        <v>0</v>
-      </c>
-      <c r="G8" s="138"/>
-      <c r="H8" s="2"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A9" s="49"/>
-      <c r="B9" s="137" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="143">
-        <f>D7+D8</f>
-        <v>129450.93000000017</v>
-      </c>
-      <c r="E9" s="143"/>
-      <c r="F9" s="143">
-        <f>D9*0.07</f>
-        <v>9061.5651000000125</v>
-      </c>
-      <c r="G9" s="143"/>
-      <c r="H9" s="2"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="157"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="2"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="9"/>
-      <c r="B11" s="137" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="137"/>
-      <c r="D11" s="139">
-        <v>73474.34</v>
-      </c>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="2"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A12" s="9"/>
-      <c r="B12" s="156"/>
-      <c r="C12" s="156"/>
-      <c r="D12" s="138">
-        <v>0</v>
-      </c>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138">
-        <v>0</v>
-      </c>
-      <c r="G12" s="138"/>
-      <c r="H12" s="2"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A13" s="9"/>
-      <c r="B13" s="137" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="137"/>
-      <c r="D13" s="143">
-        <f>D11-D12</f>
-        <v>73474.34</v>
-      </c>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143">
-        <f>D13*0.07</f>
-        <v>5143.2038000000002</v>
-      </c>
-      <c r="G13" s="143"/>
-      <c r="H13" s="4"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A14" s="9"/>
-      <c r="B14" s="137"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="50"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A15" s="142" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="140">
-        <f>F9-F13</f>
-        <v>3918.3613000000123</v>
-      </c>
-      <c r="G15" s="141"/>
-      <c r="H15" s="50"/>
-    </row>
-    <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A17" s="146"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-    </row>
-    <row r="18" spans="1:8" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="144"/>
-      <c r="C18" s="144"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="50"/>
-    </row>
-    <row r="19" spans="1:8" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="9"/>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A20" s="49"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A21" s="49"/>
-      <c r="B21" s="137"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="157"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="9"/>
-      <c r="B23" s="137"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A24" s="9"/>
-      <c r="B24" s="156"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A25" s="9"/>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A26" s="9"/>
-      <c r="B26" s="137"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="50"/>
-    </row>
-    <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A27" s="142"/>
-      <c r="B27" s="142"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="50"/>
-    </row>
-  </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:O27"/>
@@ -13998,74 +13999,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="34.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
     </row>
     <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="142" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
     </row>
     <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144" t="s">
+      <c r="C4" s="139"/>
+      <c r="D4" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144" t="s">
+      <c r="E4" s="139"/>
+      <c r="F4" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="144"/>
+      <c r="G4" s="139"/>
       <c r="H4" s="50"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9"/>
-      <c r="B5" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="139">
+      <c r="B5" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="141"/>
+      <c r="D5" s="137">
         <v>10410544.02</v>
       </c>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139">
-        <v>0</v>
-      </c>
-      <c r="G5" s="139"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137">
+        <v>0</v>
+      </c>
+      <c r="G5" s="137"/>
       <c r="H5" s="2"/>
       <c r="J5" s="21"/>
       <c r="K5" s="3"/>
@@ -14077,14 +14078,14 @@
         <v>31</v>
       </c>
       <c r="C6" s="156"/>
-      <c r="D6" s="139">
+      <c r="D6" s="137">
         <v>9970345.4199999999</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139">
-        <v>0</v>
-      </c>
-      <c r="G6" s="139"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137">
+        <v>0</v>
+      </c>
+      <c r="G6" s="137"/>
       <c r="H6" s="2"/>
       <c r="J6" s="21"/>
       <c r="K6" s="3"/>
@@ -14092,81 +14093,81 @@
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="49"/>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="139">
+      <c r="C7" s="141"/>
+      <c r="D7" s="137">
         <f>D5-D6</f>
         <v>440198.59999999963</v>
       </c>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139">
-        <v>0</v>
-      </c>
-      <c r="G7" s="139"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137">
+        <v>0</v>
+      </c>
+      <c r="G7" s="137"/>
       <c r="H7" s="2"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A8" s="49"/>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="138">
-        <v>0</v>
-      </c>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138">
-        <v>0</v>
-      </c>
-      <c r="G8" s="138"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="146">
+        <v>0</v>
+      </c>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146">
+        <v>0</v>
+      </c>
+      <c r="G8" s="146"/>
       <c r="H8" s="2"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A9" s="49"/>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="143">
+      <c r="C9" s="141"/>
+      <c r="D9" s="138">
         <f>D7+D8</f>
         <v>440198.59999999963</v>
       </c>
-      <c r="E9" s="143"/>
-      <c r="F9" s="143">
+      <c r="E9" s="138"/>
+      <c r="F9" s="138">
         <f>D9*0.07</f>
         <v>30813.901999999976</v>
       </c>
-      <c r="G9" s="143"/>
+      <c r="G9" s="138"/>
       <c r="H9" s="2"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="157"/>
       <c r="C10" s="157"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
       <c r="H10" s="2"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9"/>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="137"/>
-      <c r="D11" s="139">
+      <c r="C11" s="141"/>
+      <c r="D11" s="137">
         <v>378186.85</v>
       </c>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
       <c r="H11" s="2"/>
       <c r="J11" s="3"/>
     </row>
@@ -14174,172 +14175,232 @@
       <c r="A12" s="9"/>
       <c r="B12" s="156"/>
       <c r="C12" s="156"/>
-      <c r="D12" s="138">
-        <v>0</v>
-      </c>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138">
-        <v>0</v>
-      </c>
-      <c r="G12" s="138"/>
+      <c r="D12" s="146">
+        <v>0</v>
+      </c>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146">
+        <v>0</v>
+      </c>
+      <c r="G12" s="146"/>
       <c r="H12" s="2"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A13" s="9"/>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="137"/>
-      <c r="D13" s="143">
+      <c r="C13" s="141"/>
+      <c r="D13" s="138">
         <f>D11-D12</f>
         <v>378186.85</v>
       </c>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143">
+      <c r="E13" s="138"/>
+      <c r="F13" s="138">
         <f>D13*0.07</f>
         <v>26473.0795</v>
       </c>
-      <c r="G13" s="143"/>
+      <c r="G13" s="138"/>
       <c r="H13" s="4"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A14" s="9"/>
-      <c r="B14" s="137"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="141"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="145"/>
       <c r="H14" s="50"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A15" s="142" t="s">
+      <c r="A15" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="140">
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="144">
         <f>F9-F13</f>
         <v>4340.8224999999766</v>
       </c>
-      <c r="G15" s="141"/>
+      <c r="G15" s="145"/>
       <c r="H15" s="50"/>
     </row>
     <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.65">
-      <c r="A17" s="146"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
+      <c r="A17" s="142"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
     </row>
     <row r="18" spans="1:8" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="144"/>
-      <c r="C18" s="144"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
       <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:8" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="9"/>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A20" s="49"/>
       <c r="B20" s="156"/>
       <c r="C20" s="156"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="138"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A21" s="49"/>
-      <c r="B21" s="137"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="157"/>
       <c r="C22" s="157"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="9"/>
-      <c r="B23" s="137"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A24" s="9"/>
       <c r="B24" s="156"/>
       <c r="C24" s="156"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A25" s="9"/>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
       <c r="A26" s="9"/>
-      <c r="B26" s="137"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="141"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="145"/>
       <c r="H26" s="50"/>
     </row>
     <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.7">
-      <c r="A27" s="142"/>
-      <c r="B27" s="142"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="141"/>
+      <c r="A27" s="143"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="145"/>
       <c r="H27" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="B25:C25"/>
@@ -14348,66 +14409,6 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
